--- a/lib/documents_treball/operacions_manteniment_v2.xlsx
+++ b/lib/documents_treball/operacions_manteniment_v2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordimarti/Documents/Projectes/caateeb/llibre_edifici/treball/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordimarti/Developer/llibreedifici/llibreedifici/lib/documents_treball/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="460" windowWidth="26360" windowHeight="16560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Operacions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3808" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4128" uniqueCount="1565">
   <si>
     <t>sistema</t>
   </si>
@@ -2268,9 +2268,6 @@
     <t>Llosa</t>
   </si>
   <si>
-    <t>Formigó armat</t>
-  </si>
-  <si>
     <t>Pilons</t>
   </si>
   <si>
@@ -2292,9 +2289,6 @@
     <t>Muro pantalla</t>
   </si>
   <si>
-    <t>Cámara de aire</t>
-  </si>
-  <si>
     <t>Zapatas aisladas</t>
   </si>
   <si>
@@ -2304,9 +2298,6 @@
     <t>Losa</t>
   </si>
   <si>
-    <t>Hormigón armado</t>
-  </si>
-  <si>
     <t>Pilones</t>
   </si>
   <si>
@@ -2394,30 +2385,18 @@
     <t>jasseres_fusta</t>
   </si>
   <si>
-    <t>Fusta</t>
-  </si>
-  <si>
     <t>jasseres_fusta_laminada</t>
   </si>
   <si>
-    <t>Fusta laminada</t>
-  </si>
-  <si>
     <t>jasseres_acer</t>
   </si>
   <si>
-    <t>Acer</t>
-  </si>
-  <si>
     <t>jasseres_formigo_armat</t>
   </si>
   <si>
     <t>jasseres_acer_formigo</t>
   </si>
   <si>
-    <t>Mixtes acer-formigó</t>
-  </si>
-  <si>
     <t>forjat_fusta</t>
   </si>
   <si>
@@ -2499,30 +2478,18 @@
     <t>forjat_horitzontal_coberta_envanets</t>
   </si>
   <si>
-    <t>Envanets i taulell</t>
-  </si>
-  <si>
     <t>forjat_inclinat_coberta_formigo</t>
   </si>
   <si>
     <t>encavallada_bigues_formigo</t>
   </si>
   <si>
-    <t>Formigó armat i taulell</t>
-  </si>
-  <si>
     <t>encavallada_bigues_metall</t>
   </si>
   <si>
-    <t>Acer i taulell</t>
-  </si>
-  <si>
     <t>encavallada_bigues_fusta</t>
   </si>
   <si>
-    <t>Fusta i taulell</t>
-  </si>
-  <si>
     <t>coberta_taulell_ceramic</t>
   </si>
   <si>
@@ -2550,21 +2517,12 @@
     <t>escala_ceramica</t>
   </si>
   <si>
-    <t>Volta ceràmica</t>
-  </si>
-  <si>
     <t>escala_llosa_armada</t>
   </si>
   <si>
-    <t>Llosa armada</t>
-  </si>
-  <si>
     <t>escala_formigo_armat</t>
   </si>
   <si>
-    <t>Biguetes de formigó armat</t>
-  </si>
-  <si>
     <t>sobrecarregues_habitatges</t>
   </si>
   <si>
@@ -2646,18 +2604,6 @@
     <t>Pilares de hormigón armado</t>
   </si>
   <si>
-    <t>Madera</t>
-  </si>
-  <si>
-    <t>Madera laminada</t>
-  </si>
-  <si>
-    <t>Acero</t>
-  </si>
-  <si>
-    <t>Mixtas acero-hormigón</t>
-  </si>
-  <si>
     <t>Forjado de madera</t>
   </si>
   <si>
@@ -2694,18 +2640,6 @@
     <t>Capa de formación de pendientes</t>
   </si>
   <si>
-    <t>Tabiques y tablero</t>
-  </si>
-  <si>
-    <t>Hormigón armado y tablero</t>
-  </si>
-  <si>
-    <t>Acero y tablero</t>
-  </si>
-  <si>
-    <t>Madera y tablero</t>
-  </si>
-  <si>
     <t>Tablero cerámico</t>
   </si>
   <si>
@@ -2715,15 +2649,6 @@
     <t>Chapa/sandwich</t>
   </si>
   <si>
-    <t>Bóveda cerámica</t>
-  </si>
-  <si>
-    <t>Losa armada</t>
-  </si>
-  <si>
-    <t>Viguetas de hormigón armado</t>
-  </si>
-  <si>
     <t>Viviendas</t>
   </si>
   <si>
@@ -2748,33 +2673,18 @@
     <t>paret_pedra</t>
   </si>
   <si>
-    <t>Piedra</t>
-  </si>
-  <si>
     <t>paret_mao_massis</t>
   </si>
   <si>
-    <t>Ladrillo macizo</t>
-  </si>
-  <si>
     <t>paret_mao_perforat</t>
   </si>
   <si>
-    <t>Ladrillo perforado</t>
-  </si>
-  <si>
     <t>paret_bloc_morter</t>
   </si>
   <si>
-    <t>Bloque de mortero</t>
-  </si>
-  <si>
     <t>paret_bloc_formigo_lleuger</t>
   </si>
   <si>
-    <t>Bloque de hormigón ligero</t>
-  </si>
-  <si>
     <t>plafons_formigo_massis</t>
   </si>
   <si>
@@ -2802,57 +2712,30 @@
     <t>acabat_obra_vista</t>
   </si>
   <si>
-    <t>Obra vista</t>
-  </si>
-  <si>
     <t>acabat_revestiment_arrebossat</t>
   </si>
   <si>
-    <t>Revestimiento arrebozado</t>
-  </si>
-  <si>
     <t>acabat_pintura_plastica</t>
   </si>
   <si>
-    <t>Pintura plástica</t>
-  </si>
-  <si>
     <t>acabat_pintura_silicat</t>
   </si>
   <si>
-    <t>Pintura al silicato</t>
-  </si>
-  <si>
     <t>acabat_revestiment_resines</t>
   </si>
   <si>
-    <t>Revestimiento de resinas</t>
-  </si>
-  <si>
     <t>acabat_pintura_cals</t>
   </si>
   <si>
-    <t>Pintura a la cal</t>
-  </si>
-  <si>
     <t>acabat_esgrafiat</t>
   </si>
   <si>
-    <t>Esgrafiado</t>
-  </si>
-  <si>
     <t>acabat_estuc_cals</t>
   </si>
   <si>
-    <t>Estuco de cal</t>
-  </si>
-  <si>
     <t>acabat_morter_monocapa</t>
   </si>
   <si>
-    <t>Mortero monocapa</t>
-  </si>
-  <si>
     <t>acabat_aplacat_pedra</t>
   </si>
   <si>
@@ -2901,27 +2784,15 @@
     <t>aillament_termic</t>
   </si>
   <si>
-    <t>Aislamiento térmico</t>
-  </si>
-  <si>
     <t>parets_mitgeres_enva_ceramica</t>
   </si>
   <si>
-    <t>Tabique de cerámica</t>
-  </si>
-  <si>
     <t>parets_mitgeres_xapa_acer</t>
   </si>
   <si>
-    <t>Chapa de acero</t>
-  </si>
-  <si>
     <t>parets_mitgeres_arrebossat</t>
   </si>
   <si>
-    <t>Rebozado</t>
-  </si>
-  <si>
     <t>parets_mitgeres_pintura_silicat</t>
   </si>
   <si>
@@ -2934,21 +2805,12 @@
     <t>parets_mitgeres_plaques_fibrociment</t>
   </si>
   <si>
-    <t>Placas de fibrocemento</t>
-  </si>
-  <si>
     <t>balcons_llosana_pedra</t>
   </si>
   <si>
-    <t>Losa de piedra</t>
-  </si>
-  <si>
     <t>balcons_solera_ancorada</t>
   </si>
   <si>
-    <t>Solera anclada</t>
-  </si>
-  <si>
     <t>balcons_formigo_armat</t>
   </si>
   <si>
@@ -2970,96 +2832,57 @@
     <t>baranes_pedra_natural</t>
   </si>
   <si>
-    <t>Piedra natural</t>
-  </si>
-  <si>
     <t>baranes_pedra_artificial</t>
   </si>
   <si>
-    <t>Piedra artificial</t>
-  </si>
-  <si>
     <t>baranes_obra</t>
   </si>
   <si>
-    <t>Obra</t>
-  </si>
-  <si>
     <t>baranes_ferro_forjat</t>
   </si>
   <si>
-    <t>Hierro forjado</t>
-  </si>
-  <si>
     <t>baranes_perfils_acer</t>
   </si>
   <si>
-    <t>Perfiles de acero</t>
-  </si>
-  <si>
     <t>baranes_fusta</t>
   </si>
   <si>
     <t>baranes_malla_metalica</t>
   </si>
   <si>
-    <t>Malla metálica</t>
-  </si>
-  <si>
     <t>baranes_vidre_laminat</t>
   </si>
   <si>
-    <t>Vidrio laminado</t>
-  </si>
-  <si>
     <t>baranes_perfils_alumini</t>
   </si>
   <si>
-    <t>Perfiles de aluminio</t>
-  </si>
-  <si>
     <t>llindes_formigo_armat</t>
   </si>
   <si>
     <t>llindes_ceramics</t>
   </si>
   <si>
-    <t>Cerámica</t>
-  </si>
-  <si>
     <t>llindes_acer</t>
   </si>
   <si>
     <t>ampits_xapa_metalica</t>
   </si>
   <si>
-    <t>Chapa metálica</t>
-  </si>
-  <si>
     <t>ampits_ceramica</t>
   </si>
   <si>
     <t>ampits_prefabricat_formigo</t>
   </si>
   <si>
-    <t>Prefabricado de hormigón</t>
-  </si>
-  <si>
     <t>gelosies_prefabricat_formigo</t>
   </si>
   <si>
     <t>gelosies_lameles_metaliques</t>
   </si>
   <si>
-    <t>Lamas metálicas</t>
-  </si>
-  <si>
     <t>gelosies_lameles_plastic</t>
   </si>
   <si>
-    <t>Lamas de plástico</t>
-  </si>
-  <si>
     <t>gelosies_ceramica</t>
   </si>
   <si>
@@ -3069,51 +2892,27 @@
     <t>reixes_alumini</t>
   </si>
   <si>
-    <t>Aluminio</t>
-  </si>
-  <si>
     <t>persianes_enrotllables_pvc</t>
   </si>
   <si>
-    <t>Enrollables de PVC</t>
-  </si>
-  <si>
     <t>persianes_enrotllables_alumini</t>
   </si>
   <si>
-    <t>Enrollables de aluminio</t>
-  </si>
-  <si>
     <t>persianes_enrotllables_fusta</t>
   </si>
   <si>
-    <t>Enrollables de madera</t>
-  </si>
-  <si>
     <t>persianes_llibret_pvc</t>
   </si>
   <si>
-    <t>Librillo de PVC</t>
-  </si>
-  <si>
     <t>persianes_llibret_alumini</t>
   </si>
   <si>
-    <t>Librillo de aluminio</t>
-  </si>
-  <si>
     <t>persianes_llibret_acer</t>
   </si>
   <si>
-    <t>Librillo de acero</t>
-  </si>
-  <si>
     <t>persianes_llibret_fusta</t>
   </si>
   <si>
-    <t>Librillo de madera</t>
-  </si>
-  <si>
     <t>fusteria_fusta</t>
   </si>
   <si>
@@ -3126,9 +2925,6 @@
     <t>fusteria_pvc</t>
   </si>
   <si>
-    <t>PVC</t>
-  </si>
-  <si>
     <t>vidre_simple</t>
   </si>
   <si>
@@ -3159,21 +2955,6 @@
     <t>Vidrio con capa de control solar</t>
   </si>
   <si>
-    <t>Pedra</t>
-  </si>
-  <si>
-    <t>Maó massís</t>
-  </si>
-  <si>
-    <t>Maó perforat</t>
-  </si>
-  <si>
-    <t>Bloc de morter</t>
-  </si>
-  <si>
-    <t>Bloc de formigó lleuger</t>
-  </si>
-  <si>
     <t>Plafons de formigó massís</t>
   </si>
   <si>
@@ -3186,30 +2967,6 @@
     <t>Mur cortina</t>
   </si>
   <si>
-    <t>Revestiment arrebossat</t>
-  </si>
-  <si>
-    <t>Pintura plàstica</t>
-  </si>
-  <si>
-    <t>Pintura al silicat</t>
-  </si>
-  <si>
-    <t>Revestiment de resines</t>
-  </si>
-  <si>
-    <t>Pintura a la calç</t>
-  </si>
-  <si>
-    <t>Esgrafiat</t>
-  </si>
-  <si>
-    <t>Estuc de calç</t>
-  </si>
-  <si>
-    <t>Morter monocapa</t>
-  </si>
-  <si>
     <t>Aplacat de pedra</t>
   </si>
   <si>
@@ -3231,96 +2988,12 @@
     <t>Aplacat amb fixació d'alumini</t>
   </si>
   <si>
-    <t>Cambra d'aire</t>
-  </si>
-  <si>
-    <t>Aïllament tèrmic</t>
-  </si>
-  <si>
-    <t>Envà de ceràmica</t>
-  </si>
-  <si>
-    <t>Xapa d'acer</t>
-  </si>
-  <si>
-    <t>Arrebossat</t>
-  </si>
-  <si>
-    <t>Plaques de fibrociment</t>
-  </si>
-  <si>
-    <t>Llosana de pedra</t>
-  </si>
-  <si>
-    <t>Solera ancorada</t>
-  </si>
-  <si>
     <t>Sobrecàrrega repartida del balcó</t>
   </si>
   <si>
     <t>Sobrecàrrega linial actuant en la vora de la balconada</t>
   </si>
   <si>
-    <t>Pedra natural</t>
-  </si>
-  <si>
-    <t>Pedra artificial</t>
-  </si>
-  <si>
-    <t>Ferro forjat</t>
-  </si>
-  <si>
-    <t>Perfils d'acer</t>
-  </si>
-  <si>
-    <t>Malla metàl·lica</t>
-  </si>
-  <si>
-    <t>Vidre laminat</t>
-  </si>
-  <si>
-    <t>Perfils d'alumini</t>
-  </si>
-  <si>
-    <t>Ceràmica</t>
-  </si>
-  <si>
-    <t>Xapa metàl·lica</t>
-  </si>
-  <si>
-    <t>Prefabricat de formigó</t>
-  </si>
-  <si>
-    <t>Lamel·les metàl·liques</t>
-  </si>
-  <si>
-    <t>Lamel·les de plàstic</t>
-  </si>
-  <si>
-    <t>Alumini</t>
-  </si>
-  <si>
-    <t>Enrotllables de PVC</t>
-  </si>
-  <si>
-    <t>Enrotllables d'alumini</t>
-  </si>
-  <si>
-    <t>Enrotllables de fusta</t>
-  </si>
-  <si>
-    <t>Llibret de PVC</t>
-  </si>
-  <si>
-    <t>Llibret d'alumini</t>
-  </si>
-  <si>
-    <t>Llibret d'acer</t>
-  </si>
-  <si>
-    <t>Llibret de fusta</t>
-  </si>
-  <si>
     <t>Vidre senzill</t>
   </si>
   <si>
@@ -3937,6 +3610,1116 @@
   </si>
   <si>
     <t>Material: hormigón armado</t>
+  </si>
+  <si>
+    <t>Jàsseres de fusta</t>
+  </si>
+  <si>
+    <t>Jàsseres de fusta laminada</t>
+  </si>
+  <si>
+    <t>Jàsseres d'acer</t>
+  </si>
+  <si>
+    <t>Jàsseres de formigó armat</t>
+  </si>
+  <si>
+    <t>Jàsseres mixtes d'acer-formigó</t>
+  </si>
+  <si>
+    <t>Jácenas de madera</t>
+  </si>
+  <si>
+    <t>Jácenas de madera laminada</t>
+  </si>
+  <si>
+    <t>Jácenas de acero</t>
+  </si>
+  <si>
+    <t>Jácenas de hormigón armado</t>
+  </si>
+  <si>
+    <t>Jácenas mixtas de acero-hormigón</t>
+  </si>
+  <si>
+    <t>Sostre horitzontal amb envanets i taulell</t>
+  </si>
+  <si>
+    <t>Sostre inclinat de formigó armat</t>
+  </si>
+  <si>
+    <t>Forjado horizontal de tabiques y tablero</t>
+  </si>
+  <si>
+    <t>Forjado inclinado de hormigón armado</t>
+  </si>
+  <si>
+    <t>Encavallada de formigó armat i taulell</t>
+  </si>
+  <si>
+    <t>Encavallada d'acer i taulell</t>
+  </si>
+  <si>
+    <t>Encavallada de fusta i taulell</t>
+  </si>
+  <si>
+    <t>Cercha de hormigón armado y tablero</t>
+  </si>
+  <si>
+    <t>Cercha de acero y tablero</t>
+  </si>
+  <si>
+    <t>Cercha de madera y tablero</t>
+  </si>
+  <si>
+    <t>Estructura d'escala de fusta</t>
+  </si>
+  <si>
+    <t>Estructura d'escala d'acer</t>
+  </si>
+  <si>
+    <t>Estructura d'escala de volta ceràmica</t>
+  </si>
+  <si>
+    <t>Estructura d'escala de llosa armada</t>
+  </si>
+  <si>
+    <t>Estructura d'escala de biguetes de formigó armat</t>
+  </si>
+  <si>
+    <t>Estructura de escalera de madera</t>
+  </si>
+  <si>
+    <t>Estructura de escalera de acero</t>
+  </si>
+  <si>
+    <t>Estructura de escalera de bóveda cerámica</t>
+  </si>
+  <si>
+    <t>Estructura de escalera de losa armada</t>
+  </si>
+  <si>
+    <t>Estructura de escalera de viguetas de hormigón armado</t>
+  </si>
+  <si>
+    <t>Parets de maó massís</t>
+  </si>
+  <si>
+    <t>Parets de maó perforat</t>
+  </si>
+  <si>
+    <t>Parets de bloc de morter</t>
+  </si>
+  <si>
+    <t>Parets de bloc de formigó lleuger</t>
+  </si>
+  <si>
+    <t>Paredes de ladrillo macizo</t>
+  </si>
+  <si>
+    <t>Paredes de ladrillo perforado</t>
+  </si>
+  <si>
+    <t>Paredes de bloque de mortero</t>
+  </si>
+  <si>
+    <t>Paredes de bloque de hormigón ligero</t>
+  </si>
+  <si>
+    <t>Acabat d'obra vista</t>
+  </si>
+  <si>
+    <t>Acabat de revestiment arrebossat</t>
+  </si>
+  <si>
+    <t>Acabat de pintura plàstica</t>
+  </si>
+  <si>
+    <t>Acabat de pintura al silicat</t>
+  </si>
+  <si>
+    <t>Acabat de revestiment de resines</t>
+  </si>
+  <si>
+    <t>Acabat de pintura a la calç</t>
+  </si>
+  <si>
+    <t>Acabat d'estuc de calç</t>
+  </si>
+  <si>
+    <t>Acabat de morter monocapa</t>
+  </si>
+  <si>
+    <t>Acabado de obra vista</t>
+  </si>
+  <si>
+    <t>Acabado de revestimiento arrebozado</t>
+  </si>
+  <si>
+    <t>Acabado de pintura plástica</t>
+  </si>
+  <si>
+    <t>Acabado de pintura al silicato</t>
+  </si>
+  <si>
+    <t>Acabado de revestimiento de resinas</t>
+  </si>
+  <si>
+    <t>Acabado de pintura a la cal</t>
+  </si>
+  <si>
+    <t>Acabado de esgrafiado</t>
+  </si>
+  <si>
+    <t>Acabat d'esgrafiat</t>
+  </si>
+  <si>
+    <t>Acabado de estuco de cal</t>
+  </si>
+  <si>
+    <t>Acabado de mortero monocapa</t>
+  </si>
+  <si>
+    <t>Els tancaments disposen de cambra d'aire</t>
+  </si>
+  <si>
+    <t>Los cerramientos disponen de cámara de aire</t>
+  </si>
+  <si>
+    <t>Els tancaments disposen d'aïllament tèrmic</t>
+  </si>
+  <si>
+    <t>Los cerramientos disponen de aislamiento térmico</t>
+  </si>
+  <si>
+    <t>Envans de ceràmica</t>
+  </si>
+  <si>
+    <t>Tabiques de cerámica</t>
+  </si>
+  <si>
+    <t>Paredes medianeras rebozadas</t>
+  </si>
+  <si>
+    <t>Parets mitgeres arrebossades</t>
+  </si>
+  <si>
+    <t>Parets mitgeres amb envans de ceràmica</t>
+  </si>
+  <si>
+    <t>Parets mitgeres amb xapa d'acer</t>
+  </si>
+  <si>
+    <t>Parets mitgeres amb pintura al silicat</t>
+  </si>
+  <si>
+    <t>Parets mitgeres amb pintura plàstica</t>
+  </si>
+  <si>
+    <t>Parets mitgeres amb pintura a la calç</t>
+  </si>
+  <si>
+    <t>Parets mitgeres amb plaques de fibrociment</t>
+  </si>
+  <si>
+    <t>Paredes medianeras con tabiques de cerámica</t>
+  </si>
+  <si>
+    <t>Paredes medianeras con chapa de acero</t>
+  </si>
+  <si>
+    <t>Paredes medianeras con pintura al silicato</t>
+  </si>
+  <si>
+    <t>Paredes medianeras con pintura plástica</t>
+  </si>
+  <si>
+    <t>Paredes medianeras con pintura a la cal</t>
+  </si>
+  <si>
+    <t>Paredes medianeras con placas de fibrocemento</t>
+  </si>
+  <si>
+    <t>Balcons de llosana de pedra</t>
+  </si>
+  <si>
+    <t>Balcons de solera ancorada</t>
+  </si>
+  <si>
+    <t>Balcons de formigó armat</t>
+  </si>
+  <si>
+    <t>Balcones de losa de piedra</t>
+  </si>
+  <si>
+    <t>Balcones de solera anclada</t>
+  </si>
+  <si>
+    <t>Balcones de hormigón armado</t>
+  </si>
+  <si>
+    <t>Balcons d'acer</t>
+  </si>
+  <si>
+    <t>Balcones de acero</t>
+  </si>
+  <si>
+    <t>Baranes de pedra natural</t>
+  </si>
+  <si>
+    <t>Baranes de pedra artificial</t>
+  </si>
+  <si>
+    <t>Baranes d'obra</t>
+  </si>
+  <si>
+    <t>Baranes de ferro forjat</t>
+  </si>
+  <si>
+    <t>Baranes de perfils d'acer</t>
+  </si>
+  <si>
+    <t>Baranes de fusta</t>
+  </si>
+  <si>
+    <t>Baranes de malla metàl·lica</t>
+  </si>
+  <si>
+    <t>Baranes de vidre laminat</t>
+  </si>
+  <si>
+    <t>Baranes de perfils d'alumini</t>
+  </si>
+  <si>
+    <t>Barandillas de piedra natural</t>
+  </si>
+  <si>
+    <t>Baranes de piedra artificial</t>
+  </si>
+  <si>
+    <t>Baranes de obra</t>
+  </si>
+  <si>
+    <t>Baranes de hierro forjado</t>
+  </si>
+  <si>
+    <t>Baranes de perfiles de acero</t>
+  </si>
+  <si>
+    <t>Baranes de madera</t>
+  </si>
+  <si>
+    <t>Baranes de malla metálica</t>
+  </si>
+  <si>
+    <t>Baranes de vidrio laminado</t>
+  </si>
+  <si>
+    <t>Baranes de perfiles de aluminio</t>
+  </si>
+  <si>
+    <t>Llindes de formigó armat</t>
+  </si>
+  <si>
+    <t>Llindes de ceràmica</t>
+  </si>
+  <si>
+    <t>Llindes d'acer</t>
+  </si>
+  <si>
+    <t>Dinteles de hormigón armado</t>
+  </si>
+  <si>
+    <t>Dinteles de cerámica</t>
+  </si>
+  <si>
+    <t>Dinteles de acero</t>
+  </si>
+  <si>
+    <t>Ampits de xapa metàl·lica</t>
+  </si>
+  <si>
+    <t>Ampits de ceràmica</t>
+  </si>
+  <si>
+    <t>Ampits prefabricats de formigó</t>
+  </si>
+  <si>
+    <t>Atepechos de chapa metálica</t>
+  </si>
+  <si>
+    <t>Antepechos de cerámica</t>
+  </si>
+  <si>
+    <t>Antepechos prefabricados de hormigón</t>
+  </si>
+  <si>
+    <t>Gelosies prefabricades de formigó</t>
+  </si>
+  <si>
+    <t>Celosías prefabricadas de hormigón</t>
+  </si>
+  <si>
+    <t>Gelosies de lamel·les metàl·liques</t>
+  </si>
+  <si>
+    <t>Gelosies de lamel·les de plàstic</t>
+  </si>
+  <si>
+    <t>Gelosies de ceràmica</t>
+  </si>
+  <si>
+    <t>Celosías de lamas metálicas</t>
+  </si>
+  <si>
+    <t>Celosías de lamas de plástico</t>
+  </si>
+  <si>
+    <t>Celosías de cerámica</t>
+  </si>
+  <si>
+    <t>Reixes de ferro forjat</t>
+  </si>
+  <si>
+    <t>Reixes d'alumini</t>
+  </si>
+  <si>
+    <t>Rejas de hierro forjado</t>
+  </si>
+  <si>
+    <t>Rejas de aluminio</t>
+  </si>
+  <si>
+    <t>Persianes enrotllables de PVC</t>
+  </si>
+  <si>
+    <t>Persianes enrotllables d'alumini</t>
+  </si>
+  <si>
+    <t>Persianes enrotllables de fusta</t>
+  </si>
+  <si>
+    <t>Persianes de llibret de PVC</t>
+  </si>
+  <si>
+    <t>Persianes de llibret d'alumini</t>
+  </si>
+  <si>
+    <t>Persianes de llibret d'acer</t>
+  </si>
+  <si>
+    <t>Persianes de llibret de fusta</t>
+  </si>
+  <si>
+    <t>Persianas enrollables de PVC</t>
+  </si>
+  <si>
+    <t>Persianas enrollables de aluminio</t>
+  </si>
+  <si>
+    <t>Persianas enrollables de madera</t>
+  </si>
+  <si>
+    <t>Persianas de librillo de PVC</t>
+  </si>
+  <si>
+    <t>Persianas de librillo de aluminio</t>
+  </si>
+  <si>
+    <t>Persianas de librillo de acero</t>
+  </si>
+  <si>
+    <t>Persianas de librillo de madera</t>
+  </si>
+  <si>
+    <t>Bastiments de fusta</t>
+  </si>
+  <si>
+    <t>Bastiments d'acer</t>
+  </si>
+  <si>
+    <t>Bastiments d'alumini</t>
+  </si>
+  <si>
+    <t>Bastiments de PVC</t>
+  </si>
+  <si>
+    <t>Carpinterías de madera</t>
+  </si>
+  <si>
+    <t>Carpinterías de acero</t>
+  </si>
+  <si>
+    <t>Carpinterías de aluminio</t>
+  </si>
+  <si>
+    <t>Carpinterías de PVC</t>
+  </si>
+  <si>
+    <t>particions</t>
+  </si>
+  <si>
+    <t>envans_ceramica</t>
+  </si>
+  <si>
+    <t>envans_cartro_guix</t>
+  </si>
+  <si>
+    <t>envans_bloc_formigo</t>
+  </si>
+  <si>
+    <t>envans_paves</t>
+  </si>
+  <si>
+    <t>envans_fusta</t>
+  </si>
+  <si>
+    <t>envans_plaques_alveolades</t>
+  </si>
+  <si>
+    <t>celras_fibres_vegetals</t>
+  </si>
+  <si>
+    <t>celras_fibres_minerals</t>
+  </si>
+  <si>
+    <t>celras_plaques_guix</t>
+  </si>
+  <si>
+    <t>celras_metalic</t>
+  </si>
+  <si>
+    <t>celras_fusta</t>
+  </si>
+  <si>
+    <t>aillament_sota_sostre</t>
+  </si>
+  <si>
+    <t>aillament_sobre_sostre</t>
+  </si>
+  <si>
+    <t>aillament_escuma_melamina</t>
+  </si>
+  <si>
+    <t>aillament_poliestire_extrudit</t>
+  </si>
+  <si>
+    <t>aillament_celulosa</t>
+  </si>
+  <si>
+    <t>aillament_suro_aglomerat</t>
+  </si>
+  <si>
+    <t>revestiment_vertical_enguixat</t>
+  </si>
+  <si>
+    <t>revestiment_vertical_arrebossat</t>
+  </si>
+  <si>
+    <t>revestiment_horitzontal_enguixat</t>
+  </si>
+  <si>
+    <t>revestiment_horitzontal_arrebossat</t>
+  </si>
+  <si>
+    <t>acabat_pintat</t>
+  </si>
+  <si>
+    <t>acabat_aplacat_ceramica</t>
+  </si>
+  <si>
+    <t>acabat_empaperat</t>
+  </si>
+  <si>
+    <t>acabat_taulell_fusta</t>
+  </si>
+  <si>
+    <t>acabat_sintetic</t>
+  </si>
+  <si>
+    <t>acabat_textil</t>
+  </si>
+  <si>
+    <t>acabat_estuc</t>
+  </si>
+  <si>
+    <t>acabat_fusta</t>
+  </si>
+  <si>
+    <t>acabat_suro</t>
+  </si>
+  <si>
+    <t>paviment_formigo</t>
+  </si>
+  <si>
+    <t>paviment_pedra_natural</t>
+  </si>
+  <si>
+    <t>paviment_terratzo</t>
+  </si>
+  <si>
+    <t>paviment_mosaic_hidraulic</t>
+  </si>
+  <si>
+    <t>paviment_suro</t>
+  </si>
+  <si>
+    <t>paviment_ceramica_natural</t>
+  </si>
+  <si>
+    <t>paviment_ceramica_esmaltada</t>
+  </si>
+  <si>
+    <t>paviment_gres_natural</t>
+  </si>
+  <si>
+    <t>paviment_goma</t>
+  </si>
+  <si>
+    <t>paviment_parquet_encolat</t>
+  </si>
+  <si>
+    <t>paviment_parquet_flotant</t>
+  </si>
+  <si>
+    <t>paviment_parquet_llates</t>
+  </si>
+  <si>
+    <t>paviment_pvc</t>
+  </si>
+  <si>
+    <t>paviment_moqueta</t>
+  </si>
+  <si>
+    <t>paviment_linoleum</t>
+  </si>
+  <si>
+    <t>porta_bastiment_fusta</t>
+  </si>
+  <si>
+    <t>porta_bastiment_metalic</t>
+  </si>
+  <si>
+    <t>porta_fulla_massissa_fusta</t>
+  </si>
+  <si>
+    <t>porta_fulla_aplacat_fusta</t>
+  </si>
+  <si>
+    <t>porta_fulla_vidre</t>
+  </si>
+  <si>
+    <t>porta_fulla_alumini</t>
+  </si>
+  <si>
+    <t>porta_fulla_ferro</t>
+  </si>
+  <si>
+    <t>porta_acabat_pintat</t>
+  </si>
+  <si>
+    <t>porta_acabat_lacat</t>
+  </si>
+  <si>
+    <t>porta_acabat_envernissat</t>
+  </si>
+  <si>
+    <t>porta_ferratge_llauto</t>
+  </si>
+  <si>
+    <t>porta_ferratge_acer_llautonat</t>
+  </si>
+  <si>
+    <t>porta_ferratge_acer_niquelat</t>
+  </si>
+  <si>
+    <t>porta_ferratge_acer_inoxidable</t>
+  </si>
+  <si>
+    <t>porta_ferratge_alumini</t>
+  </si>
+  <si>
+    <t>barana_ferro_forjat</t>
+  </si>
+  <si>
+    <t>barana_perfils_acer</t>
+  </si>
+  <si>
+    <t>barana_perfils_alumini</t>
+  </si>
+  <si>
+    <t>barana_fusta</t>
+  </si>
+  <si>
+    <t>barana_pvc</t>
+  </si>
+  <si>
+    <t>barana_vidre_laminat</t>
+  </si>
+  <si>
+    <t>barana_metacrilat</t>
+  </si>
+  <si>
+    <t>Envans de cartró guix</t>
+  </si>
+  <si>
+    <t>Envans de bloc de formigó</t>
+  </si>
+  <si>
+    <t>Envans de pavés</t>
+  </si>
+  <si>
+    <t>Envans de fusta</t>
+  </si>
+  <si>
+    <t>Envans de plaques alveolades</t>
+  </si>
+  <si>
+    <t>Cel ras de fibres vegetals</t>
+  </si>
+  <si>
+    <t>Cel ras de fibres minerals</t>
+  </si>
+  <si>
+    <t>Cel ras de plaques de guix</t>
+  </si>
+  <si>
+    <t>Cel ras metàl·lic</t>
+  </si>
+  <si>
+    <t>Cel ras de fusta</t>
+  </si>
+  <si>
+    <t>Aïllament sota sostre</t>
+  </si>
+  <si>
+    <t>Aïllament sobre sostre</t>
+  </si>
+  <si>
+    <t>Aïllament en plaques</t>
+  </si>
+  <si>
+    <t>Aïllament en mantes</t>
+  </si>
+  <si>
+    <t>Aïllament amorf</t>
+  </si>
+  <si>
+    <t>Aïllament de fibra de vidre</t>
+  </si>
+  <si>
+    <t>Aïllament de polietilè reticulat</t>
+  </si>
+  <si>
+    <t>Aïllament de llana de roca</t>
+  </si>
+  <si>
+    <t>Aïllament d'escuma fenòlica</t>
+  </si>
+  <si>
+    <t>Aïllament d'escuma de poliuretà</t>
+  </si>
+  <si>
+    <t>Aïllament de polietilè expandit</t>
+  </si>
+  <si>
+    <t>Aïllament de fibres tèxtils</t>
+  </si>
+  <si>
+    <t>Aïllament d'argila expandida</t>
+  </si>
+  <si>
+    <t>Aïllament d'escuma de melamina</t>
+  </si>
+  <si>
+    <t>Aïllament de cel·lulosa</t>
+  </si>
+  <si>
+    <t>Aïllament de perlita expandida</t>
+  </si>
+  <si>
+    <t>Aïllament de suro aglomerat</t>
+  </si>
+  <si>
+    <t>Revestiment vertical enguixat</t>
+  </si>
+  <si>
+    <t>Revestiment vertical arrebossat</t>
+  </si>
+  <si>
+    <t>Revestiment horitzontal enguixat</t>
+  </si>
+  <si>
+    <t>Revestiment horitzontal arrebossat</t>
+  </si>
+  <si>
+    <t>Acabat pintat</t>
+  </si>
+  <si>
+    <t>Acabat aplacat de ceràmica</t>
+  </si>
+  <si>
+    <t>Acabat empaperat</t>
+  </si>
+  <si>
+    <t>Acabat de taulell de fusta</t>
+  </si>
+  <si>
+    <t>Acabat sintètic</t>
+  </si>
+  <si>
+    <t>Acabat tèxtil</t>
+  </si>
+  <si>
+    <t>Acabat d'estuc</t>
+  </si>
+  <si>
+    <t>Acabat d'aplacat de pedra</t>
+  </si>
+  <si>
+    <t>Acabat de fusta</t>
+  </si>
+  <si>
+    <t>Acabat de suro</t>
+  </si>
+  <si>
+    <t>Paviment de formigó</t>
+  </si>
+  <si>
+    <t>Paviment de pedra natural</t>
+  </si>
+  <si>
+    <t>Paviment de terratzo</t>
+  </si>
+  <si>
+    <t>Paviment de mosaic hidràulic</t>
+  </si>
+  <si>
+    <t>Paviment de suro</t>
+  </si>
+  <si>
+    <t>Paviment de ceràmica natural</t>
+  </si>
+  <si>
+    <t>Paviment de ceràmica esmaltada</t>
+  </si>
+  <si>
+    <t>Paviment de gres natural</t>
+  </si>
+  <si>
+    <t>Paviment de goma</t>
+  </si>
+  <si>
+    <t>Paviment de parquet encolat</t>
+  </si>
+  <si>
+    <t>Paviment de parquet flotant</t>
+  </si>
+  <si>
+    <t>Paviment de parquet de llates</t>
+  </si>
+  <si>
+    <t>Paviment de PVC</t>
+  </si>
+  <si>
+    <t>Paviment de moqueta</t>
+  </si>
+  <si>
+    <t>Paviment de linòleum</t>
+  </si>
+  <si>
+    <t>Portes amb bastiment de fusta</t>
+  </si>
+  <si>
+    <t>Portes amb bastiment metàl·lic</t>
+  </si>
+  <si>
+    <t>Portes amb fulla massisa de fusta</t>
+  </si>
+  <si>
+    <t>Portes amb fulla d'aplacat de fusta</t>
+  </si>
+  <si>
+    <t>Portes amb fulla de vidre</t>
+  </si>
+  <si>
+    <t>Portes amb fulla d'alumini</t>
+  </si>
+  <si>
+    <t>Portes amb fulla de ferro</t>
+  </si>
+  <si>
+    <t>Portes amb acabat pintat</t>
+  </si>
+  <si>
+    <t>Portes amb acabat lacat</t>
+  </si>
+  <si>
+    <t>Portes amb acabat envernissat</t>
+  </si>
+  <si>
+    <t>Portes amb ferratge de llautó</t>
+  </si>
+  <si>
+    <t>Portes amb ferratge d'acer llautonat</t>
+  </si>
+  <si>
+    <t>Portes amb ferratge d'acer niquelat</t>
+  </si>
+  <si>
+    <t>Portes amb ferratge d'acer inoxidable</t>
+  </si>
+  <si>
+    <t>Portes amb ferratge d'alumini</t>
+  </si>
+  <si>
+    <t>Baranes de perfils de fusta</t>
+  </si>
+  <si>
+    <t>Baranes de PVC</t>
+  </si>
+  <si>
+    <t>Baranes de metacrilat</t>
+  </si>
+  <si>
+    <t>Tabiques de cartón yeso</t>
+  </si>
+  <si>
+    <t>Tabiques de bloque de hormigón</t>
+  </si>
+  <si>
+    <t>Tabiques de pavés</t>
+  </si>
+  <si>
+    <t>Tabiques de madera</t>
+  </si>
+  <si>
+    <t>Tabiques de placas alveoladas</t>
+  </si>
+  <si>
+    <t>Cielo raso de fibras vegetales</t>
+  </si>
+  <si>
+    <t>Cielo raso de fibras minerales</t>
+  </si>
+  <si>
+    <t>Cielo raso de placas de yeso</t>
+  </si>
+  <si>
+    <t>Cielo raso metálico</t>
+  </si>
+  <si>
+    <t>Cielo raso de madera</t>
+  </si>
+  <si>
+    <t>Aislante bajo techo</t>
+  </si>
+  <si>
+    <t>Aislante sobre techo</t>
+  </si>
+  <si>
+    <t>Aislante en placas</t>
+  </si>
+  <si>
+    <t>Aislante en mantas</t>
+  </si>
+  <si>
+    <t>Aislante amorfo</t>
+  </si>
+  <si>
+    <t>Aislante de fibra de vidrio</t>
+  </si>
+  <si>
+    <t>Aislante de polietileno reticulado</t>
+  </si>
+  <si>
+    <t>Aislante de lana de roca</t>
+  </si>
+  <si>
+    <t>Aislante de espuma fenólica</t>
+  </si>
+  <si>
+    <t>Aislante de espuma de poliuretano</t>
+  </si>
+  <si>
+    <t>Aislante de polietileno expandido</t>
+  </si>
+  <si>
+    <t>Aislante de fibras textiles</t>
+  </si>
+  <si>
+    <t>Aislante de arcilla expandida</t>
+  </si>
+  <si>
+    <t>Aislante de espuma de melamina</t>
+  </si>
+  <si>
+    <t>Aislante de poliestireno extruido</t>
+  </si>
+  <si>
+    <t>Aïllament de poliestirè extrudit</t>
+  </si>
+  <si>
+    <t>Aislante de celulosa</t>
+  </si>
+  <si>
+    <t>Aislante de perlita expandida</t>
+  </si>
+  <si>
+    <t>Aislante de corcho aglomerado</t>
+  </si>
+  <si>
+    <t>Revestimiento vertical enyesado</t>
+  </si>
+  <si>
+    <t>Revestimiento vertical rebozado</t>
+  </si>
+  <si>
+    <t>Revestimiento horizontal enyesado</t>
+  </si>
+  <si>
+    <t>Revestimiento horizontal rebozado</t>
+  </si>
+  <si>
+    <t>Acabado pintado</t>
+  </si>
+  <si>
+    <t>Acabado de aplacado de cerámica</t>
+  </si>
+  <si>
+    <t>Acabado empapelado</t>
+  </si>
+  <si>
+    <t>Acabado de tablero de madera</t>
+  </si>
+  <si>
+    <t>Acabado sintético</t>
+  </si>
+  <si>
+    <t>Acabado téxtil</t>
+  </si>
+  <si>
+    <t>Acabado de estuco</t>
+  </si>
+  <si>
+    <t>Acabado de aplacado de piedra</t>
+  </si>
+  <si>
+    <t>Acabado de madera</t>
+  </si>
+  <si>
+    <t>Acabado de corcho</t>
+  </si>
+  <si>
+    <t>Pavimento de hormigón</t>
+  </si>
+  <si>
+    <t>Pavimento de piedra natural</t>
+  </si>
+  <si>
+    <t>Pavimento de terrazo</t>
+  </si>
+  <si>
+    <t>Pavimento de mosaico hidráulico</t>
+  </si>
+  <si>
+    <t>Pavimento de corcho</t>
+  </si>
+  <si>
+    <t>Pavimento de cerámica natural</t>
+  </si>
+  <si>
+    <t>Pavimento de cerámica esmaltada</t>
+  </si>
+  <si>
+    <t>Pavimento de gres natural</t>
+  </si>
+  <si>
+    <t>Pavimento de goma</t>
+  </si>
+  <si>
+    <t>Pavimento de parquet encolado</t>
+  </si>
+  <si>
+    <t>Pavimento de parquet flotante</t>
+  </si>
+  <si>
+    <t>Pavimento de parquet de tarima</t>
+  </si>
+  <si>
+    <t>Pavimento de PVC</t>
+  </si>
+  <si>
+    <t>Pavimento de moqueta</t>
+  </si>
+  <si>
+    <t>Pavimento de linóleo</t>
+  </si>
+  <si>
+    <t>Puertas con carpintería de madera</t>
+  </si>
+  <si>
+    <t>Puertas con carpintería metálica</t>
+  </si>
+  <si>
+    <t>Puertas con hoja maciza de madera</t>
+  </si>
+  <si>
+    <t>Puertas con hoja de aplacado de madera</t>
+  </si>
+  <si>
+    <t>Puertas con hoja de vidrio</t>
+  </si>
+  <si>
+    <t>Puertas con hoja de aluminio</t>
+  </si>
+  <si>
+    <t>Puertas con hoja de hierro</t>
+  </si>
+  <si>
+    <t>Puertas con acabado pintado</t>
+  </si>
+  <si>
+    <t>Puertas con acabado lacado</t>
+  </si>
+  <si>
+    <t>Puertas con acabado barnizado</t>
+  </si>
+  <si>
+    <t>Puertas con herraje de latón</t>
+  </si>
+  <si>
+    <t>Puertas con herraje de acero latonado</t>
+  </si>
+  <si>
+    <t>Puertas con herraje de acero niquelado</t>
+  </si>
+  <si>
+    <t>Puertas con herraje de acero inoxidable</t>
+  </si>
+  <si>
+    <t>Puertas con herraje de aluminio</t>
+  </si>
+  <si>
+    <t>Barandillas de hierro forjado</t>
+  </si>
+  <si>
+    <t>Barandillas de perfiles de acero</t>
+  </si>
+  <si>
+    <t>Barandillas de perfiles de aluminio</t>
+  </si>
+  <si>
+    <t>Barandillas de perfiles de madera</t>
+  </si>
+  <si>
+    <t>Barandillas de PVC</t>
+  </si>
+  <si>
+    <t>Barandillas de vidrio laminado</t>
+  </si>
+  <si>
+    <t>Barandillas de metacrilato</t>
   </si>
 </sst>
 </file>
@@ -19931,17 +20714,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F288"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F288" sqref="F2:F288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" customWidth="1"/>
     <col min="4" max="4" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19970,7 +20753,7 @@
         <v>739</v>
       </c>
       <c r="D2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F2" t="str">
         <f>"ElementPredefinit.create(nom_element: """&amp;B2&amp;""", sistema_element: """&amp;A2&amp;""", descripcio_ca: """&amp;C2&amp;""", descripcio_es: """&amp;D2&amp;""")"</f>
@@ -19988,7 +20771,7 @@
         <v>740</v>
       </c>
       <c r="D3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F66" si="0">"ElementPredefinit.create(nom_element: """&amp;B3&amp;""", sistema_element: """&amp;A3&amp;""", descripcio_ca: """&amp;C3&amp;""", descripcio_es: """&amp;D3&amp;""")"</f>
@@ -20006,7 +20789,7 @@
         <v>741</v>
       </c>
       <c r="D4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -20024,7 +20807,7 @@
         <v>742</v>
       </c>
       <c r="D5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -20042,7 +20825,7 @@
         <v>743</v>
       </c>
       <c r="D6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -20057,10 +20840,10 @@
         <v>727</v>
       </c>
       <c r="C7" t="s">
-        <v>1290</v>
+        <v>1181</v>
       </c>
       <c r="D7" t="s">
-        <v>1297</v>
+        <v>1188</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -20075,10 +20858,10 @@
         <v>728</v>
       </c>
       <c r="C8" t="s">
-        <v>1291</v>
+        <v>1182</v>
       </c>
       <c r="D8" t="s">
-        <v>1298</v>
+        <v>1189</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -20093,10 +20876,10 @@
         <v>729</v>
       </c>
       <c r="C9" t="s">
-        <v>1292</v>
+        <v>1183</v>
       </c>
       <c r="D9" t="s">
-        <v>1299</v>
+        <v>1190</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -20111,10 +20894,10 @@
         <v>730</v>
       </c>
       <c r="C10" t="s">
-        <v>1293</v>
+        <v>1184</v>
       </c>
       <c r="D10" t="s">
-        <v>1300</v>
+        <v>1191</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -20129,10 +20912,10 @@
         <v>731</v>
       </c>
       <c r="C11" t="s">
-        <v>1294</v>
+        <v>1185</v>
       </c>
       <c r="D11" t="s">
-        <v>1301</v>
+        <v>1192</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -20150,7 +20933,7 @@
         <v>744</v>
       </c>
       <c r="D12" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -20168,7 +20951,7 @@
         <v>745</v>
       </c>
       <c r="D13" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -20186,7 +20969,7 @@
         <v>746</v>
       </c>
       <c r="D14" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -20201,10 +20984,10 @@
         <v>735</v>
       </c>
       <c r="C15" t="s">
-        <v>1295</v>
+        <v>1186</v>
       </c>
       <c r="D15" t="s">
-        <v>1302</v>
+        <v>1193</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -20219,10 +21002,10 @@
         <v>736</v>
       </c>
       <c r="C16" t="s">
-        <v>1296</v>
+        <v>1187</v>
       </c>
       <c r="D16" t="s">
-        <v>1303</v>
+        <v>1194</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -20237,10 +21020,10 @@
         <v>737</v>
       </c>
       <c r="C17" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D17" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -20255,10 +21038,10 @@
         <v>738</v>
       </c>
       <c r="C18" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D18" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -20270,13 +21053,13 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D19" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -20288,13 +21071,13 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C20" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D20" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -20306,13 +21089,13 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C21" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D21" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -20324,13 +21107,13 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C22" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D22" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -20342,13 +21125,13 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C23" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D23" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -20360,13 +21143,13 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C24" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D24" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -20378,13 +21161,13 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C25" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D25" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -20396,13 +21179,13 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C26" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D26" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -20414,13 +21197,13 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C27" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D27" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -20432,13 +21215,13 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C28" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D28" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -20450,13 +21233,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C29" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D29" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -20468,13 +21251,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C30" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D30" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -20486,13 +21269,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C31" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D31" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -20504,17 +21287,17 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C32" t="s">
-        <v>789</v>
+        <v>1195</v>
       </c>
       <c r="D32" t="s">
-        <v>873</v>
+        <v>1200</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>ElementPredefinit.create(nom_element: "jasseres_fusta", sistema_element: "estructura", descripcio_ca: "Fusta", descripcio_es: "Madera")</v>
+        <v>ElementPredefinit.create(nom_element: "jasseres_fusta", sistema_element: "estructura", descripcio_ca: "Jàsseres de fusta", descripcio_es: "Jácenas de madera")</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -20522,17 +21305,17 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C33" t="s">
-        <v>791</v>
+        <v>1196</v>
       </c>
       <c r="D33" t="s">
-        <v>874</v>
+        <v>1201</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>ElementPredefinit.create(nom_element: "jasseres_fusta_laminada", sistema_element: "estructura", descripcio_ca: "Fusta laminada", descripcio_es: "Madera laminada")</v>
+        <v>ElementPredefinit.create(nom_element: "jasseres_fusta_laminada", sistema_element: "estructura", descripcio_ca: "Jàsseres de fusta laminada", descripcio_es: "Jácenas de madera laminada")</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -20540,17 +21323,17 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C34" t="s">
-        <v>793</v>
+        <v>1197</v>
       </c>
       <c r="D34" t="s">
-        <v>875</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>ElementPredefinit.create(nom_element: "jasseres_acer", sistema_element: "estructura", descripcio_ca: "Acer", descripcio_es: "Acero")</v>
+        <v>ElementPredefinit.create(nom_element: "jasseres_acer", sistema_element: "estructura", descripcio_ca: "Jàsseres d'acer", descripcio_es: "Jácenas de acero")</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -20558,17 +21341,17 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C35" t="s">
-        <v>747</v>
+        <v>1198</v>
       </c>
       <c r="D35" t="s">
-        <v>759</v>
+        <v>1203</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>ElementPredefinit.create(nom_element: "jasseres_formigo_armat", sistema_element: "estructura", descripcio_ca: "Formigó armat", descripcio_es: "Hormigón armado")</v>
+        <v>ElementPredefinit.create(nom_element: "jasseres_formigo_armat", sistema_element: "estructura", descripcio_ca: "Jàsseres de formigó armat", descripcio_es: "Jácenas de hormigón armado")</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -20576,17 +21359,17 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C36" t="s">
-        <v>796</v>
+        <v>1199</v>
       </c>
       <c r="D36" t="s">
-        <v>876</v>
+        <v>1204</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>ElementPredefinit.create(nom_element: "jasseres_acer_formigo", sistema_element: "estructura", descripcio_ca: "Mixtes acer-formigó", descripcio_es: "Mixtas acero-hormigón")</v>
+        <v>ElementPredefinit.create(nom_element: "jasseres_acer_formigo", sistema_element: "estructura", descripcio_ca: "Jàsseres mixtes d'acer-formigó", descripcio_es: "Jácenas mixtas de acero-hormigón")</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -20594,13 +21377,13 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="C37" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="D37" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -20612,13 +21395,13 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C38" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="D38" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -20630,13 +21413,13 @@
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="C39" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="D39" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -20648,13 +21431,13 @@
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="C40" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="D40" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
@@ -20666,13 +21449,13 @@
         <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="C41" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="D41" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -20684,13 +21467,13 @@
         <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="C42" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D42" t="s">
-        <v>882</v>
+        <v>864</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -20702,13 +21485,13 @@
         <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C43" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D43" t="s">
-        <v>883</v>
+        <v>865</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -20720,13 +21503,13 @@
         <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="C44" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D44" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -20738,13 +21521,13 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="C45" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="D45" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -20756,13 +21539,13 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C46" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D46" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -20774,13 +21557,13 @@
         <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="C47" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D47" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -20792,13 +21575,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="C48" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="D48" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -20810,13 +21593,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="C49" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D49" t="s">
-        <v>888</v>
+        <v>870</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -20828,17 +21611,17 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="C50" t="s">
-        <v>824</v>
+        <v>1205</v>
       </c>
       <c r="D50" t="s">
-        <v>889</v>
+        <v>1207</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>ElementPredefinit.create(nom_element: "forjat_horitzontal_coberta_envanets", sistema_element: "estructura", descripcio_ca: "Envanets i taulell", descripcio_es: "Tabiques y tablero")</v>
+        <v>ElementPredefinit.create(nom_element: "forjat_horitzontal_coberta_envanets", sistema_element: "estructura", descripcio_ca: "Sostre horitzontal amb envanets i taulell", descripcio_es: "Forjado horizontal de tabiques y tablero")</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -20846,17 +21629,17 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="C51" t="s">
-        <v>747</v>
+        <v>1206</v>
       </c>
       <c r="D51" t="s">
-        <v>759</v>
+        <v>1208</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>ElementPredefinit.create(nom_element: "forjat_inclinat_coberta_formigo", sistema_element: "estructura", descripcio_ca: "Formigó armat", descripcio_es: "Hormigón armado")</v>
+        <v>ElementPredefinit.create(nom_element: "forjat_inclinat_coberta_formigo", sistema_element: "estructura", descripcio_ca: "Sostre inclinat de formigó armat", descripcio_es: "Forjado inclinado de hormigón armado")</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -20864,17 +21647,17 @@
         <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C52" t="s">
-        <v>827</v>
+        <v>1209</v>
       </c>
       <c r="D52" t="s">
-        <v>890</v>
+        <v>1212</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>ElementPredefinit.create(nom_element: "encavallada_bigues_formigo", sistema_element: "estructura", descripcio_ca: "Formigó armat i taulell", descripcio_es: "Hormigón armado y tablero")</v>
+        <v>ElementPredefinit.create(nom_element: "encavallada_bigues_formigo", sistema_element: "estructura", descripcio_ca: "Encavallada de formigó armat i taulell", descripcio_es: "Cercha de hormigón armado y tablero")</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -20882,17 +21665,17 @@
         <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="C53" t="s">
-        <v>829</v>
+        <v>1210</v>
       </c>
       <c r="D53" t="s">
-        <v>891</v>
+        <v>1213</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>ElementPredefinit.create(nom_element: "encavallada_bigues_metall", sistema_element: "estructura", descripcio_ca: "Acer i taulell", descripcio_es: "Acero y tablero")</v>
+        <v>ElementPredefinit.create(nom_element: "encavallada_bigues_metall", sistema_element: "estructura", descripcio_ca: "Encavallada d'acer i taulell", descripcio_es: "Cercha de acero y tablero")</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -20900,17 +21683,17 @@
         <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="C54" t="s">
-        <v>831</v>
+        <v>1211</v>
       </c>
       <c r="D54" t="s">
-        <v>892</v>
+        <v>1214</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>ElementPredefinit.create(nom_element: "encavallada_bigues_fusta", sistema_element: "estructura", descripcio_ca: "Fusta i taulell", descripcio_es: "Madera y tablero")</v>
+        <v>ElementPredefinit.create(nom_element: "encavallada_bigues_fusta", sistema_element: "estructura", descripcio_ca: "Encavallada de fusta i taulell", descripcio_es: "Cercha de madera y tablero")</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -20918,13 +21701,13 @@
         <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="C55" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="D55" t="s">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -20936,13 +21719,13 @@
         <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="C56" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="D56" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -20954,13 +21737,13 @@
         <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="C57" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="D57" t="s">
-        <v>895</v>
+        <v>873</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
@@ -20972,17 +21755,17 @@
         <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="C58" t="s">
-        <v>789</v>
+        <v>1215</v>
       </c>
       <c r="D58" t="s">
-        <v>873</v>
+        <v>1220</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>ElementPredefinit.create(nom_element: "escala_fusta", sistema_element: "estructura", descripcio_ca: "Fusta", descripcio_es: "Madera")</v>
+        <v>ElementPredefinit.create(nom_element: "escala_fusta", sistema_element: "estructura", descripcio_ca: "Estructura d'escala de fusta", descripcio_es: "Estructura de escalera de madera")</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -20990,17 +21773,17 @@
         <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="C59" t="s">
-        <v>793</v>
+        <v>1216</v>
       </c>
       <c r="D59" t="s">
-        <v>875</v>
+        <v>1221</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>ElementPredefinit.create(nom_element: "escala_acer", sistema_element: "estructura", descripcio_ca: "Acer", descripcio_es: "Acero")</v>
+        <v>ElementPredefinit.create(nom_element: "escala_acer", sistema_element: "estructura", descripcio_ca: "Estructura d'escala d'acer", descripcio_es: "Estructura de escalera de acero")</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -21008,17 +21791,17 @@
         <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="C60" t="s">
-        <v>841</v>
+        <v>1217</v>
       </c>
       <c r="D60" t="s">
-        <v>896</v>
+        <v>1222</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>ElementPredefinit.create(nom_element: "escala_ceramica", sistema_element: "estructura", descripcio_ca: "Volta ceràmica", descripcio_es: "Bóveda cerámica")</v>
+        <v>ElementPredefinit.create(nom_element: "escala_ceramica", sistema_element: "estructura", descripcio_ca: "Estructura d'escala de volta ceràmica", descripcio_es: "Estructura de escalera de bóveda cerámica")</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -21026,17 +21809,17 @@
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="C61" t="s">
-        <v>843</v>
+        <v>1218</v>
       </c>
       <c r="D61" t="s">
-        <v>897</v>
+        <v>1223</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>ElementPredefinit.create(nom_element: "escala_llosa_armada", sistema_element: "estructura", descripcio_ca: "Llosa armada", descripcio_es: "Losa armada")</v>
+        <v>ElementPredefinit.create(nom_element: "escala_llosa_armada", sistema_element: "estructura", descripcio_ca: "Estructura d'escala de llosa armada", descripcio_es: "Estructura de escalera de losa armada")</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -21044,17 +21827,17 @@
         <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="C62" t="s">
-        <v>845</v>
+        <v>1219</v>
       </c>
       <c r="D62" t="s">
-        <v>898</v>
+        <v>1224</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>ElementPredefinit.create(nom_element: "escala_formigo_armat", sistema_element: "estructura", descripcio_ca: "Biguetes de formigó armat", descripcio_es: "Viguetas de hormigón armado")</v>
+        <v>ElementPredefinit.create(nom_element: "escala_formigo_armat", sistema_element: "estructura", descripcio_ca: "Estructura d'escala de biguetes de formigó armat", descripcio_es: "Estructura de escalera de viguetas de hormigón armado")</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -21062,13 +21845,13 @@
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="C63" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="D63" t="s">
-        <v>899</v>
+        <v>874</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
@@ -21080,13 +21863,13 @@
         <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="C64" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="D64" t="s">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
@@ -21098,13 +21881,13 @@
         <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="C65" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="D65" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
@@ -21116,13 +21899,13 @@
         <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="C66" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="D66" t="s">
-        <v>902</v>
+        <v>877</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -21134,13 +21917,13 @@
         <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="C67" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="D67" t="s">
-        <v>903</v>
+        <v>878</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F130" si="1">"ElementPredefinit.create(nom_element: """&amp;B67&amp;""", sistema_element: """&amp;A67&amp;""", descripcio_ca: """&amp;C67&amp;""", descripcio_es: """&amp;D67&amp;""")"</f>
@@ -21152,13 +21935,13 @@
         <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="C68" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="D68" t="s">
-        <v>904</v>
+        <v>879</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
@@ -21170,13 +21953,13 @@
         <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="C69" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="D69" t="s">
-        <v>905</v>
+        <v>880</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
@@ -21188,17 +21971,17 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="C70" t="s">
-        <v>1044</v>
+        <v>760</v>
       </c>
       <c r="D70" t="s">
-        <v>907</v>
+        <v>846</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "paret_pedra", sistema_element: "tancaments", descripcio_ca: "Pedra", descripcio_es: "Piedra")</v>
+        <v>ElementPredefinit.create(nom_element: "paret_pedra", sistema_element: "tancaments", descripcio_ca: "Parets de pedra", descripcio_es: "Paredes de piedra")</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -21206,17 +21989,17 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>908</v>
+        <v>882</v>
       </c>
       <c r="C71" t="s">
-        <v>1045</v>
+        <v>1225</v>
       </c>
       <c r="D71" t="s">
-        <v>909</v>
+        <v>1229</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "paret_mao_massis", sistema_element: "tancaments", descripcio_ca: "Maó massís", descripcio_es: "Ladrillo macizo")</v>
+        <v>ElementPredefinit.create(nom_element: "paret_mao_massis", sistema_element: "tancaments", descripcio_ca: "Parets de maó massís", descripcio_es: "Paredes de ladrillo macizo")</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -21224,17 +22007,17 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>910</v>
+        <v>883</v>
       </c>
       <c r="C72" t="s">
-        <v>1046</v>
+        <v>1226</v>
       </c>
       <c r="D72" t="s">
-        <v>911</v>
+        <v>1230</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "paret_mao_perforat", sistema_element: "tancaments", descripcio_ca: "Maó perforat", descripcio_es: "Ladrillo perforado")</v>
+        <v>ElementPredefinit.create(nom_element: "paret_mao_perforat", sistema_element: "tancaments", descripcio_ca: "Parets de maó perforat", descripcio_es: "Paredes de ladrillo perforado")</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -21242,17 +22025,17 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>912</v>
+        <v>884</v>
       </c>
       <c r="C73" t="s">
-        <v>1047</v>
+        <v>1227</v>
       </c>
       <c r="D73" t="s">
-        <v>913</v>
+        <v>1231</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "paret_bloc_morter", sistema_element: "tancaments", descripcio_ca: "Bloc de morter", descripcio_es: "Bloque de mortero")</v>
+        <v>ElementPredefinit.create(nom_element: "paret_bloc_morter", sistema_element: "tancaments", descripcio_ca: "Parets de bloc de morter", descripcio_es: "Paredes de bloque de mortero")</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -21260,17 +22043,17 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>914</v>
+        <v>885</v>
       </c>
       <c r="C74" t="s">
-        <v>1048</v>
+        <v>1228</v>
       </c>
       <c r="D74" t="s">
-        <v>915</v>
+        <v>1232</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "paret_bloc_formigo_lleuger", sistema_element: "tancaments", descripcio_ca: "Bloc de formigó lleuger", descripcio_es: "Bloque de hormigón ligero")</v>
+        <v>ElementPredefinit.create(nom_element: "paret_bloc_formigo_lleuger", sistema_element: "tancaments", descripcio_ca: "Parets de bloc de formigó lleuger", descripcio_es: "Paredes de bloque de hormigón ligero")</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -21278,13 +22061,13 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>916</v>
+        <v>886</v>
       </c>
       <c r="C75" t="s">
-        <v>1049</v>
+        <v>976</v>
       </c>
       <c r="D75" t="s">
-        <v>917</v>
+        <v>887</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
@@ -21296,13 +22079,13 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>918</v>
+        <v>888</v>
       </c>
       <c r="C76" t="s">
-        <v>1050</v>
+        <v>977</v>
       </c>
       <c r="D76" t="s">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
@@ -21314,13 +22097,13 @@
         <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="C77" t="s">
-        <v>1051</v>
+        <v>978</v>
       </c>
       <c r="D77" t="s">
-        <v>921</v>
+        <v>891</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
@@ -21332,13 +22115,13 @@
         <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>922</v>
+        <v>892</v>
       </c>
       <c r="C78" t="s">
-        <v>1052</v>
+        <v>979</v>
       </c>
       <c r="D78" t="s">
-        <v>923</v>
+        <v>893</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
@@ -21350,17 +22133,17 @@
         <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>924</v>
+        <v>894</v>
       </c>
       <c r="C79" t="s">
-        <v>925</v>
+        <v>1233</v>
       </c>
       <c r="D79" t="s">
-        <v>925</v>
+        <v>1241</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "acabat_obra_vista", sistema_element: "tancaments", descripcio_ca: "Obra vista", descripcio_es: "Obra vista")</v>
+        <v>ElementPredefinit.create(nom_element: "acabat_obra_vista", sistema_element: "tancaments", descripcio_ca: "Acabat d'obra vista", descripcio_es: "Acabado de obra vista")</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -21368,17 +22151,17 @@
         <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>926</v>
+        <v>895</v>
       </c>
       <c r="C80" t="s">
-        <v>1053</v>
+        <v>1234</v>
       </c>
       <c r="D80" t="s">
-        <v>927</v>
+        <v>1242</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "acabat_revestiment_arrebossat", sistema_element: "tancaments", descripcio_ca: "Revestiment arrebossat", descripcio_es: "Revestimiento arrebozado")</v>
+        <v>ElementPredefinit.create(nom_element: "acabat_revestiment_arrebossat", sistema_element: "tancaments", descripcio_ca: "Acabat de revestiment arrebossat", descripcio_es: "Acabado de revestimiento arrebozado")</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -21386,17 +22169,17 @@
         <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>928</v>
+        <v>896</v>
       </c>
       <c r="C81" t="s">
-        <v>1054</v>
+        <v>1235</v>
       </c>
       <c r="D81" t="s">
-        <v>929</v>
+        <v>1243</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "acabat_pintura_plastica", sistema_element: "tancaments", descripcio_ca: "Pintura plàstica", descripcio_es: "Pintura plástica")</v>
+        <v>ElementPredefinit.create(nom_element: "acabat_pintura_plastica", sistema_element: "tancaments", descripcio_ca: "Acabat de pintura plàstica", descripcio_es: "Acabado de pintura plástica")</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -21404,17 +22187,17 @@
         <v>71</v>
       </c>
       <c r="B82" t="s">
-        <v>930</v>
+        <v>897</v>
       </c>
       <c r="C82" t="s">
-        <v>1055</v>
+        <v>1236</v>
       </c>
       <c r="D82" t="s">
-        <v>931</v>
+        <v>1244</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "acabat_pintura_silicat", sistema_element: "tancaments", descripcio_ca: "Pintura al silicat", descripcio_es: "Pintura al silicato")</v>
+        <v>ElementPredefinit.create(nom_element: "acabat_pintura_silicat", sistema_element: "tancaments", descripcio_ca: "Acabat de pintura al silicat", descripcio_es: "Acabado de pintura al silicato")</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -21422,17 +22205,17 @@
         <v>71</v>
       </c>
       <c r="B83" t="s">
-        <v>932</v>
+        <v>898</v>
       </c>
       <c r="C83" t="s">
-        <v>1056</v>
+        <v>1237</v>
       </c>
       <c r="D83" t="s">
-        <v>933</v>
+        <v>1245</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "acabat_revestiment_resines", sistema_element: "tancaments", descripcio_ca: "Revestiment de resines", descripcio_es: "Revestimiento de resinas")</v>
+        <v>ElementPredefinit.create(nom_element: "acabat_revestiment_resines", sistema_element: "tancaments", descripcio_ca: "Acabat de revestiment de resines", descripcio_es: "Acabado de revestimiento de resinas")</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -21440,17 +22223,17 @@
         <v>71</v>
       </c>
       <c r="B84" t="s">
-        <v>934</v>
+        <v>899</v>
       </c>
       <c r="C84" t="s">
-        <v>1057</v>
+        <v>1238</v>
       </c>
       <c r="D84" t="s">
-        <v>935</v>
+        <v>1246</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "acabat_pintura_cals", sistema_element: "tancaments", descripcio_ca: "Pintura a la calç", descripcio_es: "Pintura a la cal")</v>
+        <v>ElementPredefinit.create(nom_element: "acabat_pintura_cals", sistema_element: "tancaments", descripcio_ca: "Acabat de pintura a la calç", descripcio_es: "Acabado de pintura a la cal")</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -21458,17 +22241,17 @@
         <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>936</v>
+        <v>900</v>
       </c>
       <c r="C85" t="s">
-        <v>1058</v>
+        <v>1248</v>
       </c>
       <c r="D85" t="s">
-        <v>937</v>
+        <v>1247</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "acabat_esgrafiat", sistema_element: "tancaments", descripcio_ca: "Esgrafiat", descripcio_es: "Esgrafiado")</v>
+        <v>ElementPredefinit.create(nom_element: "acabat_esgrafiat", sistema_element: "tancaments", descripcio_ca: "Acabat d'esgrafiat", descripcio_es: "Acabado de esgrafiado")</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -21476,17 +22259,17 @@
         <v>71</v>
       </c>
       <c r="B86" t="s">
-        <v>938</v>
+        <v>901</v>
       </c>
       <c r="C86" t="s">
-        <v>1059</v>
+        <v>1239</v>
       </c>
       <c r="D86" t="s">
-        <v>939</v>
+        <v>1249</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "acabat_estuc_cals", sistema_element: "tancaments", descripcio_ca: "Estuc de calç", descripcio_es: "Estuco de cal")</v>
+        <v>ElementPredefinit.create(nom_element: "acabat_estuc_cals", sistema_element: "tancaments", descripcio_ca: "Acabat d'estuc de calç", descripcio_es: "Acabado de estuco de cal")</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -21494,17 +22277,17 @@
         <v>71</v>
       </c>
       <c r="B87" t="s">
-        <v>940</v>
+        <v>902</v>
       </c>
       <c r="C87" t="s">
-        <v>1060</v>
+        <v>1240</v>
       </c>
       <c r="D87" t="s">
-        <v>941</v>
+        <v>1250</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "acabat_morter_monocapa", sistema_element: "tancaments", descripcio_ca: "Morter monocapa", descripcio_es: "Mortero monocapa")</v>
+        <v>ElementPredefinit.create(nom_element: "acabat_morter_monocapa", sistema_element: "tancaments", descripcio_ca: "Acabat de morter monocapa", descripcio_es: "Acabado de mortero monocapa")</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -21512,13 +22295,13 @@
         <v>71</v>
       </c>
       <c r="B88" t="s">
-        <v>942</v>
+        <v>903</v>
       </c>
       <c r="C88" t="s">
-        <v>1061</v>
+        <v>980</v>
       </c>
       <c r="D88" t="s">
-        <v>943</v>
+        <v>904</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
@@ -21530,13 +22313,13 @@
         <v>71</v>
       </c>
       <c r="B89" t="s">
-        <v>944</v>
+        <v>905</v>
       </c>
       <c r="C89" t="s">
-        <v>1062</v>
+        <v>981</v>
       </c>
       <c r="D89" t="s">
-        <v>945</v>
+        <v>906</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
@@ -21548,13 +22331,13 @@
         <v>71</v>
       </c>
       <c r="B90" t="s">
-        <v>946</v>
+        <v>907</v>
       </c>
       <c r="C90" t="s">
-        <v>1063</v>
+        <v>982</v>
       </c>
       <c r="D90" t="s">
-        <v>947</v>
+        <v>908</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
@@ -21566,13 +22349,13 @@
         <v>71</v>
       </c>
       <c r="B91" t="s">
-        <v>948</v>
+        <v>909</v>
       </c>
       <c r="C91" t="s">
-        <v>1064</v>
+        <v>983</v>
       </c>
       <c r="D91" t="s">
-        <v>949</v>
+        <v>910</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="1"/>
@@ -21584,13 +22367,13 @@
         <v>71</v>
       </c>
       <c r="B92" t="s">
-        <v>950</v>
+        <v>911</v>
       </c>
       <c r="C92" t="s">
-        <v>1065</v>
+        <v>984</v>
       </c>
       <c r="D92" t="s">
-        <v>951</v>
+        <v>912</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="1"/>
@@ -21602,13 +22385,13 @@
         <v>71</v>
       </c>
       <c r="B93" t="s">
-        <v>952</v>
+        <v>913</v>
       </c>
       <c r="C93" t="s">
-        <v>1066</v>
+        <v>985</v>
       </c>
       <c r="D93" t="s">
-        <v>953</v>
+        <v>914</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="1"/>
@@ -21620,13 +22403,13 @@
         <v>71</v>
       </c>
       <c r="B94" t="s">
-        <v>954</v>
+        <v>915</v>
       </c>
       <c r="C94" t="s">
-        <v>1067</v>
+        <v>986</v>
       </c>
       <c r="D94" t="s">
-        <v>955</v>
+        <v>916</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="1"/>
@@ -21638,17 +22421,17 @@
         <v>71</v>
       </c>
       <c r="B95" t="s">
-        <v>956</v>
+        <v>917</v>
       </c>
       <c r="C95" t="s">
-        <v>1068</v>
+        <v>1251</v>
       </c>
       <c r="D95" t="s">
-        <v>755</v>
+        <v>1252</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "cambra_aire_facana", sistema_element: "tancaments", descripcio_ca: "Cambra d'aire", descripcio_es: "Cámara de aire")</v>
+        <v>ElementPredefinit.create(nom_element: "cambra_aire_facana", sistema_element: "tancaments", descripcio_ca: "Els tancaments disposen de cambra d'aire", descripcio_es: "Los cerramientos disponen de cámara de aire")</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -21656,17 +22439,17 @@
         <v>71</v>
       </c>
       <c r="B96" t="s">
-        <v>957</v>
+        <v>918</v>
       </c>
       <c r="C96" t="s">
-        <v>1069</v>
+        <v>1253</v>
       </c>
       <c r="D96" t="s">
-        <v>958</v>
+        <v>1254</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "aillament_termic", sistema_element: "tancaments", descripcio_ca: "Aïllament tèrmic", descripcio_es: "Aislamiento térmico")</v>
+        <v>ElementPredefinit.create(nom_element: "aillament_termic", sistema_element: "tancaments", descripcio_ca: "Els tancaments disposen d'aïllament tèrmic", descripcio_es: "Los cerramientos disponen de aislamiento térmico")</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -21674,17 +22457,17 @@
         <v>71</v>
       </c>
       <c r="B97" t="s">
-        <v>959</v>
+        <v>919</v>
       </c>
       <c r="C97" t="s">
-        <v>1070</v>
+        <v>1259</v>
       </c>
       <c r="D97" t="s">
-        <v>960</v>
+        <v>1265</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "parets_mitgeres_enva_ceramica", sistema_element: "tancaments", descripcio_ca: "Envà de ceràmica", descripcio_es: "Tabique de cerámica")</v>
+        <v>ElementPredefinit.create(nom_element: "parets_mitgeres_enva_ceramica", sistema_element: "tancaments", descripcio_ca: "Parets mitgeres amb envans de ceràmica", descripcio_es: "Paredes medianeras con tabiques de cerámica")</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -21692,17 +22475,17 @@
         <v>71</v>
       </c>
       <c r="B98" t="s">
-        <v>961</v>
+        <v>920</v>
       </c>
       <c r="C98" t="s">
-        <v>1071</v>
+        <v>1260</v>
       </c>
       <c r="D98" t="s">
-        <v>962</v>
+        <v>1266</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "parets_mitgeres_xapa_acer", sistema_element: "tancaments", descripcio_ca: "Xapa d'acer", descripcio_es: "Chapa de acero")</v>
+        <v>ElementPredefinit.create(nom_element: "parets_mitgeres_xapa_acer", sistema_element: "tancaments", descripcio_ca: "Parets mitgeres amb xapa d'acer", descripcio_es: "Paredes medianeras con chapa de acero")</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -21710,17 +22493,17 @@
         <v>71</v>
       </c>
       <c r="B99" t="s">
-        <v>963</v>
+        <v>921</v>
       </c>
       <c r="C99" t="s">
-        <v>1072</v>
+        <v>1258</v>
       </c>
       <c r="D99" t="s">
-        <v>964</v>
+        <v>1257</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "parets_mitgeres_arrebossat", sistema_element: "tancaments", descripcio_ca: "Arrebossat", descripcio_es: "Rebozado")</v>
+        <v>ElementPredefinit.create(nom_element: "parets_mitgeres_arrebossat", sistema_element: "tancaments", descripcio_ca: "Parets mitgeres arrebossades", descripcio_es: "Paredes medianeras rebozadas")</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -21728,17 +22511,17 @@
         <v>71</v>
       </c>
       <c r="B100" t="s">
-        <v>965</v>
+        <v>922</v>
       </c>
       <c r="C100" t="s">
-        <v>1055</v>
+        <v>1261</v>
       </c>
       <c r="D100" t="s">
-        <v>931</v>
+        <v>1267</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "parets_mitgeres_pintura_silicat", sistema_element: "tancaments", descripcio_ca: "Pintura al silicat", descripcio_es: "Pintura al silicato")</v>
+        <v>ElementPredefinit.create(nom_element: "parets_mitgeres_pintura_silicat", sistema_element: "tancaments", descripcio_ca: "Parets mitgeres amb pintura al silicat", descripcio_es: "Paredes medianeras con pintura al silicato")</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -21746,17 +22529,17 @@
         <v>71</v>
       </c>
       <c r="B101" t="s">
-        <v>966</v>
+        <v>923</v>
       </c>
       <c r="C101" t="s">
-        <v>1054</v>
+        <v>1262</v>
       </c>
       <c r="D101" t="s">
-        <v>929</v>
+        <v>1268</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "parets_mitgeres_pintura_plastica", sistema_element: "tancaments", descripcio_ca: "Pintura plàstica", descripcio_es: "Pintura plástica")</v>
+        <v>ElementPredefinit.create(nom_element: "parets_mitgeres_pintura_plastica", sistema_element: "tancaments", descripcio_ca: "Parets mitgeres amb pintura plàstica", descripcio_es: "Paredes medianeras con pintura plástica")</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -21764,17 +22547,17 @@
         <v>71</v>
       </c>
       <c r="B102" t="s">
-        <v>967</v>
+        <v>924</v>
       </c>
       <c r="C102" t="s">
-        <v>1057</v>
+        <v>1263</v>
       </c>
       <c r="D102" t="s">
-        <v>935</v>
+        <v>1269</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "parets_mitgeres_pintura_cals", sistema_element: "tancaments", descripcio_ca: "Pintura a la calç", descripcio_es: "Pintura a la cal")</v>
+        <v>ElementPredefinit.create(nom_element: "parets_mitgeres_pintura_cals", sistema_element: "tancaments", descripcio_ca: "Parets mitgeres amb pintura a la calç", descripcio_es: "Paredes medianeras con pintura a la cal")</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -21782,17 +22565,17 @@
         <v>71</v>
       </c>
       <c r="B103" t="s">
-        <v>968</v>
+        <v>925</v>
       </c>
       <c r="C103" t="s">
-        <v>1073</v>
+        <v>1264</v>
       </c>
       <c r="D103" t="s">
-        <v>969</v>
+        <v>1270</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "parets_mitgeres_plaques_fibrociment", sistema_element: "tancaments", descripcio_ca: "Plaques de fibrociment", descripcio_es: "Placas de fibrocemento")</v>
+        <v>ElementPredefinit.create(nom_element: "parets_mitgeres_plaques_fibrociment", sistema_element: "tancaments", descripcio_ca: "Parets mitgeres amb plaques de fibrociment", descripcio_es: "Paredes medianeras con placas de fibrocemento")</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -21800,17 +22583,17 @@
         <v>71</v>
       </c>
       <c r="B104" t="s">
-        <v>970</v>
+        <v>926</v>
       </c>
       <c r="C104" t="s">
-        <v>1074</v>
+        <v>1271</v>
       </c>
       <c r="D104" t="s">
-        <v>971</v>
+        <v>1274</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "balcons_llosana_pedra", sistema_element: "tancaments", descripcio_ca: "Llosana de pedra", descripcio_es: "Losa de piedra")</v>
+        <v>ElementPredefinit.create(nom_element: "balcons_llosana_pedra", sistema_element: "tancaments", descripcio_ca: "Balcons de llosana de pedra", descripcio_es: "Balcones de losa de piedra")</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -21818,17 +22601,17 @@
         <v>71</v>
       </c>
       <c r="B105" t="s">
-        <v>972</v>
+        <v>927</v>
       </c>
       <c r="C105" t="s">
-        <v>1075</v>
+        <v>1272</v>
       </c>
       <c r="D105" t="s">
-        <v>973</v>
+        <v>1275</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "balcons_solera_ancorada", sistema_element: "tancaments", descripcio_ca: "Solera ancorada", descripcio_es: "Solera anclada")</v>
+        <v>ElementPredefinit.create(nom_element: "balcons_solera_ancorada", sistema_element: "tancaments", descripcio_ca: "Balcons de solera ancorada", descripcio_es: "Balcones de solera anclada")</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -21836,17 +22619,17 @@
         <v>71</v>
       </c>
       <c r="B106" t="s">
-        <v>974</v>
+        <v>928</v>
       </c>
       <c r="C106" t="s">
-        <v>747</v>
+        <v>1273</v>
       </c>
       <c r="D106" t="s">
-        <v>759</v>
+        <v>1276</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "balcons_formigo_armat", sistema_element: "tancaments", descripcio_ca: "Formigó armat", descripcio_es: "Hormigón armado")</v>
+        <v>ElementPredefinit.create(nom_element: "balcons_formigo_armat", sistema_element: "tancaments", descripcio_ca: "Balcons de formigó armat", descripcio_es: "Balcones de hormigón armado")</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -21854,17 +22637,17 @@
         <v>71</v>
       </c>
       <c r="B107" t="s">
-        <v>975</v>
+        <v>929</v>
       </c>
       <c r="C107" t="s">
-        <v>793</v>
+        <v>1277</v>
       </c>
       <c r="D107" t="s">
-        <v>875</v>
+        <v>1278</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "balcons_acer", sistema_element: "tancaments", descripcio_ca: "Acer", descripcio_es: "Acero")</v>
+        <v>ElementPredefinit.create(nom_element: "balcons_acer", sistema_element: "tancaments", descripcio_ca: "Balcons d'acer", descripcio_es: "Balcones de acero")</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -21872,13 +22655,13 @@
         <v>71</v>
       </c>
       <c r="B108" t="s">
-        <v>976</v>
+        <v>930</v>
       </c>
       <c r="C108" t="s">
-        <v>1076</v>
+        <v>987</v>
       </c>
       <c r="D108" t="s">
-        <v>977</v>
+        <v>931</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="1"/>
@@ -21890,13 +22673,13 @@
         <v>71</v>
       </c>
       <c r="B109" t="s">
-        <v>978</v>
+        <v>932</v>
       </c>
       <c r="C109" t="s">
-        <v>1077</v>
+        <v>988</v>
       </c>
       <c r="D109" t="s">
-        <v>979</v>
+        <v>933</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="1"/>
@@ -21908,17 +22691,17 @@
         <v>71</v>
       </c>
       <c r="B110" t="s">
-        <v>980</v>
+        <v>934</v>
       </c>
       <c r="C110" t="s">
-        <v>1078</v>
+        <v>1279</v>
       </c>
       <c r="D110" t="s">
-        <v>981</v>
+        <v>1288</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "baranes_pedra_natural", sistema_element: "tancaments", descripcio_ca: "Pedra natural", descripcio_es: "Piedra natural")</v>
+        <v>ElementPredefinit.create(nom_element: "baranes_pedra_natural", sistema_element: "tancaments", descripcio_ca: "Baranes de pedra natural", descripcio_es: "Barandillas de piedra natural")</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -21926,17 +22709,17 @@
         <v>71</v>
       </c>
       <c r="B111" t="s">
-        <v>982</v>
+        <v>935</v>
       </c>
       <c r="C111" t="s">
-        <v>1079</v>
+        <v>1280</v>
       </c>
       <c r="D111" t="s">
-        <v>983</v>
+        <v>1289</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "baranes_pedra_artificial", sistema_element: "tancaments", descripcio_ca: "Pedra artificial", descripcio_es: "Piedra artificial")</v>
+        <v>ElementPredefinit.create(nom_element: "baranes_pedra_artificial", sistema_element: "tancaments", descripcio_ca: "Baranes de pedra artificial", descripcio_es: "Baranes de piedra artificial")</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -21944,17 +22727,17 @@
         <v>71</v>
       </c>
       <c r="B112" t="s">
-        <v>984</v>
+        <v>936</v>
       </c>
       <c r="C112" t="s">
-        <v>985</v>
+        <v>1281</v>
       </c>
       <c r="D112" t="s">
-        <v>985</v>
+        <v>1290</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "baranes_obra", sistema_element: "tancaments", descripcio_ca: "Obra", descripcio_es: "Obra")</v>
+        <v>ElementPredefinit.create(nom_element: "baranes_obra", sistema_element: "tancaments", descripcio_ca: "Baranes d'obra", descripcio_es: "Baranes de obra")</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -21962,17 +22745,17 @@
         <v>71</v>
       </c>
       <c r="B113" t="s">
-        <v>986</v>
+        <v>937</v>
       </c>
       <c r="C113" t="s">
-        <v>1080</v>
+        <v>1282</v>
       </c>
       <c r="D113" t="s">
-        <v>987</v>
+        <v>1291</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "baranes_ferro_forjat", sistema_element: "tancaments", descripcio_ca: "Ferro forjat", descripcio_es: "Hierro forjado")</v>
+        <v>ElementPredefinit.create(nom_element: "baranes_ferro_forjat", sistema_element: "tancaments", descripcio_ca: "Baranes de ferro forjat", descripcio_es: "Baranes de hierro forjado")</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -21980,17 +22763,17 @@
         <v>71</v>
       </c>
       <c r="B114" t="s">
-        <v>988</v>
+        <v>938</v>
       </c>
       <c r="C114" t="s">
-        <v>1081</v>
+        <v>1283</v>
       </c>
       <c r="D114" t="s">
-        <v>989</v>
+        <v>1292</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "baranes_perfils_acer", sistema_element: "tancaments", descripcio_ca: "Perfils d'acer", descripcio_es: "Perfiles de acero")</v>
+        <v>ElementPredefinit.create(nom_element: "baranes_perfils_acer", sistema_element: "tancaments", descripcio_ca: "Baranes de perfils d'acer", descripcio_es: "Baranes de perfiles de acero")</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -21998,17 +22781,17 @@
         <v>71</v>
       </c>
       <c r="B115" t="s">
-        <v>990</v>
+        <v>939</v>
       </c>
       <c r="C115" t="s">
-        <v>789</v>
+        <v>1284</v>
       </c>
       <c r="D115" t="s">
-        <v>873</v>
+        <v>1293</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "baranes_fusta", sistema_element: "tancaments", descripcio_ca: "Fusta", descripcio_es: "Madera")</v>
+        <v>ElementPredefinit.create(nom_element: "baranes_fusta", sistema_element: "tancaments", descripcio_ca: "Baranes de fusta", descripcio_es: "Baranes de madera")</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -22016,17 +22799,17 @@
         <v>71</v>
       </c>
       <c r="B116" t="s">
-        <v>991</v>
+        <v>940</v>
       </c>
       <c r="C116" t="s">
-        <v>1082</v>
+        <v>1285</v>
       </c>
       <c r="D116" t="s">
-        <v>992</v>
+        <v>1294</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "baranes_malla_metalica", sistema_element: "tancaments", descripcio_ca: "Malla metàl·lica", descripcio_es: "Malla metálica")</v>
+        <v>ElementPredefinit.create(nom_element: "baranes_malla_metalica", sistema_element: "tancaments", descripcio_ca: "Baranes de malla metàl·lica", descripcio_es: "Baranes de malla metálica")</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -22034,17 +22817,17 @@
         <v>71</v>
       </c>
       <c r="B117" t="s">
-        <v>993</v>
+        <v>941</v>
       </c>
       <c r="C117" t="s">
-        <v>1083</v>
+        <v>1286</v>
       </c>
       <c r="D117" t="s">
-        <v>994</v>
+        <v>1295</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "baranes_vidre_laminat", sistema_element: "tancaments", descripcio_ca: "Vidre laminat", descripcio_es: "Vidrio laminado")</v>
+        <v>ElementPredefinit.create(nom_element: "baranes_vidre_laminat", sistema_element: "tancaments", descripcio_ca: "Baranes de vidre laminat", descripcio_es: "Baranes de vidrio laminado")</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -22052,17 +22835,17 @@
         <v>71</v>
       </c>
       <c r="B118" t="s">
-        <v>995</v>
+        <v>942</v>
       </c>
       <c r="C118" t="s">
-        <v>1084</v>
+        <v>1287</v>
       </c>
       <c r="D118" t="s">
-        <v>996</v>
+        <v>1296</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "baranes_perfils_alumini", sistema_element: "tancaments", descripcio_ca: "Perfils d'alumini", descripcio_es: "Perfiles de aluminio")</v>
+        <v>ElementPredefinit.create(nom_element: "baranes_perfils_alumini", sistema_element: "tancaments", descripcio_ca: "Baranes de perfils d'alumini", descripcio_es: "Baranes de perfiles de aluminio")</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -22070,17 +22853,17 @@
         <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>997</v>
+        <v>943</v>
       </c>
       <c r="C119" t="s">
-        <v>747</v>
+        <v>1297</v>
       </c>
       <c r="D119" t="s">
-        <v>759</v>
+        <v>1300</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "llindes_formigo_armat", sistema_element: "tancaments", descripcio_ca: "Formigó armat", descripcio_es: "Hormigón armado")</v>
+        <v>ElementPredefinit.create(nom_element: "llindes_formigo_armat", sistema_element: "tancaments", descripcio_ca: "Llindes de formigó armat", descripcio_es: "Dinteles de hormigón armado")</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -22088,17 +22871,17 @@
         <v>71</v>
       </c>
       <c r="B120" t="s">
-        <v>998</v>
+        <v>944</v>
       </c>
       <c r="C120" t="s">
-        <v>1085</v>
+        <v>1298</v>
       </c>
       <c r="D120" t="s">
-        <v>999</v>
+        <v>1301</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "llindes_ceramics", sistema_element: "tancaments", descripcio_ca: "Ceràmica", descripcio_es: "Cerámica")</v>
+        <v>ElementPredefinit.create(nom_element: "llindes_ceramics", sistema_element: "tancaments", descripcio_ca: "Llindes de ceràmica", descripcio_es: "Dinteles de cerámica")</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -22106,17 +22889,17 @@
         <v>71</v>
       </c>
       <c r="B121" t="s">
-        <v>1000</v>
+        <v>945</v>
       </c>
       <c r="C121" t="s">
-        <v>793</v>
+        <v>1299</v>
       </c>
       <c r="D121" t="s">
-        <v>875</v>
+        <v>1302</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "llindes_acer", sistema_element: "tancaments", descripcio_ca: "Acer", descripcio_es: "Acero")</v>
+        <v>ElementPredefinit.create(nom_element: "llindes_acer", sistema_element: "tancaments", descripcio_ca: "Llindes d'acer", descripcio_es: "Dinteles de acero")</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -22124,17 +22907,17 @@
         <v>71</v>
       </c>
       <c r="B122" t="s">
-        <v>1001</v>
+        <v>946</v>
       </c>
       <c r="C122" t="s">
-        <v>1086</v>
+        <v>1303</v>
       </c>
       <c r="D122" t="s">
-        <v>1002</v>
+        <v>1306</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "ampits_xapa_metalica", sistema_element: "tancaments", descripcio_ca: "Xapa metàl·lica", descripcio_es: "Chapa metálica")</v>
+        <v>ElementPredefinit.create(nom_element: "ampits_xapa_metalica", sistema_element: "tancaments", descripcio_ca: "Ampits de xapa metàl·lica", descripcio_es: "Atepechos de chapa metálica")</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -22142,17 +22925,17 @@
         <v>71</v>
       </c>
       <c r="B123" t="s">
-        <v>1003</v>
+        <v>947</v>
       </c>
       <c r="C123" t="s">
-        <v>1085</v>
+        <v>1304</v>
       </c>
       <c r="D123" t="s">
-        <v>999</v>
+        <v>1307</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "ampits_ceramica", sistema_element: "tancaments", descripcio_ca: "Ceràmica", descripcio_es: "Cerámica")</v>
+        <v>ElementPredefinit.create(nom_element: "ampits_ceramica", sistema_element: "tancaments", descripcio_ca: "Ampits de ceràmica", descripcio_es: "Antepechos de cerámica")</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -22160,17 +22943,17 @@
         <v>71</v>
       </c>
       <c r="B124" t="s">
-        <v>1004</v>
+        <v>948</v>
       </c>
       <c r="C124" t="s">
-        <v>1087</v>
+        <v>1305</v>
       </c>
       <c r="D124" t="s">
-        <v>1005</v>
+        <v>1308</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "ampits_prefabricat_formigo", sistema_element: "tancaments", descripcio_ca: "Prefabricat de formigó", descripcio_es: "Prefabricado de hormigón")</v>
+        <v>ElementPredefinit.create(nom_element: "ampits_prefabricat_formigo", sistema_element: "tancaments", descripcio_ca: "Ampits prefabricats de formigó", descripcio_es: "Antepechos prefabricados de hormigón")</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -22178,17 +22961,17 @@
         <v>71</v>
       </c>
       <c r="B125" t="s">
-        <v>1006</v>
+        <v>949</v>
       </c>
       <c r="C125" t="s">
-        <v>1087</v>
+        <v>1309</v>
       </c>
       <c r="D125" t="s">
-        <v>1005</v>
+        <v>1310</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "gelosies_prefabricat_formigo", sistema_element: "tancaments", descripcio_ca: "Prefabricat de formigó", descripcio_es: "Prefabricado de hormigón")</v>
+        <v>ElementPredefinit.create(nom_element: "gelosies_prefabricat_formigo", sistema_element: "tancaments", descripcio_ca: "Gelosies prefabricades de formigó", descripcio_es: "Celosías prefabricadas de hormigón")</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -22196,17 +22979,17 @@
         <v>71</v>
       </c>
       <c r="B126" t="s">
-        <v>1007</v>
+        <v>950</v>
       </c>
       <c r="C126" t="s">
-        <v>1088</v>
+        <v>1311</v>
       </c>
       <c r="D126" t="s">
-        <v>1008</v>
+        <v>1314</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "gelosies_lameles_metaliques", sistema_element: "tancaments", descripcio_ca: "Lamel·les metàl·liques", descripcio_es: "Lamas metálicas")</v>
+        <v>ElementPredefinit.create(nom_element: "gelosies_lameles_metaliques", sistema_element: "tancaments", descripcio_ca: "Gelosies de lamel·les metàl·liques", descripcio_es: "Celosías de lamas metálicas")</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -22214,17 +22997,17 @@
         <v>71</v>
       </c>
       <c r="B127" t="s">
-        <v>1009</v>
+        <v>951</v>
       </c>
       <c r="C127" t="s">
-        <v>1089</v>
+        <v>1312</v>
       </c>
       <c r="D127" t="s">
-        <v>1010</v>
+        <v>1315</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "gelosies_lameles_plastic", sistema_element: "tancaments", descripcio_ca: "Lamel·les de plàstic", descripcio_es: "Lamas de plástico")</v>
+        <v>ElementPredefinit.create(nom_element: "gelosies_lameles_plastic", sistema_element: "tancaments", descripcio_ca: "Gelosies de lamel·les de plàstic", descripcio_es: "Celosías de lamas de plástico")</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -22232,17 +23015,17 @@
         <v>71</v>
       </c>
       <c r="B128" t="s">
-        <v>1011</v>
+        <v>952</v>
       </c>
       <c r="C128" t="s">
-        <v>1085</v>
+        <v>1313</v>
       </c>
       <c r="D128" t="s">
-        <v>999</v>
+        <v>1316</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "gelosies_ceramica", sistema_element: "tancaments", descripcio_ca: "Ceràmica", descripcio_es: "Cerámica")</v>
+        <v>ElementPredefinit.create(nom_element: "gelosies_ceramica", sistema_element: "tancaments", descripcio_ca: "Gelosies de ceràmica", descripcio_es: "Celosías de cerámica")</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -22250,17 +23033,17 @@
         <v>71</v>
       </c>
       <c r="B129" t="s">
-        <v>1012</v>
+        <v>953</v>
       </c>
       <c r="C129" t="s">
-        <v>1080</v>
+        <v>1317</v>
       </c>
       <c r="D129" t="s">
-        <v>987</v>
+        <v>1319</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "reixes_ferro_forjat", sistema_element: "tancaments", descripcio_ca: "Ferro forjat", descripcio_es: "Hierro forjado")</v>
+        <v>ElementPredefinit.create(nom_element: "reixes_ferro_forjat", sistema_element: "tancaments", descripcio_ca: "Reixes de ferro forjat", descripcio_es: "Rejas de hierro forjado")</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -22268,17 +23051,17 @@
         <v>71</v>
       </c>
       <c r="B130" t="s">
-        <v>1013</v>
+        <v>954</v>
       </c>
       <c r="C130" t="s">
-        <v>1090</v>
+        <v>1318</v>
       </c>
       <c r="D130" t="s">
-        <v>1014</v>
+        <v>1320</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="1"/>
-        <v>ElementPredefinit.create(nom_element: "reixes_alumini", sistema_element: "tancaments", descripcio_ca: "Alumini", descripcio_es: "Aluminio")</v>
+        <v>ElementPredefinit.create(nom_element: "reixes_alumini", sistema_element: "tancaments", descripcio_ca: "Reixes d'alumini", descripcio_es: "Rejas de aluminio")</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -22286,17 +23069,17 @@
         <v>71</v>
       </c>
       <c r="B131" t="s">
-        <v>1015</v>
+        <v>955</v>
       </c>
       <c r="C131" t="s">
-        <v>1091</v>
+        <v>1321</v>
       </c>
       <c r="D131" t="s">
-        <v>1016</v>
+        <v>1328</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" ref="F131:F194" si="2">"ElementPredefinit.create(nom_element: """&amp;B131&amp;""", sistema_element: """&amp;A131&amp;""", descripcio_ca: """&amp;C131&amp;""", descripcio_es: """&amp;D131&amp;""")"</f>
-        <v>ElementPredefinit.create(nom_element: "persianes_enrotllables_pvc", sistema_element: "tancaments", descripcio_ca: "Enrotllables de PVC", descripcio_es: "Enrollables de PVC")</v>
+        <v>ElementPredefinit.create(nom_element: "persianes_enrotllables_pvc", sistema_element: "tancaments", descripcio_ca: "Persianes enrotllables de PVC", descripcio_es: "Persianas enrollables de PVC")</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -22304,17 +23087,17 @@
         <v>71</v>
       </c>
       <c r="B132" t="s">
-        <v>1017</v>
+        <v>956</v>
       </c>
       <c r="C132" t="s">
-        <v>1092</v>
+        <v>1322</v>
       </c>
       <c r="D132" t="s">
-        <v>1018</v>
+        <v>1329</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="2"/>
-        <v>ElementPredefinit.create(nom_element: "persianes_enrotllables_alumini", sistema_element: "tancaments", descripcio_ca: "Enrotllables d'alumini", descripcio_es: "Enrollables de aluminio")</v>
+        <v>ElementPredefinit.create(nom_element: "persianes_enrotllables_alumini", sistema_element: "tancaments", descripcio_ca: "Persianes enrotllables d'alumini", descripcio_es: "Persianas enrollables de aluminio")</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -22322,17 +23105,17 @@
         <v>71</v>
       </c>
       <c r="B133" t="s">
-        <v>1019</v>
+        <v>957</v>
       </c>
       <c r="C133" t="s">
-        <v>1093</v>
+        <v>1323</v>
       </c>
       <c r="D133" t="s">
-        <v>1020</v>
+        <v>1330</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="2"/>
-        <v>ElementPredefinit.create(nom_element: "persianes_enrotllables_fusta", sistema_element: "tancaments", descripcio_ca: "Enrotllables de fusta", descripcio_es: "Enrollables de madera")</v>
+        <v>ElementPredefinit.create(nom_element: "persianes_enrotllables_fusta", sistema_element: "tancaments", descripcio_ca: "Persianes enrotllables de fusta", descripcio_es: "Persianas enrollables de madera")</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -22340,17 +23123,17 @@
         <v>71</v>
       </c>
       <c r="B134" t="s">
-        <v>1021</v>
+        <v>958</v>
       </c>
       <c r="C134" t="s">
-        <v>1094</v>
+        <v>1324</v>
       </c>
       <c r="D134" t="s">
-        <v>1022</v>
+        <v>1331</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="2"/>
-        <v>ElementPredefinit.create(nom_element: "persianes_llibret_pvc", sistema_element: "tancaments", descripcio_ca: "Llibret de PVC", descripcio_es: "Librillo de PVC")</v>
+        <v>ElementPredefinit.create(nom_element: "persianes_llibret_pvc", sistema_element: "tancaments", descripcio_ca: "Persianes de llibret de PVC", descripcio_es: "Persianas de librillo de PVC")</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -22358,17 +23141,17 @@
         <v>71</v>
       </c>
       <c r="B135" t="s">
-        <v>1023</v>
+        <v>959</v>
       </c>
       <c r="C135" t="s">
-        <v>1095</v>
+        <v>1325</v>
       </c>
       <c r="D135" t="s">
-        <v>1024</v>
+        <v>1332</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="2"/>
-        <v>ElementPredefinit.create(nom_element: "persianes_llibret_alumini", sistema_element: "tancaments", descripcio_ca: "Llibret d'alumini", descripcio_es: "Librillo de aluminio")</v>
+        <v>ElementPredefinit.create(nom_element: "persianes_llibret_alumini", sistema_element: "tancaments", descripcio_ca: "Persianes de llibret d'alumini", descripcio_es: "Persianas de librillo de aluminio")</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -22376,17 +23159,17 @@
         <v>71</v>
       </c>
       <c r="B136" t="s">
-        <v>1025</v>
+        <v>960</v>
       </c>
       <c r="C136" t="s">
-        <v>1096</v>
+        <v>1326</v>
       </c>
       <c r="D136" t="s">
-        <v>1026</v>
+        <v>1333</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="2"/>
-        <v>ElementPredefinit.create(nom_element: "persianes_llibret_acer", sistema_element: "tancaments", descripcio_ca: "Llibret d'acer", descripcio_es: "Librillo de acero")</v>
+        <v>ElementPredefinit.create(nom_element: "persianes_llibret_acer", sistema_element: "tancaments", descripcio_ca: "Persianes de llibret d'acer", descripcio_es: "Persianas de librillo de acero")</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -22394,17 +23177,17 @@
         <v>71</v>
       </c>
       <c r="B137" t="s">
-        <v>1027</v>
+        <v>961</v>
       </c>
       <c r="C137" t="s">
-        <v>1097</v>
+        <v>1327</v>
       </c>
       <c r="D137" t="s">
-        <v>1028</v>
+        <v>1334</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="2"/>
-        <v>ElementPredefinit.create(nom_element: "persianes_llibret_fusta", sistema_element: "tancaments", descripcio_ca: "Llibret de fusta", descripcio_es: "Librillo de madera")</v>
+        <v>ElementPredefinit.create(nom_element: "persianes_llibret_fusta", sistema_element: "tancaments", descripcio_ca: "Persianes de llibret de fusta", descripcio_es: "Persianas de librillo de madera")</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -22412,17 +23195,17 @@
         <v>71</v>
       </c>
       <c r="B138" t="s">
-        <v>1029</v>
+        <v>962</v>
       </c>
       <c r="C138" t="s">
-        <v>789</v>
+        <v>1335</v>
       </c>
       <c r="D138" t="s">
-        <v>873</v>
+        <v>1339</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="2"/>
-        <v>ElementPredefinit.create(nom_element: "fusteria_fusta", sistema_element: "tancaments", descripcio_ca: "Fusta", descripcio_es: "Madera")</v>
+        <v>ElementPredefinit.create(nom_element: "fusteria_fusta", sistema_element: "tancaments", descripcio_ca: "Bastiments de fusta", descripcio_es: "Carpinterías de madera")</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -22430,17 +23213,17 @@
         <v>71</v>
       </c>
       <c r="B139" t="s">
-        <v>1030</v>
+        <v>963</v>
       </c>
       <c r="C139" t="s">
-        <v>793</v>
+        <v>1336</v>
       </c>
       <c r="D139" t="s">
-        <v>875</v>
+        <v>1340</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="2"/>
-        <v>ElementPredefinit.create(nom_element: "fusteria_acer", sistema_element: "tancaments", descripcio_ca: "Acer", descripcio_es: "Acero")</v>
+        <v>ElementPredefinit.create(nom_element: "fusteria_acer", sistema_element: "tancaments", descripcio_ca: "Bastiments d'acer", descripcio_es: "Carpinterías de acero")</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -22448,17 +23231,17 @@
         <v>71</v>
       </c>
       <c r="B140" t="s">
-        <v>1031</v>
+        <v>964</v>
       </c>
       <c r="C140" t="s">
-        <v>1090</v>
+        <v>1337</v>
       </c>
       <c r="D140" t="s">
-        <v>1014</v>
+        <v>1341</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="2"/>
-        <v>ElementPredefinit.create(nom_element: "fusteria_alumini", sistema_element: "tancaments", descripcio_ca: "Alumini", descripcio_es: "Aluminio")</v>
+        <v>ElementPredefinit.create(nom_element: "fusteria_alumini", sistema_element: "tancaments", descripcio_ca: "Bastiments d'alumini", descripcio_es: "Carpinterías de aluminio")</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -22466,17 +23249,17 @@
         <v>71</v>
       </c>
       <c r="B141" t="s">
-        <v>1032</v>
+        <v>965</v>
       </c>
       <c r="C141" t="s">
-        <v>1033</v>
+        <v>1338</v>
       </c>
       <c r="D141" t="s">
-        <v>1033</v>
+        <v>1342</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="2"/>
-        <v>ElementPredefinit.create(nom_element: "fusteria_pvc", sistema_element: "tancaments", descripcio_ca: "PVC", descripcio_es: "PVC")</v>
+        <v>ElementPredefinit.create(nom_element: "fusteria_pvc", sistema_element: "tancaments", descripcio_ca: "Bastiments de PVC", descripcio_es: "Carpinterías de PVC")</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -22484,13 +23267,13 @@
         <v>71</v>
       </c>
       <c r="B142" t="s">
-        <v>1034</v>
+        <v>966</v>
       </c>
       <c r="C142" t="s">
-        <v>1098</v>
+        <v>989</v>
       </c>
       <c r="D142" t="s">
-        <v>1035</v>
+        <v>967</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="2"/>
@@ -22502,13 +23285,13 @@
         <v>71</v>
       </c>
       <c r="B143" t="s">
-        <v>1036</v>
+        <v>968</v>
       </c>
       <c r="C143" t="s">
-        <v>1099</v>
+        <v>990</v>
       </c>
       <c r="D143" t="s">
-        <v>1037</v>
+        <v>969</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="2"/>
@@ -22520,13 +23303,13 @@
         <v>71</v>
       </c>
       <c r="B144" t="s">
-        <v>1038</v>
+        <v>970</v>
       </c>
       <c r="C144" t="s">
-        <v>1100</v>
+        <v>991</v>
       </c>
       <c r="D144" t="s">
-        <v>1039</v>
+        <v>971</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="2"/>
@@ -22538,13 +23321,13 @@
         <v>71</v>
       </c>
       <c r="B145" t="s">
-        <v>1040</v>
+        <v>972</v>
       </c>
       <c r="C145" t="s">
-        <v>1101</v>
+        <v>992</v>
       </c>
       <c r="D145" t="s">
-        <v>1041</v>
+        <v>973</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="2"/>
@@ -22556,13 +23339,13 @@
         <v>71</v>
       </c>
       <c r="B146" t="s">
-        <v>1042</v>
+        <v>974</v>
       </c>
       <c r="C146" t="s">
-        <v>1102</v>
+        <v>993</v>
       </c>
       <c r="D146" t="s">
-        <v>1043</v>
+        <v>975</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="2"/>
@@ -22571,16 +23354,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B147" t="s">
-        <v>1103</v>
+        <v>994</v>
       </c>
       <c r="C147" t="s">
-        <v>1183</v>
+        <v>1074</v>
       </c>
       <c r="D147" t="s">
-        <v>1104</v>
+        <v>995</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="2"/>
@@ -22589,16 +23372,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B148" t="s">
-        <v>1105</v>
+        <v>996</v>
       </c>
       <c r="C148" t="s">
-        <v>1184</v>
+        <v>1075</v>
       </c>
       <c r="D148" t="s">
-        <v>1106</v>
+        <v>997</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="2"/>
@@ -22607,16 +23390,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B149" t="s">
-        <v>1107</v>
+        <v>998</v>
       </c>
       <c r="C149" t="s">
-        <v>1185</v>
+        <v>1076</v>
       </c>
       <c r="D149" t="s">
-        <v>1108</v>
+        <v>999</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="2"/>
@@ -22625,16 +23408,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B150" t="s">
-        <v>1109</v>
+        <v>1000</v>
       </c>
       <c r="C150" t="s">
-        <v>1186</v>
+        <v>1077</v>
       </c>
       <c r="D150" t="s">
-        <v>1110</v>
+        <v>1001</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="2"/>
@@ -22643,16 +23426,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B151" t="s">
-        <v>1111</v>
+        <v>1002</v>
       </c>
       <c r="C151" t="s">
-        <v>1189</v>
+        <v>1080</v>
       </c>
       <c r="D151" t="s">
-        <v>1199</v>
+        <v>1090</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="2"/>
@@ -22661,16 +23444,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B152" t="s">
-        <v>1112</v>
+        <v>1003</v>
       </c>
       <c r="C152" t="s">
-        <v>1190</v>
+        <v>1081</v>
       </c>
       <c r="D152" t="s">
-        <v>1200</v>
+        <v>1091</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="2"/>
@@ -22679,16 +23462,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B153" t="s">
-        <v>1113</v>
+        <v>1004</v>
       </c>
       <c r="C153" t="s">
-        <v>1191</v>
+        <v>1082</v>
       </c>
       <c r="D153" t="s">
-        <v>1201</v>
+        <v>1092</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="2"/>
@@ -22697,16 +23480,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B154" t="s">
-        <v>1114</v>
+        <v>1005</v>
       </c>
       <c r="C154" t="s">
-        <v>1192</v>
+        <v>1083</v>
       </c>
       <c r="D154" t="s">
-        <v>1202</v>
+        <v>1093</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="2"/>
@@ -22715,16 +23498,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B155" t="s">
-        <v>1115</v>
+        <v>1006</v>
       </c>
       <c r="C155" t="s">
-        <v>1193</v>
+        <v>1084</v>
       </c>
       <c r="D155" t="s">
-        <v>1203</v>
+        <v>1094</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="2"/>
@@ -22733,16 +23516,16 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B156" t="s">
-        <v>1116</v>
+        <v>1007</v>
       </c>
       <c r="C156" t="s">
-        <v>1194</v>
+        <v>1085</v>
       </c>
       <c r="D156" t="s">
-        <v>1204</v>
+        <v>1095</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="2"/>
@@ -22751,16 +23534,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B157" t="s">
-        <v>1117</v>
+        <v>1008</v>
       </c>
       <c r="C157" t="s">
-        <v>1195</v>
+        <v>1086</v>
       </c>
       <c r="D157" t="s">
-        <v>1205</v>
+        <v>1096</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="2"/>
@@ -22769,16 +23552,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B158" t="s">
-        <v>1118</v>
+        <v>1009</v>
       </c>
       <c r="C158" t="s">
-        <v>1196</v>
+        <v>1087</v>
       </c>
       <c r="D158" t="s">
-        <v>1206</v>
+        <v>1097</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="2"/>
@@ -22787,16 +23570,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B159" t="s">
-        <v>1119</v>
+        <v>1010</v>
       </c>
       <c r="C159" t="s">
-        <v>1197</v>
+        <v>1088</v>
       </c>
       <c r="D159" t="s">
-        <v>1207</v>
+        <v>1098</v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="2"/>
@@ -22805,16 +23588,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B160" t="s">
-        <v>1120</v>
+        <v>1011</v>
       </c>
       <c r="C160" t="s">
-        <v>1198</v>
+        <v>1089</v>
       </c>
       <c r="D160" t="s">
-        <v>1208</v>
+        <v>1099</v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="2"/>
@@ -22823,16 +23606,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B161" t="s">
-        <v>1121</v>
+        <v>1012</v>
       </c>
       <c r="C161" t="s">
-        <v>1209</v>
+        <v>1100</v>
       </c>
       <c r="D161" t="s">
-        <v>1213</v>
+        <v>1104</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="2"/>
@@ -22841,16 +23624,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B162" t="s">
-        <v>1122</v>
+        <v>1013</v>
       </c>
       <c r="C162" t="s">
-        <v>1210</v>
+        <v>1101</v>
       </c>
       <c r="D162" t="s">
-        <v>1214</v>
+        <v>1105</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="2"/>
@@ -22859,16 +23642,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B163" t="s">
-        <v>1123</v>
+        <v>1014</v>
       </c>
       <c r="C163" t="s">
-        <v>1211</v>
+        <v>1102</v>
       </c>
       <c r="D163" t="s">
-        <v>1215</v>
+        <v>1106</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="2"/>
@@ -22877,16 +23660,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B164" t="s">
-        <v>1124</v>
+        <v>1015</v>
       </c>
       <c r="C164" t="s">
-        <v>1212</v>
+        <v>1103</v>
       </c>
       <c r="D164" t="s">
-        <v>1216</v>
+        <v>1107</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="2"/>
@@ -22895,16 +23678,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B165" t="s">
-        <v>1125</v>
+        <v>1016</v>
       </c>
       <c r="C165" t="s">
-        <v>1217</v>
+        <v>1108</v>
       </c>
       <c r="D165" t="s">
-        <v>1221</v>
+        <v>1112</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="2"/>
@@ -22913,16 +23696,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B166" t="s">
-        <v>1126</v>
+        <v>1017</v>
       </c>
       <c r="C166" t="s">
-        <v>1218</v>
+        <v>1109</v>
       </c>
       <c r="D166" t="s">
-        <v>1222</v>
+        <v>1113</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="2"/>
@@ -22931,16 +23714,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B167" t="s">
-        <v>1127</v>
+        <v>1018</v>
       </c>
       <c r="C167" t="s">
-        <v>1219</v>
+        <v>1110</v>
       </c>
       <c r="D167" t="s">
-        <v>1223</v>
+        <v>1114</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="2"/>
@@ -22949,16 +23732,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B168" t="s">
-        <v>1128</v>
+        <v>1019</v>
       </c>
       <c r="C168" t="s">
-        <v>1220</v>
+        <v>1111</v>
       </c>
       <c r="D168" t="s">
-        <v>1224</v>
+        <v>1115</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="2"/>
@@ -22967,16 +23750,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B169" t="s">
-        <v>1129</v>
+        <v>1020</v>
       </c>
       <c r="C169" t="s">
-        <v>1225</v>
+        <v>1116</v>
       </c>
       <c r="D169" t="s">
-        <v>1233</v>
+        <v>1124</v>
       </c>
       <c r="F169" t="str">
         <f t="shared" si="2"/>
@@ -22985,16 +23768,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B170" t="s">
-        <v>1130</v>
+        <v>1021</v>
       </c>
       <c r="C170" t="s">
-        <v>1226</v>
+        <v>1117</v>
       </c>
       <c r="D170" t="s">
-        <v>1234</v>
+        <v>1125</v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="2"/>
@@ -23003,16 +23786,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B171" t="s">
-        <v>1131</v>
+        <v>1022</v>
       </c>
       <c r="C171" t="s">
-        <v>1227</v>
+        <v>1118</v>
       </c>
       <c r="D171" t="s">
-        <v>1235</v>
+        <v>1126</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="2"/>
@@ -23021,16 +23804,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B172" t="s">
-        <v>1132</v>
+        <v>1023</v>
       </c>
       <c r="C172" t="s">
-        <v>1228</v>
+        <v>1119</v>
       </c>
       <c r="D172" t="s">
-        <v>1236</v>
+        <v>1127</v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="2"/>
@@ -23039,16 +23822,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B173" t="s">
-        <v>1133</v>
+        <v>1024</v>
       </c>
       <c r="C173" t="s">
-        <v>1229</v>
+        <v>1120</v>
       </c>
       <c r="D173" t="s">
-        <v>1237</v>
+        <v>1128</v>
       </c>
       <c r="F173" t="str">
         <f t="shared" si="2"/>
@@ -23057,16 +23840,16 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B174" t="s">
-        <v>1134</v>
+        <v>1025</v>
       </c>
       <c r="C174" t="s">
-        <v>1230</v>
+        <v>1121</v>
       </c>
       <c r="D174" t="s">
-        <v>1238</v>
+        <v>1129</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="2"/>
@@ -23075,16 +23858,16 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B175" t="s">
-        <v>1135</v>
+        <v>1026</v>
       </c>
       <c r="C175" t="s">
-        <v>1231</v>
+        <v>1122</v>
       </c>
       <c r="D175" t="s">
-        <v>1239</v>
+        <v>1130</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="2"/>
@@ -23093,16 +23876,16 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B176" t="s">
-        <v>1136</v>
+        <v>1027</v>
       </c>
       <c r="C176" t="s">
-        <v>1232</v>
+        <v>1123</v>
       </c>
       <c r="D176" t="s">
-        <v>1240</v>
+        <v>1131</v>
       </c>
       <c r="F176" t="str">
         <f t="shared" si="2"/>
@@ -23111,16 +23894,16 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B177" t="s">
-        <v>1137</v>
+        <v>1028</v>
       </c>
       <c r="C177" t="s">
-        <v>1187</v>
+        <v>1078</v>
       </c>
       <c r="D177" t="s">
-        <v>1138</v>
+        <v>1029</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="2"/>
@@ -23129,16 +23912,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B178" t="s">
-        <v>1139</v>
+        <v>1030</v>
       </c>
       <c r="C178" t="s">
-        <v>1241</v>
+        <v>1132</v>
       </c>
       <c r="D178" t="s">
-        <v>1251</v>
+        <v>1142</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="2"/>
@@ -23147,16 +23930,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B179" t="s">
-        <v>1140</v>
+        <v>1031</v>
       </c>
       <c r="C179" t="s">
-        <v>1242</v>
+        <v>1133</v>
       </c>
       <c r="D179" t="s">
-        <v>1252</v>
+        <v>1143</v>
       </c>
       <c r="F179" t="str">
         <f t="shared" si="2"/>
@@ -23165,16 +23948,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B180" t="s">
-        <v>1141</v>
+        <v>1032</v>
       </c>
       <c r="C180" t="s">
-        <v>1243</v>
+        <v>1134</v>
       </c>
       <c r="D180" t="s">
-        <v>1253</v>
+        <v>1144</v>
       </c>
       <c r="F180" t="str">
         <f t="shared" si="2"/>
@@ -23183,16 +23966,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B181" t="s">
-        <v>1142</v>
+        <v>1033</v>
       </c>
       <c r="C181" t="s">
-        <v>1244</v>
+        <v>1135</v>
       </c>
       <c r="D181" t="s">
-        <v>1254</v>
+        <v>1145</v>
       </c>
       <c r="F181" t="str">
         <f t="shared" si="2"/>
@@ -23201,16 +23984,16 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B182" t="s">
-        <v>1143</v>
+        <v>1034</v>
       </c>
       <c r="C182" t="s">
-        <v>1245</v>
+        <v>1136</v>
       </c>
       <c r="D182" t="s">
-        <v>1255</v>
+        <v>1146</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="2"/>
@@ -23219,16 +24002,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B183" t="s">
-        <v>1144</v>
+        <v>1035</v>
       </c>
       <c r="C183" t="s">
-        <v>1246</v>
+        <v>1137</v>
       </c>
       <c r="D183" t="s">
-        <v>1256</v>
+        <v>1147</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="2"/>
@@ -23237,16 +24020,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B184" t="s">
-        <v>1145</v>
+        <v>1036</v>
       </c>
       <c r="C184" t="s">
-        <v>1247</v>
+        <v>1138</v>
       </c>
       <c r="D184" t="s">
-        <v>1257</v>
+        <v>1148</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="2"/>
@@ -23255,16 +24038,16 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B185" t="s">
-        <v>1146</v>
+        <v>1037</v>
       </c>
       <c r="C185" t="s">
-        <v>1248</v>
+        <v>1139</v>
       </c>
       <c r="D185" t="s">
-        <v>1258</v>
+        <v>1149</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="2"/>
@@ -23273,16 +24056,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B186" t="s">
-        <v>1147</v>
+        <v>1038</v>
       </c>
       <c r="C186" t="s">
-        <v>1249</v>
+        <v>1140</v>
       </c>
       <c r="D186" t="s">
-        <v>1259</v>
+        <v>1150</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="2"/>
@@ -23291,16 +24074,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B187" t="s">
-        <v>1148</v>
+        <v>1039</v>
       </c>
       <c r="C187" t="s">
-        <v>1250</v>
+        <v>1141</v>
       </c>
       <c r="D187" t="s">
-        <v>1260</v>
+        <v>1151</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="2"/>
@@ -23309,16 +24092,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B188" t="s">
-        <v>1149</v>
+        <v>1040</v>
       </c>
       <c r="C188" t="s">
-        <v>1261</v>
+        <v>1152</v>
       </c>
       <c r="D188" t="s">
-        <v>1269</v>
+        <v>1160</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="2"/>
@@ -23327,16 +24110,16 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B189" t="s">
-        <v>1150</v>
+        <v>1041</v>
       </c>
       <c r="C189" t="s">
-        <v>1262</v>
+        <v>1153</v>
       </c>
       <c r="D189" t="s">
-        <v>1270</v>
+        <v>1161</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="2"/>
@@ -23345,16 +24128,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B190" t="s">
-        <v>1151</v>
+        <v>1042</v>
       </c>
       <c r="C190" t="s">
-        <v>1263</v>
+        <v>1154</v>
       </c>
       <c r="D190" t="s">
-        <v>1271</v>
+        <v>1162</v>
       </c>
       <c r="F190" t="str">
         <f t="shared" si="2"/>
@@ -23363,16 +24146,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B191" t="s">
-        <v>1152</v>
+        <v>1043</v>
       </c>
       <c r="C191" t="s">
-        <v>1264</v>
+        <v>1155</v>
       </c>
       <c r="D191" t="s">
-        <v>1272</v>
+        <v>1163</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="2"/>
@@ -23381,16 +24164,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B192" t="s">
-        <v>1153</v>
+        <v>1044</v>
       </c>
       <c r="C192" t="s">
-        <v>1265</v>
+        <v>1156</v>
       </c>
       <c r="D192" t="s">
-        <v>1273</v>
+        <v>1164</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="2"/>
@@ -23399,16 +24182,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B193" t="s">
-        <v>1154</v>
+        <v>1045</v>
       </c>
       <c r="C193" t="s">
-        <v>1266</v>
+        <v>1157</v>
       </c>
       <c r="D193" t="s">
-        <v>1274</v>
+        <v>1165</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="2"/>
@@ -23417,16 +24200,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B194" t="s">
-        <v>1155</v>
+        <v>1046</v>
       </c>
       <c r="C194" t="s">
-        <v>1267</v>
+        <v>1158</v>
       </c>
       <c r="D194" t="s">
-        <v>1275</v>
+        <v>1166</v>
       </c>
       <c r="F194" t="str">
         <f t="shared" si="2"/>
@@ -23435,34 +24218,34 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B195" t="s">
-        <v>1156</v>
+        <v>1047</v>
       </c>
       <c r="C195" t="s">
-        <v>1268</v>
+        <v>1159</v>
       </c>
       <c r="D195" t="s">
-        <v>1276</v>
+        <v>1167</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" ref="F195:F208" si="3">"ElementPredefinit.create(nom_element: """&amp;B195&amp;""", sistema_element: """&amp;A195&amp;""", descripcio_ca: """&amp;C195&amp;""", descripcio_es: """&amp;D195&amp;""")"</f>
+        <f t="shared" ref="F195:F288" si="3">"ElementPredefinit.create(nom_element: """&amp;B195&amp;""", sistema_element: """&amp;A195&amp;""", descripcio_ca: """&amp;C195&amp;""", descripcio_es: """&amp;D195&amp;""")"</f>
         <v>ElementPredefinit.create(nom_element: "aillament_plaques", sistema_element: "coberta", descripcio_ca: "Foma de l'aïllament: plaques", descripcio_es: "Forma del aislamiento: placas")</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B196" t="s">
-        <v>1157</v>
+        <v>1048</v>
       </c>
       <c r="C196" t="s">
-        <v>1277</v>
+        <v>1168</v>
       </c>
       <c r="D196" t="s">
-        <v>1158</v>
+        <v>1049</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" si="3"/>
@@ -23471,16 +24254,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B197" t="s">
-        <v>1159</v>
+        <v>1050</v>
       </c>
       <c r="C197" t="s">
-        <v>1278</v>
+        <v>1169</v>
       </c>
       <c r="D197" t="s">
-        <v>1160</v>
+        <v>1051</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" si="3"/>
@@ -23489,16 +24272,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B198" t="s">
-        <v>1161</v>
+        <v>1052</v>
       </c>
       <c r="C198" t="s">
-        <v>1279</v>
+        <v>1170</v>
       </c>
       <c r="D198" t="s">
-        <v>1162</v>
+        <v>1053</v>
       </c>
       <c r="F198" t="str">
         <f t="shared" si="3"/>
@@ -23507,16 +24290,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B199" t="s">
-        <v>1163</v>
+        <v>1054</v>
       </c>
       <c r="C199" t="s">
-        <v>1280</v>
+        <v>1171</v>
       </c>
       <c r="D199" t="s">
-        <v>1164</v>
+        <v>1055</v>
       </c>
       <c r="F199" t="str">
         <f t="shared" si="3"/>
@@ -23525,16 +24308,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B200" t="s">
-        <v>1165</v>
+        <v>1056</v>
       </c>
       <c r="C200" t="s">
-        <v>1281</v>
+        <v>1172</v>
       </c>
       <c r="D200" t="s">
-        <v>1166</v>
+        <v>1057</v>
       </c>
       <c r="F200" t="str">
         <f t="shared" si="3"/>
@@ -23543,16 +24326,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B201" t="s">
-        <v>1167</v>
+        <v>1058</v>
       </c>
       <c r="C201" t="s">
-        <v>1282</v>
+        <v>1173</v>
       </c>
       <c r="D201" t="s">
-        <v>1168</v>
+        <v>1059</v>
       </c>
       <c r="F201" t="str">
         <f t="shared" si="3"/>
@@ -23561,16 +24344,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B202" t="s">
-        <v>1169</v>
+        <v>1060</v>
       </c>
       <c r="C202" t="s">
-        <v>1283</v>
+        <v>1174</v>
       </c>
       <c r="D202" t="s">
-        <v>1170</v>
+        <v>1061</v>
       </c>
       <c r="F202" t="str">
         <f t="shared" si="3"/>
@@ -23579,16 +24362,16 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B203" t="s">
-        <v>1171</v>
+        <v>1062</v>
       </c>
       <c r="C203" t="s">
-        <v>1284</v>
+        <v>1175</v>
       </c>
       <c r="D203" t="s">
-        <v>1172</v>
+        <v>1063</v>
       </c>
       <c r="F203" t="str">
         <f t="shared" si="3"/>
@@ -23597,16 +24380,16 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B204" t="s">
-        <v>1173</v>
+        <v>1064</v>
       </c>
       <c r="C204" t="s">
-        <v>1285</v>
+        <v>1176</v>
       </c>
       <c r="D204" t="s">
-        <v>1174</v>
+        <v>1065</v>
       </c>
       <c r="F204" t="str">
         <f t="shared" si="3"/>
@@ -23615,16 +24398,16 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B205" t="s">
-        <v>1175</v>
+        <v>1066</v>
       </c>
       <c r="C205" t="s">
-        <v>1286</v>
+        <v>1177</v>
       </c>
       <c r="D205" t="s">
-        <v>1176</v>
+        <v>1067</v>
       </c>
       <c r="F205" t="str">
         <f t="shared" si="3"/>
@@ -23633,16 +24416,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B206" t="s">
-        <v>1177</v>
+        <v>1068</v>
       </c>
       <c r="C206" t="s">
-        <v>1287</v>
+        <v>1178</v>
       </c>
       <c r="D206" t="s">
-        <v>1178</v>
+        <v>1069</v>
       </c>
       <c r="F206" t="str">
         <f t="shared" si="3"/>
@@ -23651,16 +24434,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B207" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C207" t="s">
         <v>1179</v>
       </c>
-      <c r="C207" t="s">
-        <v>1288</v>
-      </c>
       <c r="D207" t="s">
-        <v>1180</v>
+        <v>1071</v>
       </c>
       <c r="F207" t="str">
         <f t="shared" si="3"/>
@@ -23669,20 +24452,1460 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1188</v>
+        <v>1079</v>
       </c>
       <c r="B208" t="s">
-        <v>1181</v>
+        <v>1072</v>
       </c>
       <c r="C208" t="s">
-        <v>1289</v>
+        <v>1180</v>
       </c>
       <c r="D208" t="s">
-        <v>1182</v>
+        <v>1073</v>
       </c>
       <c r="F208" t="str">
         <f t="shared" si="3"/>
         <v>ElementPredefinit.create(nom_element: "aillament_perlita_expandida", sistema_element: "coberta", descripcio_ca: "Material de l'aïllament: perlita expandida", descripcio_es: "Perlita expandida")</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F209" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "envans_ceramica", sistema_element: "particions", descripcio_ca: "Envans de ceràmica", descripcio_es: "Tabiques de cerámica")</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F210" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "envans_cartro_guix", sistema_element: "particions", descripcio_ca: "Envans de cartró guix", descripcio_es: "Tabiques de cartón yeso")</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F211" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "envans_bloc_formigo", sistema_element: "particions", descripcio_ca: "Envans de bloc de formigó", descripcio_es: "Tabiques de bloque de hormigón")</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F212" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "envans_paves", sistema_element: "particions", descripcio_ca: "Envans de pavés", descripcio_es: "Tabiques de pavés")</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F213" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "envans_fusta", sistema_element: "particions", descripcio_ca: "Envans de fusta", descripcio_es: "Tabiques de madera")</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F214" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "envans_plaques_alveolades", sistema_element: "particions", descripcio_ca: "Envans de plaques alveolades", descripcio_es: "Tabiques de placas alveoladas")</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F215" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "celras_fibres_vegetals", sistema_element: "particions", descripcio_ca: "Cel ras de fibres vegetals", descripcio_es: "Cielo raso de fibras vegetales")</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F216" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "celras_fibres_minerals", sistema_element: "particions", descripcio_ca: "Cel ras de fibres minerals", descripcio_es: "Cielo raso de fibras minerales")</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F217" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "celras_plaques_guix", sistema_element: "particions", descripcio_ca: "Cel ras de plaques de guix", descripcio_es: "Cielo raso de placas de yeso")</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F218" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "celras_metalic", sistema_element: "particions", descripcio_ca: "Cel ras metàl·lic", descripcio_es: "Cielo raso metálico")</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F219" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "celras_fusta", sistema_element: "particions", descripcio_ca: "Cel ras de fusta", descripcio_es: "Cielo raso de madera")</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F220" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_sota_sostre", sistema_element: "particions", descripcio_ca: "Aïllament sota sostre", descripcio_es: "Aislante bajo techo")</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F221" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_sobre_sostre", sistema_element: "particions", descripcio_ca: "Aïllament sobre sostre", descripcio_es: "Aislante sobre techo")</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F222" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_plaques", sistema_element: "particions", descripcio_ca: "Aïllament en plaques", descripcio_es: "Aislante en placas")</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F223" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_mantes", sistema_element: "particions", descripcio_ca: "Aïllament en mantes", descripcio_es: "Aislante en mantas")</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F224" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_amorf", sistema_element: "particions", descripcio_ca: "Aïllament amorf", descripcio_es: "Aislante amorfo")</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F225" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_fibra_vidre", sistema_element: "particions", descripcio_ca: "Aïllament de fibra de vidre", descripcio_es: "Aislante de fibra de vidrio")</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F226" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_polietile_reticulat", sistema_element: "particions", descripcio_ca: "Aïllament de polietilè reticulat", descripcio_es: "Aislante de polietileno reticulado")</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F227" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_llana_roca", sistema_element: "particions", descripcio_ca: "Aïllament de llana de roca", descripcio_es: "Aislante de lana de roca")</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F228" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_escuma_fenolica", sistema_element: "particions", descripcio_ca: "Aïllament d'escuma fenòlica", descripcio_es: "Aislante de espuma fenólica")</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F229" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_escuma_poliureta", sistema_element: "particions", descripcio_ca: "Aïllament d'escuma de poliuretà", descripcio_es: "Aislante de espuma de poliuretano")</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F230" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_polietile_expandit", sistema_element: "particions", descripcio_ca: "Aïllament de polietilè expandit", descripcio_es: "Aislante de polietileno expandido")</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F231" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_fibres_textils", sistema_element: "particions", descripcio_ca: "Aïllament de fibres tèxtils", descripcio_es: "Aislante de fibras textiles")</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F232" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_argila_expandida", sistema_element: "particions", descripcio_ca: "Aïllament d'argila expandida", descripcio_es: "Aislante de arcilla expandida")</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F233" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_escuma_melamina", sistema_element: "particions", descripcio_ca: "Aïllament d'escuma de melamina", descripcio_es: "Aislante de espuma de melamina")</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F234" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_poliestire_extrudit", sistema_element: "particions", descripcio_ca: "Aïllament de poliestirè extrudit", descripcio_es: "Aislante de poliestireno extruido")</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F235" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_celulosa", sistema_element: "particions", descripcio_ca: "Aïllament de cel·lulosa", descripcio_es: "Aislante de celulosa")</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F236" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_perlita_expandida", sistema_element: "particions", descripcio_ca: "Aïllament de perlita expandida", descripcio_es: "Aislante de perlita expandida")</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F237" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "aillament_suro_aglomerat", sistema_element: "particions", descripcio_ca: "Aïllament de suro aglomerat", descripcio_es: "Aislante de corcho aglomerado")</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F238" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "revestiment_vertical_enguixat", sistema_element: "particions", descripcio_ca: "Revestiment vertical enguixat", descripcio_es: "Revestimiento vertical enyesado")</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F239" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "revestiment_vertical_arrebossat", sistema_element: "particions", descripcio_ca: "Revestiment vertical arrebossat", descripcio_es: "Revestimiento vertical rebozado")</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F240" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "revestiment_horitzontal_enguixat", sistema_element: "particions", descripcio_ca: "Revestiment horitzontal enguixat", descripcio_es: "Revestimiento horizontal enyesado")</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F241" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "revestiment_horitzontal_arrebossat", sistema_element: "particions", descripcio_ca: "Revestiment horitzontal arrebossat", descripcio_es: "Revestimiento horizontal rebozado")</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F242" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "acabat_pintat", sistema_element: "particions", descripcio_ca: "Acabat pintat", descripcio_es: "Acabado pintado")</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F243" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "acabat_aplacat_ceramica", sistema_element: "particions", descripcio_ca: "Acabat aplacat de ceràmica", descripcio_es: "Acabado de aplacado de cerámica")</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F244" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "acabat_empaperat", sistema_element: "particions", descripcio_ca: "Acabat empaperat", descripcio_es: "Acabado empapelado")</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F245" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "acabat_taulell_fusta", sistema_element: "particions", descripcio_ca: "Acabat de taulell de fusta", descripcio_es: "Acabado de tablero de madera")</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F246" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "acabat_sintetic", sistema_element: "particions", descripcio_ca: "Acabat sintètic", descripcio_es: "Acabado sintético")</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F247" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "acabat_textil", sistema_element: "particions", descripcio_ca: "Acabat tèxtil", descripcio_es: "Acabado téxtil")</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F248" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "acabat_estuc", sistema_element: "particions", descripcio_ca: "Acabat d'estuc", descripcio_es: "Acabado de estuco")</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B249" t="s">
+        <v>903</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F249" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "acabat_aplacat_pedra", sistema_element: "particions", descripcio_ca: "Acabat d'aplacat de pedra", descripcio_es: "Acabado de aplacado de piedra")</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F250" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "acabat_fusta", sistema_element: "particions", descripcio_ca: "Acabat de fusta", descripcio_es: "Acabado de madera")</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F251" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "acabat_suro", sistema_element: "particions", descripcio_ca: "Acabat de suro", descripcio_es: "Acabado de corcho")</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F252" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "paviment_formigo", sistema_element: "particions", descripcio_ca: "Paviment de formigó", descripcio_es: "Pavimento de hormigón")</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F253" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "paviment_pedra_natural", sistema_element: "particions", descripcio_ca: "Paviment de pedra natural", descripcio_es: "Pavimento de piedra natural")</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F254" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "paviment_terratzo", sistema_element: "particions", descripcio_ca: "Paviment de terratzo", descripcio_es: "Pavimento de terrazo")</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F255" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "paviment_mosaic_hidraulic", sistema_element: "particions", descripcio_ca: "Paviment de mosaic hidràulic", descripcio_es: "Pavimento de mosaico hidráulico")</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F256" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "paviment_suro", sistema_element: "particions", descripcio_ca: "Paviment de suro", descripcio_es: "Pavimento de corcho")</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F257" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "paviment_ceramica_natural", sistema_element: "particions", descripcio_ca: "Paviment de ceràmica natural", descripcio_es: "Pavimento de cerámica natural")</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F258" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "paviment_ceramica_esmaltada", sistema_element: "particions", descripcio_ca: "Paviment de ceràmica esmaltada", descripcio_es: "Pavimento de cerámica esmaltada")</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F259" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "paviment_gres_natural", sistema_element: "particions", descripcio_ca: "Paviment de gres natural", descripcio_es: "Pavimento de gres natural")</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F260" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "paviment_goma", sistema_element: "particions", descripcio_ca: "Paviment de goma", descripcio_es: "Pavimento de goma")</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F261" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "paviment_parquet_encolat", sistema_element: "particions", descripcio_ca: "Paviment de parquet encolat", descripcio_es: "Pavimento de parquet encolado")</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F262" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "paviment_parquet_flotant", sistema_element: "particions", descripcio_ca: "Paviment de parquet flotant", descripcio_es: "Pavimento de parquet flotante")</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F263" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "paviment_parquet_llates", sistema_element: "particions", descripcio_ca: "Paviment de parquet de llates", descripcio_es: "Pavimento de parquet de tarima")</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F264" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "paviment_pvc", sistema_element: "particions", descripcio_ca: "Paviment de PVC", descripcio_es: "Pavimento de PVC")</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F265" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "paviment_moqueta", sistema_element: "particions", descripcio_ca: "Paviment de moqueta", descripcio_es: "Pavimento de moqueta")</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F266" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "paviment_linoleum", sistema_element: "particions", descripcio_ca: "Paviment de linòleum", descripcio_es: "Pavimento de linóleo")</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F267" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "porta_bastiment_fusta", sistema_element: "particions", descripcio_ca: "Portes amb bastiment de fusta", descripcio_es: "Puertas con carpintería de madera")</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F268" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "porta_bastiment_metalic", sistema_element: "particions", descripcio_ca: "Portes amb bastiment metàl·lic", descripcio_es: "Puertas con carpintería metálica")</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F269" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "porta_fulla_massissa_fusta", sistema_element: "particions", descripcio_ca: "Portes amb fulla massisa de fusta", descripcio_es: "Puertas con hoja maciza de madera")</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F270" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "porta_fulla_aplacat_fusta", sistema_element: "particions", descripcio_ca: "Portes amb fulla d'aplacat de fusta", descripcio_es: "Puertas con hoja de aplacado de madera")</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F271" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "porta_fulla_vidre", sistema_element: "particions", descripcio_ca: "Portes amb fulla de vidre", descripcio_es: "Puertas con hoja de vidrio")</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F272" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "porta_fulla_alumini", sistema_element: "particions", descripcio_ca: "Portes amb fulla d'alumini", descripcio_es: "Puertas con hoja de aluminio")</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F273" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "porta_fulla_ferro", sistema_element: "particions", descripcio_ca: "Portes amb fulla de ferro", descripcio_es: "Puertas con hoja de hierro")</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F274" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "porta_acabat_pintat", sistema_element: "particions", descripcio_ca: "Portes amb acabat pintat", descripcio_es: "Puertas con acabado pintado")</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F275" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "porta_acabat_lacat", sistema_element: "particions", descripcio_ca: "Portes amb acabat lacat", descripcio_es: "Puertas con acabado lacado")</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F276" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "porta_acabat_envernissat", sistema_element: "particions", descripcio_ca: "Portes amb acabat envernissat", descripcio_es: "Puertas con acabado barnizado")</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F277" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "porta_ferratge_llauto", sistema_element: "particions", descripcio_ca: "Portes amb ferratge de llautó", descripcio_es: "Puertas con herraje de latón")</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F278" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "porta_ferratge_acer_llautonat", sistema_element: "particions", descripcio_ca: "Portes amb ferratge d'acer llautonat", descripcio_es: "Puertas con herraje de acero latonado")</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F279" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "porta_ferratge_acer_niquelat", sistema_element: "particions", descripcio_ca: "Portes amb ferratge d'acer niquelat", descripcio_es: "Puertas con herraje de acero niquelado")</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F280" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "porta_ferratge_acer_inoxidable", sistema_element: "particions", descripcio_ca: "Portes amb ferratge d'acer inoxidable", descripcio_es: "Puertas con herraje de acero inoxidable")</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F281" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "porta_ferratge_alumini", sistema_element: "particions", descripcio_ca: "Portes amb ferratge d'alumini", descripcio_es: "Puertas con herraje de aluminio")</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F282" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "barana_ferro_forjat", sistema_element: "particions", descripcio_ca: "Baranes de ferro forjat", descripcio_es: "Barandillas de hierro forjado")</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F283" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "barana_perfils_acer", sistema_element: "particions", descripcio_ca: "Baranes de perfils d'acer", descripcio_es: "Barandillas de perfiles de acero")</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F284" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "barana_perfils_alumini", sistema_element: "particions", descripcio_ca: "Baranes de perfils d'alumini", descripcio_es: "Barandillas de perfiles de aluminio")</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F285" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "barana_fusta", sistema_element: "particions", descripcio_ca: "Baranes de perfils de fusta", descripcio_es: "Barandillas de perfiles de madera")</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F286" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "barana_pvc", sistema_element: "particions", descripcio_ca: "Baranes de PVC", descripcio_es: "Barandillas de PVC")</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F287" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "barana_vidre_laminat", sistema_element: "particions", descripcio_ca: "Baranes de vidre laminat", descripcio_es: "Barandillas de vidrio laminado")</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F288" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "barana_metacrilat", sistema_element: "particions", descripcio_ca: "Baranes de metacrilat", descripcio_es: "Barandillas de metacrilato")</v>
       </c>
     </row>
   </sheetData>

--- a/lib/documents_treball/operacions_manteniment_v2.xlsx
+++ b/lib/documents_treball/operacions_manteniment_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Operacions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4525" uniqueCount="1675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4990" uniqueCount="1980">
   <si>
     <t>sistema</t>
   </si>
@@ -5050,6 +5050,921 @@
   </si>
   <si>
     <t>Limpieza de las barandillas interiores.</t>
+  </si>
+  <si>
+    <t>no_sistema_evacuacio</t>
+  </si>
+  <si>
+    <t>No disposa de sistema d'evacuació</t>
+  </si>
+  <si>
+    <t>si_sistema_evacuacio</t>
+  </si>
+  <si>
+    <t>Disposa de sistema d'evacuació</t>
+  </si>
+  <si>
+    <t>fosa_septica</t>
+  </si>
+  <si>
+    <t>Disposa de sistema d'evacuació propi (fossa sèptica, etc.)</t>
+  </si>
+  <si>
+    <t>colectors_vistos</t>
+  </si>
+  <si>
+    <t>Els col·lectors són vistos</t>
+  </si>
+  <si>
+    <t>bomba_elevacio</t>
+  </si>
+  <si>
+    <t>Disposa de bomba d'elevació</t>
+  </si>
+  <si>
+    <t>separador_greixos</t>
+  </si>
+  <si>
+    <t>Disposa de separador de greixos i fangs</t>
+  </si>
+  <si>
+    <t>baixants_vistos</t>
+  </si>
+  <si>
+    <t>Baixants vistos</t>
+  </si>
+  <si>
+    <t>baixants_encastats</t>
+  </si>
+  <si>
+    <t>Baixants encastats</t>
+  </si>
+  <si>
+    <t>baixants_ceramics</t>
+  </si>
+  <si>
+    <t>Baixants ceràmics</t>
+  </si>
+  <si>
+    <t>baixants_pvc</t>
+  </si>
+  <si>
+    <t>Baixants de PVC</t>
+  </si>
+  <si>
+    <t>baixants_fibrociment</t>
+  </si>
+  <si>
+    <t>Baixants de fibrociment</t>
+  </si>
+  <si>
+    <t>baixants_coure</t>
+  </si>
+  <si>
+    <t>Baixants de coure</t>
+  </si>
+  <si>
+    <t>baixants_alumini</t>
+  </si>
+  <si>
+    <t>Baixants d'alumini</t>
+  </si>
+  <si>
+    <t>baixants_polipropile</t>
+  </si>
+  <si>
+    <t>Baixants de polipropilè</t>
+  </si>
+  <si>
+    <t>baixants_zinc</t>
+  </si>
+  <si>
+    <t>Baixants de zinc</t>
+  </si>
+  <si>
+    <t>Col·lectors vistos</t>
+  </si>
+  <si>
+    <t>colectors_soterrats</t>
+  </si>
+  <si>
+    <t>Col·lectors soterrats</t>
+  </si>
+  <si>
+    <t>colectors_formigo</t>
+  </si>
+  <si>
+    <t>Col·lectors de formigó</t>
+  </si>
+  <si>
+    <t>colectors_ceramic</t>
+  </si>
+  <si>
+    <t>Col·lectors ceràmics</t>
+  </si>
+  <si>
+    <t>colectors_fibrociment</t>
+  </si>
+  <si>
+    <t>Col·lectors de fibrociment</t>
+  </si>
+  <si>
+    <t>colectors_pvc</t>
+  </si>
+  <si>
+    <t>Col·lectors de PVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No dispone de sistema de evacuación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dispone de sistema de evacuación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dispone de sistema de evacuación propio (fosa séptica, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los colectors son vistos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dispone de bomba de elevación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dispone de separador de grasas y barros</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bajantes vistos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bajantes encastados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bajantes cerámicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bajantes de PVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bajantes de fibrocemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bajantes de cobre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bajantes de aluminio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bajantes de polipropileno</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bajantes de zinc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colectores vistos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colectores enterrados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colectores de hormigón</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colectores cerámicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colectores de fibrocemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colectores de PVC</t>
+  </si>
+  <si>
+    <t>connexio_directa</t>
+  </si>
+  <si>
+    <t>Dispone de conexión directa a red pública de suministro de agua</t>
+  </si>
+  <si>
+    <t>connexio_aforament</t>
+  </si>
+  <si>
+    <t>Dispone de conexión por aforo a red pública de suministro de agua</t>
+  </si>
+  <si>
+    <t>captacio_propia</t>
+  </si>
+  <si>
+    <t>Dispone de captación propia (pozo, bomba, etc.)</t>
+  </si>
+  <si>
+    <t>grup_pressio</t>
+  </si>
+  <si>
+    <t>Dispone de grupo de presión</t>
+  </si>
+  <si>
+    <t>comptador_unic</t>
+  </si>
+  <si>
+    <t>Contador único para todo el edificio</t>
+  </si>
+  <si>
+    <t>comptadors_individuals_habitatge</t>
+  </si>
+  <si>
+    <t>Contadores individuales por vivienda/local</t>
+  </si>
+  <si>
+    <t>comptadors_individuals_centralitzats</t>
+  </si>
+  <si>
+    <t>Contadores individuales centralizados</t>
+  </si>
+  <si>
+    <t>muntants_plom</t>
+  </si>
+  <si>
+    <t>muntants_ferro</t>
+  </si>
+  <si>
+    <t>muntants_coure</t>
+  </si>
+  <si>
+    <t>muntants_plastic</t>
+  </si>
+  <si>
+    <t>Disposa de connexió directa a xarxa pública de subministrament d'aigua</t>
+  </si>
+  <si>
+    <t>Disposa de connexió per aforament a xarxa pública de subministrament d'aigua</t>
+  </si>
+  <si>
+    <t>Disposa de captació pròpia (pou, bomba, etc.)</t>
+  </si>
+  <si>
+    <t>Disposa de grup de pressió</t>
+  </si>
+  <si>
+    <t>Comptador únic per tot l'edifici</t>
+  </si>
+  <si>
+    <t>Comptadors individuals per habitatge/local</t>
+  </si>
+  <si>
+    <t>Comptadors individuals centralitzats</t>
+  </si>
+  <si>
+    <t>Muntants de plom</t>
+  </si>
+  <si>
+    <t>Muntants de ferro</t>
+  </si>
+  <si>
+    <t>Muntants de coure</t>
+  </si>
+  <si>
+    <t>Muntants de plàstic</t>
+  </si>
+  <si>
+    <t>Montantes de plomo</t>
+  </si>
+  <si>
+    <t>Montantes de hierro</t>
+  </si>
+  <si>
+    <t>Montantes de cobre</t>
+  </si>
+  <si>
+    <t>Montantes de plástico</t>
+  </si>
+  <si>
+    <t>enllumenat_comunitari</t>
+  </si>
+  <si>
+    <t>Dispone de alumbrado comunitario</t>
+  </si>
+  <si>
+    <t>mes_100k</t>
+  </si>
+  <si>
+    <t>Potencia total instalada superior a los 100 kW</t>
+  </si>
+  <si>
+    <t>connexio_terra</t>
+  </si>
+  <si>
+    <t>Dispone de conexión a tierra</t>
+  </si>
+  <si>
+    <t>centre_transformacio</t>
+  </si>
+  <si>
+    <t>Hay un centro de transformación en el edificio</t>
+  </si>
+  <si>
+    <t>fotovoltaica</t>
+  </si>
+  <si>
+    <t>Dispone de instalación solar fotovoltaica</t>
+  </si>
+  <si>
+    <t>Disposa d'enllumenat comunitari</t>
+  </si>
+  <si>
+    <t>Potència total instal·lada superior als 100 kW</t>
+  </si>
+  <si>
+    <t>Disposa de connexió a terra</t>
+  </si>
+  <si>
+    <t>Hi ha un centre de transformació a l'edifici</t>
+  </si>
+  <si>
+    <t>Disposa d'instal·lació solar fotovoltaica</t>
+  </si>
+  <si>
+    <t>escalfador_pn_menor_24</t>
+  </si>
+  <si>
+    <t>escalfador_pn_24_70</t>
+  </si>
+  <si>
+    <t>escalfador_pn_major_70</t>
+  </si>
+  <si>
+    <t>caldera_gas_pn_menor_70</t>
+  </si>
+  <si>
+    <t>Caldera a gas Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>caldera_gas_pn_major_70</t>
+  </si>
+  <si>
+    <t>Caldera a gas Pn &gt; 70 kW</t>
+  </si>
+  <si>
+    <t>caldera_biomassa</t>
+  </si>
+  <si>
+    <t>Caldera a biomasa</t>
+  </si>
+  <si>
+    <t>caldera_solar_termica</t>
+  </si>
+  <si>
+    <t>Caldera o calentador con instalación de energía solar térmica</t>
+  </si>
+  <si>
+    <t>altres_pn_menor_70</t>
+  </si>
+  <si>
+    <t>altres_pn_major_70</t>
+  </si>
+  <si>
+    <t>clima_pn_menor_12_autonoms</t>
+  </si>
+  <si>
+    <t>clima_pn_menor_12_torres</t>
+  </si>
+  <si>
+    <t>clima_pn_menor_12_recuperador</t>
+  </si>
+  <si>
+    <t>clima_pn_12_70_autonoms</t>
+  </si>
+  <si>
+    <t>clima_pn_12_70_torres</t>
+  </si>
+  <si>
+    <t>clima_pn_12_70_recuperador</t>
+  </si>
+  <si>
+    <t>clima_pn_major_70_autonoms</t>
+  </si>
+  <si>
+    <t>clima_pn_major_70_torres</t>
+  </si>
+  <si>
+    <t>clima_pn_major_70_recuperador</t>
+  </si>
+  <si>
+    <t>Caldera a biomassa</t>
+  </si>
+  <si>
+    <t>Caldera o escalfador amb instal·lació d’energia solar tèrmica</t>
+  </si>
+  <si>
+    <t>Escalfador Pn ≤ 24,4 kW</t>
+  </si>
+  <si>
+    <t>Escalfador 24,4 kW &lt; Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>Escalfador Pn &gt; 70 kW</t>
+  </si>
+  <si>
+    <t>Calentador Pn ≤ 24,4 kW</t>
+  </si>
+  <si>
+    <t>Calentador 24,4 kW &lt; Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>Calentador Pn &gt; 70 kW</t>
+  </si>
+  <si>
+    <t>Caldera Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>Caldera Pn &gt; 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatització autònom Pn ≤ 12 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatització amb torre de refrigeració Pn ≤ 12 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatización autónomo Pn ≤ 12 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de climatización con torre de refrigeración Pn ≤ 12 kW </t>
+  </si>
+  <si>
+    <t>Sistema de climatización con recuperación de calor Pn ≤ 12 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatització autònom 12 kW &lt; Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatització autònom Pn &gt; 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatització amb torre de refrigeració 12 kW &lt; Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatització amb torre de refrigeració Pn &gt; 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatització amb recuperació de calor Pn ≤ 12 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatització amb recuperació de calor 12 kW &lt; Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatització amb recuperació de calor Pn &gt; 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatización autónomo 12 kW &lt; Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatización con torre de refrigeración 12 kW &lt; Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatización con torre de refrigeración Pn &gt; 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatización autónomo Pn &gt; 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatización con recuperación de calor 12 kW &lt; Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatización con recuperación de calor Pn &gt; 70 kW</t>
+  </si>
+  <si>
+    <t>instalacio_gas</t>
+  </si>
+  <si>
+    <t>Acometida a red de distribución canalizada de gas para uso doméstico</t>
+  </si>
+  <si>
+    <t>diposit_aire_lliure</t>
+  </si>
+  <si>
+    <t>diposit_enterrat</t>
+  </si>
+  <si>
+    <t>Depósito de gas propano al aire libre</t>
+  </si>
+  <si>
+    <t>Depósito de gas propano enterrado</t>
+  </si>
+  <si>
+    <t>Escomesa a xarxa de distribució canalitzada de gas per a ús domèstic</t>
+  </si>
+  <si>
+    <t>Dipòsit de gas propà a l'aire lliure</t>
+  </si>
+  <si>
+    <t>Dipòsit de gas propà enterrat</t>
+  </si>
+  <si>
+    <t>habitatge_natural_conductes</t>
+  </si>
+  <si>
+    <t>Natural por conductos</t>
+  </si>
+  <si>
+    <t>habitatge_natural_obertures</t>
+  </si>
+  <si>
+    <t>Natural por aperturas</t>
+  </si>
+  <si>
+    <t>habitatge_mecanica_conductes</t>
+  </si>
+  <si>
+    <t>Mecánica por conductos</t>
+  </si>
+  <si>
+    <t>habitatge_mecanica_obertures</t>
+  </si>
+  <si>
+    <t>Mecánica por aperturas</t>
+  </si>
+  <si>
+    <t>habitatge_mecanica_control</t>
+  </si>
+  <si>
+    <t>Mecánica con sistema de control</t>
+  </si>
+  <si>
+    <t>traster_natural_conductes</t>
+  </si>
+  <si>
+    <t>traster_natural_obertures</t>
+  </si>
+  <si>
+    <t>traster_mecanica_conductes</t>
+  </si>
+  <si>
+    <t>traster_mecanica_obertures</t>
+  </si>
+  <si>
+    <t>traster_mecanica_control</t>
+  </si>
+  <si>
+    <t>magatzem_natural_conductes</t>
+  </si>
+  <si>
+    <t>magatzem_natural_obertures</t>
+  </si>
+  <si>
+    <t>magatzem_mecanica_conductes</t>
+  </si>
+  <si>
+    <t>magatzem_mecanica_obertures</t>
+  </si>
+  <si>
+    <t>magatzem_mecanica_control</t>
+  </si>
+  <si>
+    <t>garatge_natural_conductes</t>
+  </si>
+  <si>
+    <t>garatge_natural_obertures</t>
+  </si>
+  <si>
+    <t>garatge_mecanica_conductes</t>
+  </si>
+  <si>
+    <t>garatge_mecanica_obertures</t>
+  </si>
+  <si>
+    <t>garatge_mecanica_control</t>
+  </si>
+  <si>
+    <t>Natural per conductes</t>
+  </si>
+  <si>
+    <t>Natural per obertures</t>
+  </si>
+  <si>
+    <t>Mecànica per conductes</t>
+  </si>
+  <si>
+    <t>Mecànica per obertures</t>
+  </si>
+  <si>
+    <t>Mecànica amb sistema de control</t>
+  </si>
+  <si>
+    <t>alarma_automatica</t>
+  </si>
+  <si>
+    <t>Sistema automático de detección y alarma de incendios</t>
+  </si>
+  <si>
+    <t>alarma_manual</t>
+  </si>
+  <si>
+    <t>Sistema manual de alarma de incendios</t>
+  </si>
+  <si>
+    <t>extintors</t>
+  </si>
+  <si>
+    <t>Extintores de incendios</t>
+  </si>
+  <si>
+    <t>abastiment_aigua</t>
+  </si>
+  <si>
+    <t>Sistema de suministro de agua contra incendios</t>
+  </si>
+  <si>
+    <t>bie</t>
+  </si>
+  <si>
+    <t>Boca de incendios equipada (BIE)</t>
+  </si>
+  <si>
+    <t>hidrants</t>
+  </si>
+  <si>
+    <t>Hidrantes</t>
+  </si>
+  <si>
+    <t>ruixadors</t>
+  </si>
+  <si>
+    <t>Sistema fijo de extinción (rociadores)</t>
+  </si>
+  <si>
+    <t>columnes_seques</t>
+  </si>
+  <si>
+    <t>Columnas secas</t>
+  </si>
+  <si>
+    <t>parallamps</t>
+  </si>
+  <si>
+    <t>Pararayos</t>
+  </si>
+  <si>
+    <t>Sistema automàtic de detecció i alarma d’incendis</t>
+  </si>
+  <si>
+    <t>Sistema manual d’alarma d’incendis</t>
+  </si>
+  <si>
+    <t>Extintors d’incendis</t>
+  </si>
+  <si>
+    <t>Sistema d’abastiment d’aigua contra incendis</t>
+  </si>
+  <si>
+    <t>Boca d’incendis equipada (BIE)</t>
+  </si>
+  <si>
+    <t>Hidrants</t>
+  </si>
+  <si>
+    <t>Sistemes fixes d’extinció (ruixadors)</t>
+  </si>
+  <si>
+    <t>Columnes seques</t>
+  </si>
+  <si>
+    <t>Parallamps</t>
+  </si>
+  <si>
+    <t>habitatge_unifamiliar</t>
+  </si>
+  <si>
+    <t>edifici_comunitari</t>
+  </si>
+  <si>
+    <t>Ascensor en edificio comunitario de uso residencial de hasta seis paradas, con antigüedad menor de 20 años</t>
+  </si>
+  <si>
+    <t>mes_20_plantes</t>
+  </si>
+  <si>
+    <t>altres</t>
+  </si>
+  <si>
+    <t>La vivienda dispone de ascensor</t>
+  </si>
+  <si>
+    <t>Ascensor instalado en edificios de más de 20 viviendas, o con más de 4 plantas servidas</t>
+  </si>
+  <si>
+    <t>Ascensor</t>
+  </si>
+  <si>
+    <t>Ascensor en edifici comunitari d’ús residencial de fins a sis parades, amb antiguitat menor de 20 anys</t>
+  </si>
+  <si>
+    <t>Ascensor instal·lat en edifici de més de 20 habitatges, o amb més de 4 plantes servides</t>
+  </si>
+  <si>
+    <t>L'habitatge disposa d'ascensor</t>
+  </si>
+  <si>
+    <t>ascensors</t>
+  </si>
+  <si>
+    <t>porter_audio</t>
+  </si>
+  <si>
+    <t>Portero electrónico con sistema de audio</t>
+  </si>
+  <si>
+    <t>porter_video</t>
+  </si>
+  <si>
+    <t>Portero electrónico con sistema de audio y vídeo</t>
+  </si>
+  <si>
+    <t>antena_individual</t>
+  </si>
+  <si>
+    <t>Antena individual y red coaxial</t>
+  </si>
+  <si>
+    <t>antena_colectiva</t>
+  </si>
+  <si>
+    <t>Antena colectiva y red coaxial</t>
+  </si>
+  <si>
+    <t>parabolica_individual</t>
+  </si>
+  <si>
+    <t>Antena parabólica individual</t>
+  </si>
+  <si>
+    <t>parabolica_colectiva</t>
+  </si>
+  <si>
+    <t>Antena parabólica colectiva</t>
+  </si>
+  <si>
+    <t>telefonia</t>
+  </si>
+  <si>
+    <t>Instalación de telefonía</t>
+  </si>
+  <si>
+    <t>riti</t>
+  </si>
+  <si>
+    <t>RITI (Recinto de instalaciones de telecomunicaciones inferior)</t>
+  </si>
+  <si>
+    <t>rits</t>
+  </si>
+  <si>
+    <t>RITS (Recinto de instalaciones de telecomunicaciones superior)</t>
+  </si>
+  <si>
+    <t>ritu</t>
+  </si>
+  <si>
+    <t>RITU (Recinto de instalaciones de telecomunicaciones único)</t>
+  </si>
+  <si>
+    <t>ritm</t>
+  </si>
+  <si>
+    <t>RITM (Recinto de instalaciones de telecomunicaciones único modular prefabricado)</t>
+  </si>
+  <si>
+    <t>Porter electrònic amb sistema d'àudio</t>
+  </si>
+  <si>
+    <t>Porter electrònic amb sistema d'àudio i vídeo</t>
+  </si>
+  <si>
+    <t>Antena individual i xarxa coaxial</t>
+  </si>
+  <si>
+    <t>Antena col·lectiva i xarxa coaxial</t>
+  </si>
+  <si>
+    <t>Antena parabòlica individual</t>
+  </si>
+  <si>
+    <t>Antena parabòlica col·lectiva</t>
+  </si>
+  <si>
+    <t>Instal·lació de telefonia</t>
+  </si>
+  <si>
+    <t>RITI (Recinte d’instal·lacions de telecomunicacions inferior)</t>
+  </si>
+  <si>
+    <t>RITS (Recinte d’instal·lacions de telecomunicacions superior)</t>
+  </si>
+  <si>
+    <t>RITU (Recinte d’instal·lacions de telecomunicacions únic)</t>
+  </si>
+  <si>
+    <t>RITM (Recinte d’instal·lacions de telecomunicacions únic modular prefabricat)</t>
+  </si>
+  <si>
+    <t>piscina_estructura_obra</t>
+  </si>
+  <si>
+    <t>piscina_estructura_composite</t>
+  </si>
+  <si>
+    <t>piscina_estructura_acer</t>
+  </si>
+  <si>
+    <t>piscina_vores_formigo</t>
+  </si>
+  <si>
+    <t>Bordes prefabricados de hormigón</t>
+  </si>
+  <si>
+    <t>piscina_vores_pedra</t>
+  </si>
+  <si>
+    <t>Bordes de piedra natural</t>
+  </si>
+  <si>
+    <t>piscina_ceramica</t>
+  </si>
+  <si>
+    <t>Revestimiento de piezas cerámicas</t>
+  </si>
+  <si>
+    <t>piscina_resines</t>
+  </si>
+  <si>
+    <t>Revestimiento de resinas sintéticas</t>
+  </si>
+  <si>
+    <t>piscina_porcellana</t>
+  </si>
+  <si>
+    <t>Revestimiento de porcelana</t>
+  </si>
+  <si>
+    <t>piscina_climatitzacio</t>
+  </si>
+  <si>
+    <t>Dispone de instalación de climatización</t>
+  </si>
+  <si>
+    <t>piscina_iluminacio</t>
+  </si>
+  <si>
+    <t>Dispone de instalación de iluminación sumergida</t>
+  </si>
+  <si>
+    <t>piscina_purificador</t>
+  </si>
+  <si>
+    <t>Dispone de instalación de purificación de aguas</t>
+  </si>
+  <si>
+    <t>Vores prefabricades de formigó</t>
+  </si>
+  <si>
+    <t>Vores de pedra natural</t>
+  </si>
+  <si>
+    <t>Revestiment de peces ceràmiques</t>
+  </si>
+  <si>
+    <t>Revestiment de resines sintètiques</t>
+  </si>
+  <si>
+    <t>Revestiment de porcellana</t>
+  </si>
+  <si>
+    <t>Disposa d'instal·lació de climatització</t>
+  </si>
+  <si>
+    <t>Disposa d'instal·lació d'il·luminació submergida</t>
+  </si>
+  <si>
+    <t>Disposa d'instal·lació de purificació d'aigües</t>
+  </si>
+  <si>
+    <t>Piscina amb estructura d'obra</t>
+  </si>
+  <si>
+    <t>Piscina amb estructura de materials composites</t>
+  </si>
+  <si>
+    <t>Piscina amb estructura d'acer</t>
+  </si>
+  <si>
+    <t>Piscina con estructura de obra</t>
+  </si>
+  <si>
+    <t>Piscina con estructura de materiales composites</t>
+  </si>
+  <si>
+    <t>Piscina con estructura de acero</t>
+  </si>
+  <si>
+    <t>º</t>
   </si>
 </sst>
 </file>
@@ -5460,7 +6375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+    <sheetView topLeftCell="A392" workbookViewId="0">
       <selection activeCell="B409" sqref="B409:B419"/>
     </sheetView>
   </sheetViews>
@@ -23265,16 +24180,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F288"/>
+  <dimension ref="A1:F406"/>
   <sheetViews>
-    <sheetView topLeftCell="A273" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F288" sqref="F2:F288"/>
+    <sheetView tabSelected="1" topLeftCell="A383" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F406" sqref="F406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
     <col min="3" max="3" width="36.1640625" customWidth="1"/>
     <col min="4" max="4" width="30.83203125" customWidth="1"/>
   </cols>
@@ -26781,7 +27696,7 @@
         <v>1167</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" ref="F195:F288" si="3">"ElementPredefinit.create(nom_element: """&amp;B195&amp;""", sistema_element: """&amp;A195&amp;""", descripcio_ca: """&amp;C195&amp;""", descripcio_es: """&amp;D195&amp;""")"</f>
+        <f t="shared" ref="F195:F289" si="3">"ElementPredefinit.create(nom_element: """&amp;B195&amp;""", sistema_element: """&amp;A195&amp;""", descripcio_ca: """&amp;C195&amp;""", descripcio_es: """&amp;D195&amp;""")"</f>
         <v>ElementPredefinit.create(nom_element: "aillament_plaques", sistema_element: "coberta", descripcio_ca: "Foma de l'aïllament: plaques", descripcio_es: "Forma del aislamiento: placas")</v>
       </c>
     </row>
@@ -28457,6 +29372,2099 @@
       <c r="F288" t="str">
         <f t="shared" si="3"/>
         <v>ElementPredefinit.create(nom_element: "barana_metacrilat", sistema_element: "particions", descripcio_ca: "Baranes de metacrilat", descripcio_es: "Barandillas de metacrilato")</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>179</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F289" t="str">
+        <f t="shared" si="3"/>
+        <v>ElementPredefinit.create(nom_element: "no_sistema_evacuacio", sistema_element: "sanejament", descripcio_ca: "No disposa de sistema d'evacuació", descripcio_es: " No dispone de sistema de evacuación")</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>179</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F290" t="str">
+        <f t="shared" ref="F290:F353" si="4">"ElementPredefinit.create(nom_element: """&amp;B290&amp;""", sistema_element: """&amp;A290&amp;""", descripcio_ca: """&amp;C290&amp;""", descripcio_es: """&amp;D290&amp;""")"</f>
+        <v>ElementPredefinit.create(nom_element: "si_sistema_evacuacio", sistema_element: "sanejament", descripcio_ca: "Disposa de sistema d'evacuació", descripcio_es: " Dispone de sistema de evacuación")</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>179</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F291" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "fosa_septica", sistema_element: "sanejament", descripcio_ca: "Disposa de sistema d'evacuació propi (fossa sèptica, etc.)", descripcio_es: " Dispone de sistema de evacuación propio (fosa séptica, etc.)")</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>179</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F292" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "colectors_vistos", sistema_element: "sanejament", descripcio_ca: "Els col·lectors són vistos", descripcio_es: " Los colectors son vistos")</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>179</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F293" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "bomba_elevacio", sistema_element: "sanejament", descripcio_ca: "Disposa de bomba d'elevació", descripcio_es: " Dispone de bomba de elevación")</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>179</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F294" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "separador_greixos", sistema_element: "sanejament", descripcio_ca: "Disposa de separador de greixos i fangs", descripcio_es: " Dispone de separador de grasas y barros")</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>179</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F295" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "baixants_vistos", sistema_element: "sanejament", descripcio_ca: "Baixants vistos", descripcio_es: " Bajantes vistos")</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>179</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F296" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "baixants_encastats", sistema_element: "sanejament", descripcio_ca: "Baixants encastats", descripcio_es: " Bajantes encastados")</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>179</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F297" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "baixants_ceramics", sistema_element: "sanejament", descripcio_ca: "Baixants ceràmics", descripcio_es: " Bajantes cerámicos")</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>179</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F298" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "baixants_pvc", sistema_element: "sanejament", descripcio_ca: "Baixants de PVC", descripcio_es: " Bajantes de PVC")</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>179</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F299" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "baixants_fibrociment", sistema_element: "sanejament", descripcio_ca: "Baixants de fibrociment", descripcio_es: " Bajantes de fibrocemento")</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>179</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F300" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "baixants_coure", sistema_element: "sanejament", descripcio_ca: "Baixants de coure", descripcio_es: " Bajantes de cobre")</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>179</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F301" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "baixants_alumini", sistema_element: "sanejament", descripcio_ca: "Baixants d'alumini", descripcio_es: " Bajantes de aluminio")</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>179</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F302" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "baixants_polipropile", sistema_element: "sanejament", descripcio_ca: "Baixants de polipropilè", descripcio_es: " Bajantes de polipropileno")</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>179</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F303" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "baixants_zinc", sistema_element: "sanejament", descripcio_ca: "Baixants de zinc", descripcio_es: " Bajantes de zinc")</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>179</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F304" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "colectors_vistos", sistema_element: "sanejament", descripcio_ca: "Col·lectors vistos", descripcio_es: " Colectores vistos")</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>179</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F305" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "colectors_soterrats", sistema_element: "sanejament", descripcio_ca: "Col·lectors soterrats", descripcio_es: " Colectores enterrados")</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>179</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F306" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "colectors_formigo", sistema_element: "sanejament", descripcio_ca: "Col·lectors de formigó", descripcio_es: " Colectores de hormigón")</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>179</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F307" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "colectors_ceramic", sistema_element: "sanejament", descripcio_ca: "Col·lectors ceràmics", descripcio_es: " Colectores cerámicos")</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>179</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F308" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "colectors_fibrociment", sistema_element: "sanejament", descripcio_ca: "Col·lectors de fibrociment", descripcio_es: " Colectores de fibrocemento")</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>179</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F309" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "colectors_pvc", sistema_element: "sanejament", descripcio_ca: "Col·lectors de PVC", descripcio_es: " Colectores de PVC")</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>121</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F310" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "connexio_directa", sistema_element: "aigua", descripcio_ca: "Disposa de connexió directa a xarxa pública de subministrament d'aigua", descripcio_es: "Dispone de conexión directa a red pública de suministro de agua")</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>121</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F311" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "connexio_aforament", sistema_element: "aigua", descripcio_ca: "Disposa de connexió per aforament a xarxa pública de subministrament d'aigua", descripcio_es: "Dispone de conexión por aforo a red pública de suministro de agua")</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>121</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F312" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "captacio_propia", sistema_element: "aigua", descripcio_ca: "Disposa de captació pròpia (pou, bomba, etc.)", descripcio_es: "Dispone de captación propia (pozo, bomba, etc.)")</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>121</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F313" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "grup_pressio", sistema_element: "aigua", descripcio_ca: "Disposa de grup de pressió", descripcio_es: "Dispone de grupo de presión")</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>121</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F314" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "comptador_unic", sistema_element: "aigua", descripcio_ca: "Comptador únic per tot l'edifici", descripcio_es: "Contador único para todo el edificio")</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>121</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F315" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "comptadors_individuals_habitatge", sistema_element: "aigua", descripcio_ca: "Comptadors individuals per habitatge/local", descripcio_es: "Contadores individuales por vivienda/local")</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>121</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F316" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "comptadors_individuals_centralitzats", sistema_element: "aigua", descripcio_ca: "Comptadors individuals centralitzats", descripcio_es: "Contadores individuales centralizados")</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>121</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F317" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "muntants_plom", sistema_element: "aigua", descripcio_ca: "Muntants de plom", descripcio_es: "Montantes de plomo")</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>121</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F318" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "muntants_ferro", sistema_element: "aigua", descripcio_ca: "Muntants de ferro", descripcio_es: "Montantes de hierro")</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>121</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F319" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "muntants_coure", sistema_element: "aigua", descripcio_ca: "Muntants de coure", descripcio_es: "Montantes de cobre")</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>121</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F320" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "muntants_plastic", sistema_element: "aigua", descripcio_ca: "Muntants de plàstic", descripcio_es: "Montantes de plástico")</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>125</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F321" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "enllumenat_comunitari", sistema_element: "electricitat", descripcio_ca: "Disposa d'enllumenat comunitari", descripcio_es: "Dispone de alumbrado comunitario")</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>125</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F322" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "mes_100k", sistema_element: "electricitat", descripcio_ca: "Potència total instal·lada superior als 100 kW", descripcio_es: "Potencia total instalada superior a los 100 kW")</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>125</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F323" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "connexio_terra", sistema_element: "electricitat", descripcio_ca: "Disposa de connexió a terra", descripcio_es: "Dispone de conexión a tierra")</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>125</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F324" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "centre_transformacio", sistema_element: "electricitat", descripcio_ca: "Hi ha un centre de transformació a l'edifici", descripcio_es: "Hay un centro de transformación en el edificio")</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>125</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F325" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "fotovoltaica", sistema_element: "electricitat", descripcio_ca: "Disposa d'instal·lació solar fotovoltaica", descripcio_es: "Dispone de instalación solar fotovoltaica")</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>125</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F326" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "comptador_unic", sistema_element: "electricitat", descripcio_ca: "Comptador únic per tot l'edifici", descripcio_es: "Contador único para todo el edificio")</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>125</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F327" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "comptadors_individuals_habitatge", sistema_element: "electricitat", descripcio_ca: "Comptadors individuals per habitatge/local", descripcio_es: "Contadores individuales por vivienda/local")</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>125</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F328" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "comptadors_individuals_centralitzats", sistema_element: "electricitat", descripcio_ca: "Comptadors individuals centralitzats", descripcio_es: "Contadores individuales centralizados")</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>207</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F329" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "escalfador_pn_menor_24", sistema_element: "climatitzacio", descripcio_ca: "Escalfador Pn ≤ 24,4 kW", descripcio_es: "Calentador Pn ≤ 24,4 kW")</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>207</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F330" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "escalfador_pn_24_70", sistema_element: "climatitzacio", descripcio_ca: "Escalfador 24,4 kW &lt; Pn ≤ 70 kW", descripcio_es: "Calentador 24,4 kW &lt; Pn ≤ 70 kW")</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>207</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F331" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "escalfador_pn_major_70", sistema_element: "climatitzacio", descripcio_ca: "Escalfador Pn &gt; 70 kW", descripcio_es: "Calentador Pn &gt; 70 kW")</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>207</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F332" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "caldera_gas_pn_menor_70", sistema_element: "climatitzacio", descripcio_ca: "Caldera a gas Pn ≤ 70 kW", descripcio_es: "Caldera a gas Pn ≤ 70 kW")</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>207</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F333" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "caldera_gas_pn_major_70", sistema_element: "climatitzacio", descripcio_ca: "Caldera a gas Pn &gt; 70 kW", descripcio_es: "Caldera a gas Pn &gt; 70 kW")</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>207</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F334" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "caldera_biomassa", sistema_element: "climatitzacio", descripcio_ca: "Caldera a biomassa", descripcio_es: "Caldera a biomasa")</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>207</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F335" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "caldera_solar_termica", sistema_element: "climatitzacio", descripcio_ca: "Caldera o escalfador amb instal·lació d’energia solar tèrmica", descripcio_es: "Caldera o calentador con instalación de energía solar térmica")</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>207</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F336" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "altres_pn_menor_70", sistema_element: "climatitzacio", descripcio_ca: "Caldera Pn ≤ 70 kW", descripcio_es: "Caldera Pn ≤ 70 kW")</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>207</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F337" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "altres_pn_major_70", sistema_element: "climatitzacio", descripcio_ca: "Caldera Pn &gt; 70 kW", descripcio_es: "Caldera Pn &gt; 70 kW")</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>207</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F338" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "clima_pn_menor_12_autonoms", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització autònom Pn ≤ 12 kW", descripcio_es: "Sistema de climatización autónomo Pn ≤ 12 kW")</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>207</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F339" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "clima_pn_menor_12_torres", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització amb torre de refrigeració Pn ≤ 12 kW", descripcio_es: "Sistema de climatización con torre de refrigeración Pn ≤ 12 kW ")</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>207</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F340" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "clima_pn_menor_12_recuperador", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització amb recuperació de calor Pn ≤ 12 kW", descripcio_es: "Sistema de climatización con recuperación de calor Pn ≤ 12 kW")</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>207</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F341" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "clima_pn_12_70_autonoms", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització autònom 12 kW &lt; Pn ≤ 70 kW", descripcio_es: "Sistema de climatización autónomo 12 kW &lt; Pn ≤ 70 kW")</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>207</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F342" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "clima_pn_12_70_torres", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització amb torre de refrigeració 12 kW &lt; Pn ≤ 70 kW", descripcio_es: "Sistema de climatización con torre de refrigeración 12 kW &lt; Pn ≤ 70 kW")</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>207</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F343" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "clima_pn_12_70_recuperador", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització amb recuperació de calor 12 kW &lt; Pn ≤ 70 kW", descripcio_es: "Sistema de climatización con recuperación de calor 12 kW &lt; Pn ≤ 70 kW")</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>207</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F344" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "clima_pn_major_70_autonoms", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització autònom Pn &gt; 70 kW", descripcio_es: "Sistema de climatización autónomo Pn &gt; 70 kW")</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>207</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F345" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "clima_pn_major_70_torres", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització amb torre de refrigeració Pn &gt; 70 kW", descripcio_es: "Sistema de climatización con torre de refrigeración Pn &gt; 70 kW")</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>207</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F346" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "clima_pn_major_70_recuperador", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització amb recuperació de calor Pn &gt; 70 kW", descripcio_es: "Sistema de climatización con recuperación de calor Pn &gt; 70 kW")</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>162</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F347" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "instalacio_gas", sistema_element: "gas", descripcio_ca: "Escomesa a xarxa de distribució canalitzada de gas per a ús domèstic", descripcio_es: "Acometida a red de distribución canalizada de gas para uso doméstico")</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>162</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F348" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "diposit_aire_lliure", sistema_element: "gas", descripcio_ca: "Dipòsit de gas propà a l'aire lliure", descripcio_es: "Depósito de gas propano al aire libre")</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>162</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F349" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "diposit_enterrat", sistema_element: "gas", descripcio_ca: "Dipòsit de gas propà enterrat", descripcio_es: "Depósito de gas propano enterrado")</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>396</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F350" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "habitatge_natural_conductes", sistema_element: "ventilacio", descripcio_ca: "Natural per conductes", descripcio_es: "Natural por conductos")</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>396</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F351" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "habitatge_natural_obertures", sistema_element: "ventilacio", descripcio_ca: "Natural per obertures", descripcio_es: "Natural por aperturas")</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>396</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F352" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "habitatge_mecanica_conductes", sistema_element: "ventilacio", descripcio_ca: "Mecànica per conductes", descripcio_es: "Mecánica por conductos")</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>396</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F353" t="str">
+        <f t="shared" si="4"/>
+        <v>ElementPredefinit.create(nom_element: "habitatge_mecanica_obertures", sistema_element: "ventilacio", descripcio_ca: "Mecànica per obertures", descripcio_es: "Mecánica por aperturas")</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>396</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F354" t="str">
+        <f t="shared" ref="F354:F404" si="5">"ElementPredefinit.create(nom_element: """&amp;B354&amp;""", sistema_element: """&amp;A354&amp;""", descripcio_ca: """&amp;C354&amp;""", descripcio_es: """&amp;D354&amp;""")"</f>
+        <v>ElementPredefinit.create(nom_element: "habitatge_mecanica_control", sistema_element: "ventilacio", descripcio_ca: "Mecànica amb sistema de control", descripcio_es: "Mecánica con sistema de control")</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>396</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F355" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "traster_natural_conductes", sistema_element: "ventilacio", descripcio_ca: "Natural per conductes", descripcio_es: "Natural por conductos")</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>396</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F356" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "traster_natural_obertures", sistema_element: "ventilacio", descripcio_ca: "Natural per obertures", descripcio_es: "Natural por aperturas")</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>396</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F357" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "traster_mecanica_conductes", sistema_element: "ventilacio", descripcio_ca: "Mecànica per conductes", descripcio_es: "Mecánica por conductos")</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>396</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F358" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "traster_mecanica_obertures", sistema_element: "ventilacio", descripcio_ca: "Mecànica per obertures", descripcio_es: "Mecánica por aperturas")</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>396</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F359" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "traster_mecanica_control", sistema_element: "ventilacio", descripcio_ca: "Mecànica amb sistema de control", descripcio_es: "Mecánica con sistema de control")</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>396</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F360" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "magatzem_natural_conductes", sistema_element: "ventilacio", descripcio_ca: "Natural per conductes", descripcio_es: "Natural por conductos")</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>396</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F361" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "magatzem_natural_obertures", sistema_element: "ventilacio", descripcio_ca: "Natural per obertures", descripcio_es: "Natural por aperturas")</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>396</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F362" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "magatzem_mecanica_conductes", sistema_element: "ventilacio", descripcio_ca: "Mecànica per conductes", descripcio_es: "Mecánica por conductos")</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>396</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F363" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "magatzem_mecanica_obertures", sistema_element: "ventilacio", descripcio_ca: "Mecànica per obertures", descripcio_es: "Mecánica por aperturas")</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>396</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F364" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "magatzem_mecanica_control", sistema_element: "ventilacio", descripcio_ca: "Mecànica amb sistema de control", descripcio_es: "Mecánica con sistema de control")</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>396</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F365" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "garatge_natural_conductes", sistema_element: "ventilacio", descripcio_ca: "Natural per conductes", descripcio_es: "Natural por conductos")</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>396</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F366" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "garatge_natural_obertures", sistema_element: "ventilacio", descripcio_ca: "Natural per obertures", descripcio_es: "Natural por aperturas")</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>396</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F367" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "garatge_mecanica_conductes", sistema_element: "ventilacio", descripcio_ca: "Mecànica per conductes", descripcio_es: "Mecánica por conductos")</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>396</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F368" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "garatge_mecanica_obertures", sistema_element: "ventilacio", descripcio_ca: "Mecànica per obertures", descripcio_es: "Mecánica por aperturas")</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>396</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F369" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "garatge_mecanica_control", sistema_element: "ventilacio", descripcio_ca: "Mecànica amb sistema de control", descripcio_es: "Mecánica con sistema de control")</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>462</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1875</v>
+      </c>
+      <c r="F370" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "alarma_automatica", sistema_element: "incendis", descripcio_ca: "Sistema automàtic de detecció i alarma d’incendis", descripcio_es: "Sistema automático de detección y alarma de incendios")</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>462</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F371" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "alarma_manual", sistema_element: "incendis", descripcio_ca: "Sistema manual d’alarma d’incendis", descripcio_es: "Sistema manual de alarma de incendios")</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>462</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F372" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "extintors", sistema_element: "incendis", descripcio_ca: "Extintors d’incendis", descripcio_es: "Extintores de incendios")</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>462</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F373" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "abastiment_aigua", sistema_element: "incendis", descripcio_ca: "Sistema d’abastiment d’aigua contra incendis", descripcio_es: "Sistema de suministro de agua contra incendios")</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>462</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F374" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "bie", sistema_element: "incendis", descripcio_ca: "Boca d’incendis equipada (BIE)", descripcio_es: "Boca de incendios equipada (BIE)")</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>462</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F375" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "hidrants", sistema_element: "incendis", descripcio_ca: "Hidrants", descripcio_es: "Hidrantes")</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>462</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F376" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "ruixadors", sistema_element: "incendis", descripcio_ca: "Sistemes fixes d’extinció (ruixadors)", descripcio_es: "Sistema fijo de extinción (rociadores)")</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>462</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F377" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "columnes_seques", sistema_element: "incendis", descripcio_ca: "Columnes seques", descripcio_es: "Columnas secas")</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>462</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F378" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "parallamps", sistema_element: "incendis", descripcio_ca: "Parallamps", descripcio_es: "Pararayos")</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F379" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "habitatge_unifamiliar", sistema_element: "ascensors", descripcio_ca: "L'habitatge disposa d'ascensor", descripcio_es: "La vivienda dispone de ascensor")</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F380" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "edifici_comunitari", sistema_element: "ascensors", descripcio_ca: "Ascensor en edifici comunitari d’ús residencial de fins a sis parades, amb antiguitat menor de 20 anys", descripcio_es: "Ascensor en edificio comunitario de uso residencial de hasta seis paradas, con antigüedad menor de 20 años")</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F381" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "mes_20_plantes", sistema_element: "ascensors", descripcio_ca: "Ascensor instal·lat en edifici de més de 20 habitatges, o amb més de 4 plantes servides", descripcio_es: "Ascensor instalado en edificios de más de 20 viviendas, o con más de 4 plantas servidas")</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F382" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "altres", sistema_element: "ascensors", descripcio_ca: "Ascensor", descripcio_es: "Ascensor")</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>600</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F383" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "porter_audio", sistema_element: "telecomunicacions", descripcio_ca: "Porter electrònic amb sistema d'àudio", descripcio_es: "Portero electrónico con sistema de audio")</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>600</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F384" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "porter_video", sistema_element: "telecomunicacions", descripcio_ca: "Porter electrònic amb sistema d'àudio i vídeo", descripcio_es: "Portero electrónico con sistema de audio y vídeo")</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>600</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F385" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "antena_individual", sistema_element: "telecomunicacions", descripcio_ca: "Antena individual i xarxa coaxial", descripcio_es: "Antena individual y red coaxial")</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>600</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F386" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "antena_colectiva", sistema_element: "telecomunicacions", descripcio_ca: "Antena col·lectiva i xarxa coaxial", descripcio_es: "Antena colectiva y red coaxial")</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>600</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F387" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "parabolica_individual", sistema_element: "telecomunicacions", descripcio_ca: "Antena parabòlica individual", descripcio_es: "Antena parabólica individual")</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>600</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F388" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "parabolica_colectiva", sistema_element: "telecomunicacions", descripcio_ca: "Antena parabòlica col·lectiva", descripcio_es: "Antena parabólica colectiva")</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>600</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F389" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "telefonia", sistema_element: "telecomunicacions", descripcio_ca: "Instal·lació de telefonia", descripcio_es: "Instalación de telefonía")</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>600</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F390" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "riti", sistema_element: "telecomunicacions", descripcio_ca: "RITI (Recinte d’instal·lacions de telecomunicacions inferior)", descripcio_es: "RITI (Recinto de instalaciones de telecomunicaciones inferior)")</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>600</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F391" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "rits", sistema_element: "telecomunicacions", descripcio_ca: "RITS (Recinte d’instal·lacions de telecomunicacions superior)", descripcio_es: "RITS (Recinto de instalaciones de telecomunicaciones superior)")</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>600</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F392" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "ritu", sistema_element: "telecomunicacions", descripcio_ca: "RITU (Recinte d’instal·lacions de telecomunicacions únic)", descripcio_es: "RITU (Recinto de instalaciones de telecomunicaciones único)")</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>600</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F393" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "ritm", sistema_element: "telecomunicacions", descripcio_ca: "RITM (Recinte d’instal·lacions de telecomunicacions únic modular prefabricat)", descripcio_es: "RITM (Recinto de instalaciones de telecomunicaciones único modular prefabricado)")</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>633</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F394" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "piscina_estructura_obra", sistema_element: "especials", descripcio_ca: "Piscina amb estructura d'obra", descripcio_es: "Piscina con estructura de obra")</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>633</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F395" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "piscina_estructura_composite", sistema_element: "especials", descripcio_ca: "Piscina amb estructura de materials composites", descripcio_es: "Piscina con estructura de materiales composites")</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>633</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F396" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "piscina_estructura_acer", sistema_element: "especials", descripcio_ca: "Piscina amb estructura d'acer", descripcio_es: "Piscina con estructura de acero")</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>633</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F397" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "piscina_vores_formigo", sistema_element: "especials", descripcio_ca: "Vores prefabricades de formigó", descripcio_es: "Bordes prefabricados de hormigón")</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>633</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F398" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "piscina_vores_pedra", sistema_element: "especials", descripcio_ca: "Vores de pedra natural", descripcio_es: "Bordes de piedra natural")</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>633</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F399" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "piscina_ceramica", sistema_element: "especials", descripcio_ca: "Revestiment de peces ceràmiques", descripcio_es: "Revestimiento de piezas cerámicas")</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>633</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F400" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "piscina_resines", sistema_element: "especials", descripcio_ca: "Revestiment de resines sintètiques", descripcio_es: "Revestimiento de resinas sintéticas")</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>633</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F401" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "piscina_porcellana", sistema_element: "especials", descripcio_ca: "Revestiment de porcellana", descripcio_es: "Revestimiento de porcelana")</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>633</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F402" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "piscina_climatitzacio", sistema_element: "especials", descripcio_ca: "Disposa d'instal·lació de climatització", descripcio_es: "Dispone de instalación de climatización")</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>633</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F403" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "piscina_iluminacio", sistema_element: "especials", descripcio_ca: "Disposa d'instal·lació d'il·luminació submergida", descripcio_es: "Dispone de instalación de iluminación sumergida")</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>633</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F404" t="str">
+        <f t="shared" si="5"/>
+        <v>ElementPredefinit.create(nom_element: "piscina_purificador", sistema_element: "especials", descripcio_ca: "Disposa d'instal·lació de purificació d'aigües", descripcio_es: "Dispone de instalación de purificación de aguas")</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F406" t="s">
+        <v>1979</v>
       </c>
     </row>
   </sheetData>

--- a/lib/documents_treball/operacions_manteniment_v2.xlsx
+++ b/lib/documents_treball/operacions_manteniment_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Operacions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4990" uniqueCount="1980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4989" uniqueCount="1979">
   <si>
     <t>sistema</t>
   </si>
@@ -5962,9 +5962,6 @@
   </si>
   <si>
     <t>Piscina con estructura de acero</t>
-  </si>
-  <si>
-    <t>º</t>
   </si>
 </sst>
 </file>
@@ -6375,8 +6372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N419"/>
   <sheetViews>
-    <sheetView topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="B409" sqref="B409:B419"/>
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="B419" sqref="B419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24180,10 +24177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F406"/>
+  <dimension ref="A1:F404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F406" sqref="F406"/>
+    <sheetView topLeftCell="A187" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F289" sqref="F289:F404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31462,11 +31459,6 @@
         <v>ElementPredefinit.create(nom_element: "piscina_purificador", sistema_element: "especials", descripcio_ca: "Disposa d'instal·lació de purificació d'aigües", descripcio_es: "Dispone de instalación de purificación de aguas")</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F406" t="s">
-        <v>1979</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lib/documents_treball/operacions_manteniment_v2.xlsx
+++ b/lib/documents_treball/operacions_manteniment_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Operacions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4989" uniqueCount="1979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4989" uniqueCount="1980">
   <si>
     <t>sistema</t>
   </si>
@@ -2520,9 +2520,6 @@
     <t>escala_llosa_armada</t>
   </si>
   <si>
-    <t>escala_formigo_armat</t>
-  </si>
-  <si>
     <t>sobrecarregues_habitatges</t>
   </si>
   <si>
@@ -5962,6 +5959,12 @@
   </si>
   <si>
     <t>Piscina con estructura de acero</t>
+  </si>
+  <si>
+    <t>comptadors_centralitzats</t>
+  </si>
+  <si>
+    <t>escala_biguetes_formigo_armat</t>
   </si>
 </sst>
 </file>
@@ -6372,7 +6375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+    <sheetView topLeftCell="A392" workbookViewId="0">
       <selection activeCell="B419" sqref="B419"/>
     </sheetView>
   </sheetViews>
@@ -9341,10 +9344,10 @@
         <v>70</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E71" s="3">
         <v>10</v>
@@ -9382,10 +9385,10 @@
         <v>71</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E72" s="3">
         <v>10</v>
@@ -9423,10 +9426,10 @@
         <v>72</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E73" s="3">
         <v>1</v>
@@ -9464,10 +9467,10 @@
         <v>73</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
@@ -9505,10 +9508,10 @@
         <v>74</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="E75" s="12">
         <v>10</v>
@@ -9546,10 +9549,10 @@
         <v>75</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E76" s="12">
         <v>10</v>
@@ -9587,10 +9590,10 @@
         <v>76</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E77" s="12">
         <v>15</v>
@@ -9628,10 +9631,10 @@
         <v>77</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E78" s="12">
         <v>15</v>
@@ -9669,10 +9672,10 @@
         <v>78</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E79" s="12">
         <v>15</v>
@@ -9710,10 +9713,10 @@
         <v>79</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="E80" s="12">
         <v>15</v>
@@ -9751,10 +9754,10 @@
         <v>80</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E81" s="12">
         <v>15</v>
@@ -9792,10 +9795,10 @@
         <v>81</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E82" s="12">
         <v>10</v>
@@ -9833,10 +9836,10 @@
         <v>82</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E83" s="12">
         <v>10</v>
@@ -9874,10 +9877,10 @@
         <v>83</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E84" s="12">
         <v>10</v>
@@ -9915,10 +9918,10 @@
         <v>84</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E85" s="12">
         <v>1</v>
@@ -9956,10 +9959,10 @@
         <v>85</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E86" s="12">
         <v>20</v>
@@ -9997,10 +10000,10 @@
         <v>86</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E87" s="12">
         <v>10</v>
@@ -10038,10 +10041,10 @@
         <v>87</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E88" s="3">
         <v>2</v>
@@ -10079,10 +10082,10 @@
         <v>88</v>
       </c>
       <c r="C89" s="9" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>1601</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>1602</v>
       </c>
       <c r="E89" s="3">
         <v>5</v>
@@ -10120,10 +10123,10 @@
         <v>89</v>
       </c>
       <c r="C90" s="9" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>1603</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>1604</v>
       </c>
       <c r="E90" s="3">
         <v>5</v>
@@ -10161,10 +10164,10 @@
         <v>90</v>
       </c>
       <c r="C91" s="9" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>1609</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>1610</v>
       </c>
       <c r="E91" s="3">
         <v>2</v>
@@ -10202,10 +10205,10 @@
         <v>91</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E92" s="3">
         <v>5</v>
@@ -10243,10 +10246,10 @@
         <v>92</v>
       </c>
       <c r="C93" s="9" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>1605</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>1606</v>
       </c>
       <c r="E93" s="3">
         <v>3</v>
@@ -10277,17 +10280,17 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B94" s="2">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="C94" s="11" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>1611</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>1612</v>
       </c>
       <c r="E94" s="3">
         <v>10</v>
@@ -10318,17 +10321,17 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B95" s="2">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="C95" s="11" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>1613</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>1614</v>
       </c>
       <c r="E95" s="3">
         <v>10</v>
@@ -10359,17 +10362,17 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B96" s="2">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="C96" s="9" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>1615</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>1616</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>219</v>
@@ -10400,17 +10403,17 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B97" s="2">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="C97" s="9" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>1617</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>1618</v>
       </c>
       <c r="E97" s="3">
         <v>5</v>
@@ -10441,17 +10444,17 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B98" s="2">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="C98" s="9" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>1619</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>1620</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>100</v>
@@ -10482,17 +10485,17 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B99" s="2">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="C99" s="9" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>1621</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>1622</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>100</v>
@@ -10523,17 +10526,17 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B100" s="2">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="C100" s="9" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>1623</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>1624</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>100</v>
@@ -10564,17 +10567,17 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B101" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="C101" s="9" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>1625</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>1626</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>219</v>
@@ -10605,17 +10608,17 @@
     </row>
     <row r="102" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B102" s="2">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="C102" s="9" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>1627</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>1628</v>
       </c>
       <c r="E102" s="3">
         <v>5</v>
@@ -10646,17 +10649,17 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B103" s="2">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="C103" s="9" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>1629</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>1630</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>100</v>
@@ -10687,17 +10690,17 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B104" s="2">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="C104" s="9" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>1631</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>1632</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>100</v>
@@ -10728,17 +10731,17 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B105" s="2">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>100</v>
@@ -10769,17 +10772,17 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B106" s="2">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>100</v>
@@ -10810,17 +10813,17 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B107" s="2">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="C107" s="9" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>1637</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>1638</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>100</v>
@@ -10851,17 +10854,17 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B108" s="2">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="C108" s="9" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>1639</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>1640</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>100</v>
@@ -10892,17 +10895,17 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B109" s="2">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="C109" s="9" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>1641</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>1642</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>100</v>
@@ -10933,17 +10936,17 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B110" s="2">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="C110" s="9" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>1643</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>1644</v>
       </c>
       <c r="E110" s="3">
         <v>10</v>
@@ -10974,17 +10977,17 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B111" s="2">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="C111" s="9" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>1645</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>1646</v>
       </c>
       <c r="E111" s="3">
         <v>10</v>
@@ -11015,17 +11018,17 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B112" s="2">
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="C112" s="9" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>1647</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>1648</v>
       </c>
       <c r="E112" s="3">
         <v>10</v>
@@ -11056,17 +11059,17 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B113" s="2">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="C113" s="9" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>1649</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>1650</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>100</v>
@@ -11097,17 +11100,17 @@
     </row>
     <row r="114" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B114" s="2">
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="C114" s="9" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>1651</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>1652</v>
       </c>
       <c r="E114" s="3">
         <v>5</v>
@@ -11120,10 +11123,10 @@
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J114" s="2" t="s">
         <v>1653</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>1654</v>
       </c>
       <c r="K114" s="2" t="b">
         <v>1</v>
@@ -11138,17 +11141,17 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B115" s="2">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>219</v>
@@ -11179,17 +11182,17 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B116" s="2">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E116" s="12">
         <v>10</v>
@@ -11220,17 +11223,17 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B117" s="2">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E117" s="12">
         <v>10</v>
@@ -11261,17 +11264,17 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B118" s="2">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E118" s="12">
         <v>10</v>
@@ -11302,17 +11305,17 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B119" s="2">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>100</v>
@@ -11343,17 +11346,17 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B120" s="2">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>100</v>
@@ -11384,17 +11387,17 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B121" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>100</v>
@@ -11425,17 +11428,17 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B122" s="2">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>100</v>
@@ -11466,17 +11469,17 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B123" s="2">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E123" s="12">
         <v>5</v>
@@ -11507,17 +11510,17 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B124" s="2">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>219</v>
@@ -24179,8 +24182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F404"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F289" sqref="F289:F404"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24303,10 +24306,10 @@
         <v>727</v>
       </c>
       <c r="C7" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D7" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -24321,10 +24324,10 @@
         <v>728</v>
       </c>
       <c r="C8" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D8" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -24339,10 +24342,10 @@
         <v>729</v>
       </c>
       <c r="C9" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D9" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -24357,10 +24360,10 @@
         <v>730</v>
       </c>
       <c r="C10" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D10" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -24375,10 +24378,10 @@
         <v>731</v>
       </c>
       <c r="C11" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D11" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -24447,10 +24450,10 @@
         <v>735</v>
       </c>
       <c r="C15" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D15" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -24465,10 +24468,10 @@
         <v>736</v>
       </c>
       <c r="C16" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D16" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -24522,7 +24525,7 @@
         <v>760</v>
       </c>
       <c r="D19" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -24540,7 +24543,7 @@
         <v>762</v>
       </c>
       <c r="D20" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -24558,7 +24561,7 @@
         <v>764</v>
       </c>
       <c r="D21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -24576,7 +24579,7 @@
         <v>766</v>
       </c>
       <c r="D22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -24594,7 +24597,7 @@
         <v>768</v>
       </c>
       <c r="D23" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -24612,7 +24615,7 @@
         <v>770</v>
       </c>
       <c r="D24" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -24630,7 +24633,7 @@
         <v>772</v>
       </c>
       <c r="D25" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -24648,7 +24651,7 @@
         <v>774</v>
       </c>
       <c r="D26" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -24666,7 +24669,7 @@
         <v>776</v>
       </c>
       <c r="D27" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -24684,7 +24687,7 @@
         <v>778</v>
       </c>
       <c r="D28" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -24702,7 +24705,7 @@
         <v>780</v>
       </c>
       <c r="D29" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -24720,7 +24723,7 @@
         <v>782</v>
       </c>
       <c r="D30" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -24738,7 +24741,7 @@
         <v>784</v>
       </c>
       <c r="D31" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -24753,10 +24756,10 @@
         <v>785</v>
       </c>
       <c r="C32" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D32" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -24771,10 +24774,10 @@
         <v>786</v>
       </c>
       <c r="C33" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D33" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -24789,10 +24792,10 @@
         <v>787</v>
       </c>
       <c r="C34" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D34" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -24807,10 +24810,10 @@
         <v>788</v>
       </c>
       <c r="C35" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D35" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -24825,10 +24828,10 @@
         <v>789</v>
       </c>
       <c r="C36" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D36" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -24846,7 +24849,7 @@
         <v>791</v>
       </c>
       <c r="D37" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -24864,7 +24867,7 @@
         <v>793</v>
       </c>
       <c r="D38" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -24882,7 +24885,7 @@
         <v>795</v>
       </c>
       <c r="D39" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -24900,7 +24903,7 @@
         <v>797</v>
       </c>
       <c r="D40" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
@@ -24918,7 +24921,7 @@
         <v>799</v>
       </c>
       <c r="D41" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -24936,7 +24939,7 @@
         <v>801</v>
       </c>
       <c r="D42" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -24954,7 +24957,7 @@
         <v>803</v>
       </c>
       <c r="D43" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -24972,7 +24975,7 @@
         <v>805</v>
       </c>
       <c r="D44" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -24990,7 +24993,7 @@
         <v>807</v>
       </c>
       <c r="D45" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -25008,7 +25011,7 @@
         <v>809</v>
       </c>
       <c r="D46" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -25026,7 +25029,7 @@
         <v>811</v>
       </c>
       <c r="D47" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -25062,7 +25065,7 @@
         <v>815</v>
       </c>
       <c r="D49" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -25077,10 +25080,10 @@
         <v>816</v>
       </c>
       <c r="C50" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D50" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -25095,10 +25098,10 @@
         <v>817</v>
       </c>
       <c r="C51" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D51" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -25113,10 +25116,10 @@
         <v>818</v>
       </c>
       <c r="C52" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D52" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -25131,10 +25134,10 @@
         <v>819</v>
       </c>
       <c r="C53" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D53" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -25149,10 +25152,10 @@
         <v>820</v>
       </c>
       <c r="C54" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D54" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
@@ -25170,7 +25173,7 @@
         <v>822</v>
       </c>
       <c r="D55" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -25188,7 +25191,7 @@
         <v>824</v>
       </c>
       <c r="D56" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -25206,7 +25209,7 @@
         <v>826</v>
       </c>
       <c r="D57" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
@@ -25221,10 +25224,10 @@
         <v>827</v>
       </c>
       <c r="C58" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D58" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
@@ -25239,10 +25242,10 @@
         <v>828</v>
       </c>
       <c r="C59" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D59" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
@@ -25257,10 +25260,10 @@
         <v>829</v>
       </c>
       <c r="C60" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D60" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
@@ -25275,10 +25278,10 @@
         <v>830</v>
       </c>
       <c r="C61" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D61" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
@@ -25290,17 +25293,17 @@
         <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>831</v>
+        <v>1979</v>
       </c>
       <c r="C62" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D62" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>ElementPredefinit.create(nom_element: "escala_formigo_armat", sistema_element: "estructura", descripcio_ca: "Estructura d'escala de biguetes de formigó armat", descripcio_es: "Estructura de escalera de viguetas de hormigón armado")</v>
+        <v>ElementPredefinit.create(nom_element: "escala_biguetes_formigo_armat", sistema_element: "estructura", descripcio_ca: "Estructura d'escala de biguetes de formigó armat", descripcio_es: "Estructura de escalera de viguetas de hormigón armado")</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -25308,13 +25311,13 @@
         <v>32</v>
       </c>
       <c r="B63" t="s">
+        <v>831</v>
+      </c>
+      <c r="C63" t="s">
         <v>832</v>
       </c>
-      <c r="C63" t="s">
-        <v>833</v>
-      </c>
       <c r="D63" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
@@ -25326,13 +25329,13 @@
         <v>32</v>
       </c>
       <c r="B64" t="s">
+        <v>833</v>
+      </c>
+      <c r="C64" t="s">
         <v>834</v>
       </c>
-      <c r="C64" t="s">
-        <v>835</v>
-      </c>
       <c r="D64" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
@@ -25344,13 +25347,13 @@
         <v>32</v>
       </c>
       <c r="B65" t="s">
+        <v>835</v>
+      </c>
+      <c r="C65" t="s">
         <v>836</v>
       </c>
-      <c r="C65" t="s">
-        <v>837</v>
-      </c>
       <c r="D65" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
@@ -25362,13 +25365,13 @@
         <v>32</v>
       </c>
       <c r="B66" t="s">
+        <v>837</v>
+      </c>
+      <c r="C66" t="s">
         <v>838</v>
       </c>
-      <c r="C66" t="s">
-        <v>839</v>
-      </c>
       <c r="D66" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -25380,13 +25383,13 @@
         <v>32</v>
       </c>
       <c r="B67" t="s">
+        <v>839</v>
+      </c>
+      <c r="C67" t="s">
         <v>840</v>
       </c>
-      <c r="C67" t="s">
-        <v>841</v>
-      </c>
       <c r="D67" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F130" si="1">"ElementPredefinit.create(nom_element: """&amp;B67&amp;""", sistema_element: """&amp;A67&amp;""", descripcio_ca: """&amp;C67&amp;""", descripcio_es: """&amp;D67&amp;""")"</f>
@@ -25398,13 +25401,13 @@
         <v>32</v>
       </c>
       <c r="B68" t="s">
+        <v>841</v>
+      </c>
+      <c r="C68" t="s">
         <v>842</v>
       </c>
-      <c r="C68" t="s">
-        <v>843</v>
-      </c>
       <c r="D68" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
@@ -25416,13 +25419,13 @@
         <v>32</v>
       </c>
       <c r="B69" t="s">
+        <v>843</v>
+      </c>
+      <c r="C69" t="s">
         <v>844</v>
       </c>
-      <c r="C69" t="s">
-        <v>845</v>
-      </c>
       <c r="D69" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
@@ -25434,13 +25437,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C70" t="s">
         <v>760</v>
       </c>
       <c r="D70" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
@@ -25452,13 +25455,13 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C71" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D71" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
@@ -25470,13 +25473,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C72" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D72" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
@@ -25488,13 +25491,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C73" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D73" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
@@ -25506,13 +25509,13 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C74" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D74" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
@@ -25524,13 +25527,13 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
+        <v>885</v>
+      </c>
+      <c r="C75" t="s">
+        <v>975</v>
+      </c>
+      <c r="D75" t="s">
         <v>886</v>
-      </c>
-      <c r="C75" t="s">
-        <v>976</v>
-      </c>
-      <c r="D75" t="s">
-        <v>887</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
@@ -25542,13 +25545,13 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
+        <v>887</v>
+      </c>
+      <c r="C76" t="s">
+        <v>976</v>
+      </c>
+      <c r="D76" t="s">
         <v>888</v>
-      </c>
-      <c r="C76" t="s">
-        <v>977</v>
-      </c>
-      <c r="D76" t="s">
-        <v>889</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
@@ -25560,13 +25563,13 @@
         <v>71</v>
       </c>
       <c r="B77" t="s">
+        <v>889</v>
+      </c>
+      <c r="C77" t="s">
+        <v>977</v>
+      </c>
+      <c r="D77" t="s">
         <v>890</v>
-      </c>
-      <c r="C77" t="s">
-        <v>978</v>
-      </c>
-      <c r="D77" t="s">
-        <v>891</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
@@ -25578,13 +25581,13 @@
         <v>71</v>
       </c>
       <c r="B78" t="s">
+        <v>891</v>
+      </c>
+      <c r="C78" t="s">
+        <v>978</v>
+      </c>
+      <c r="D78" t="s">
         <v>892</v>
-      </c>
-      <c r="C78" t="s">
-        <v>979</v>
-      </c>
-      <c r="D78" t="s">
-        <v>893</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
@@ -25596,13 +25599,13 @@
         <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C79" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D79" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
@@ -25614,13 +25617,13 @@
         <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C80" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D80" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
@@ -25632,13 +25635,13 @@
         <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C81" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D81" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="1"/>
@@ -25650,13 +25653,13 @@
         <v>71</v>
       </c>
       <c r="B82" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C82" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D82" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="1"/>
@@ -25668,13 +25671,13 @@
         <v>71</v>
       </c>
       <c r="B83" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C83" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D83" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="1"/>
@@ -25686,13 +25689,13 @@
         <v>71</v>
       </c>
       <c r="B84" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C84" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D84" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
@@ -25704,13 +25707,13 @@
         <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C85" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D85" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="1"/>
@@ -25722,13 +25725,13 @@
         <v>71</v>
       </c>
       <c r="B86" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C86" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D86" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
@@ -25740,13 +25743,13 @@
         <v>71</v>
       </c>
       <c r="B87" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C87" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D87" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
@@ -25758,13 +25761,13 @@
         <v>71</v>
       </c>
       <c r="B88" t="s">
+        <v>902</v>
+      </c>
+      <c r="C88" t="s">
+        <v>979</v>
+      </c>
+      <c r="D88" t="s">
         <v>903</v>
-      </c>
-      <c r="C88" t="s">
-        <v>980</v>
-      </c>
-      <c r="D88" t="s">
-        <v>904</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
@@ -25776,13 +25779,13 @@
         <v>71</v>
       </c>
       <c r="B89" t="s">
+        <v>904</v>
+      </c>
+      <c r="C89" t="s">
+        <v>980</v>
+      </c>
+      <c r="D89" t="s">
         <v>905</v>
-      </c>
-      <c r="C89" t="s">
-        <v>981</v>
-      </c>
-      <c r="D89" t="s">
-        <v>906</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
@@ -25794,13 +25797,13 @@
         <v>71</v>
       </c>
       <c r="B90" t="s">
+        <v>906</v>
+      </c>
+      <c r="C90" t="s">
+        <v>981</v>
+      </c>
+      <c r="D90" t="s">
         <v>907</v>
-      </c>
-      <c r="C90" t="s">
-        <v>982</v>
-      </c>
-      <c r="D90" t="s">
-        <v>908</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
@@ -25812,13 +25815,13 @@
         <v>71</v>
       </c>
       <c r="B91" t="s">
+        <v>908</v>
+      </c>
+      <c r="C91" t="s">
+        <v>982</v>
+      </c>
+      <c r="D91" t="s">
         <v>909</v>
-      </c>
-      <c r="C91" t="s">
-        <v>983</v>
-      </c>
-      <c r="D91" t="s">
-        <v>910</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="1"/>
@@ -25830,13 +25833,13 @@
         <v>71</v>
       </c>
       <c r="B92" t="s">
+        <v>910</v>
+      </c>
+      <c r="C92" t="s">
+        <v>983</v>
+      </c>
+      <c r="D92" t="s">
         <v>911</v>
-      </c>
-      <c r="C92" t="s">
-        <v>984</v>
-      </c>
-      <c r="D92" t="s">
-        <v>912</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="1"/>
@@ -25848,13 +25851,13 @@
         <v>71</v>
       </c>
       <c r="B93" t="s">
+        <v>912</v>
+      </c>
+      <c r="C93" t="s">
+        <v>984</v>
+      </c>
+      <c r="D93" t="s">
         <v>913</v>
-      </c>
-      <c r="C93" t="s">
-        <v>985</v>
-      </c>
-      <c r="D93" t="s">
-        <v>914</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="1"/>
@@ -25866,13 +25869,13 @@
         <v>71</v>
       </c>
       <c r="B94" t="s">
+        <v>914</v>
+      </c>
+      <c r="C94" t="s">
+        <v>985</v>
+      </c>
+      <c r="D94" t="s">
         <v>915</v>
-      </c>
-      <c r="C94" t="s">
-        <v>986</v>
-      </c>
-      <c r="D94" t="s">
-        <v>916</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="1"/>
@@ -25884,13 +25887,13 @@
         <v>71</v>
       </c>
       <c r="B95" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C95" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D95" t="s">
         <v>1251</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1252</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="1"/>
@@ -25902,13 +25905,13 @@
         <v>71</v>
       </c>
       <c r="B96" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C96" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D96" t="s">
         <v>1253</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1254</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="1"/>
@@ -25920,13 +25923,13 @@
         <v>71</v>
       </c>
       <c r="B97" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C97" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D97" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="1"/>
@@ -25938,13 +25941,13 @@
         <v>71</v>
       </c>
       <c r="B98" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C98" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D98" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="1"/>
@@ -25956,13 +25959,13 @@
         <v>71</v>
       </c>
       <c r="B99" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C99" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D99" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="1"/>
@@ -25974,13 +25977,13 @@
         <v>71</v>
       </c>
       <c r="B100" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C100" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D100" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="1"/>
@@ -25992,13 +25995,13 @@
         <v>71</v>
       </c>
       <c r="B101" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C101" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D101" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="1"/>
@@ -26010,13 +26013,13 @@
         <v>71</v>
       </c>
       <c r="B102" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C102" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D102" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="1"/>
@@ -26028,13 +26031,13 @@
         <v>71</v>
       </c>
       <c r="B103" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C103" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D103" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="1"/>
@@ -26046,13 +26049,13 @@
         <v>71</v>
       </c>
       <c r="B104" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C104" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D104" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="1"/>
@@ -26064,13 +26067,13 @@
         <v>71</v>
       </c>
       <c r="B105" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C105" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D105" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="1"/>
@@ -26082,13 +26085,13 @@
         <v>71</v>
       </c>
       <c r="B106" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C106" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D106" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="1"/>
@@ -26100,13 +26103,13 @@
         <v>71</v>
       </c>
       <c r="B107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C107" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D107" t="s">
         <v>1277</v>
-      </c>
-      <c r="D107" t="s">
-        <v>1278</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="1"/>
@@ -26118,13 +26121,13 @@
         <v>71</v>
       </c>
       <c r="B108" t="s">
+        <v>929</v>
+      </c>
+      <c r="C108" t="s">
+        <v>986</v>
+      </c>
+      <c r="D108" t="s">
         <v>930</v>
-      </c>
-      <c r="C108" t="s">
-        <v>987</v>
-      </c>
-      <c r="D108" t="s">
-        <v>931</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="1"/>
@@ -26136,13 +26139,13 @@
         <v>71</v>
       </c>
       <c r="B109" t="s">
+        <v>931</v>
+      </c>
+      <c r="C109" t="s">
+        <v>987</v>
+      </c>
+      <c r="D109" t="s">
         <v>932</v>
-      </c>
-      <c r="C109" t="s">
-        <v>988</v>
-      </c>
-      <c r="D109" t="s">
-        <v>933</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="1"/>
@@ -26154,13 +26157,13 @@
         <v>71</v>
       </c>
       <c r="B110" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C110" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D110" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="1"/>
@@ -26172,13 +26175,13 @@
         <v>71</v>
       </c>
       <c r="B111" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C111" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D111" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="1"/>
@@ -26190,13 +26193,13 @@
         <v>71</v>
       </c>
       <c r="B112" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C112" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D112" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="1"/>
@@ -26208,13 +26211,13 @@
         <v>71</v>
       </c>
       <c r="B113" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C113" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D113" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="1"/>
@@ -26226,13 +26229,13 @@
         <v>71</v>
       </c>
       <c r="B114" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C114" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D114" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="1"/>
@@ -26244,13 +26247,13 @@
         <v>71</v>
       </c>
       <c r="B115" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C115" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D115" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="1"/>
@@ -26262,13 +26265,13 @@
         <v>71</v>
       </c>
       <c r="B116" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C116" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D116" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="1"/>
@@ -26280,13 +26283,13 @@
         <v>71</v>
       </c>
       <c r="B117" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C117" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D117" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="1"/>
@@ -26298,13 +26301,13 @@
         <v>71</v>
       </c>
       <c r="B118" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C118" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D118" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="1"/>
@@ -26316,13 +26319,13 @@
         <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C119" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D119" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="1"/>
@@ -26334,13 +26337,13 @@
         <v>71</v>
       </c>
       <c r="B120" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C120" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D120" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="1"/>
@@ -26352,13 +26355,13 @@
         <v>71</v>
       </c>
       <c r="B121" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C121" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D121" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="1"/>
@@ -26370,13 +26373,13 @@
         <v>71</v>
       </c>
       <c r="B122" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C122" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D122" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="1"/>
@@ -26388,13 +26391,13 @@
         <v>71</v>
       </c>
       <c r="B123" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C123" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D123" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="1"/>
@@ -26406,13 +26409,13 @@
         <v>71</v>
       </c>
       <c r="B124" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C124" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D124" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="1"/>
@@ -26424,13 +26427,13 @@
         <v>71</v>
       </c>
       <c r="B125" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C125" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D125" t="s">
         <v>1309</v>
-      </c>
-      <c r="D125" t="s">
-        <v>1310</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="1"/>
@@ -26442,13 +26445,13 @@
         <v>71</v>
       </c>
       <c r="B126" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C126" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D126" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="1"/>
@@ -26460,13 +26463,13 @@
         <v>71</v>
       </c>
       <c r="B127" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C127" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D127" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="1"/>
@@ -26478,13 +26481,13 @@
         <v>71</v>
       </c>
       <c r="B128" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C128" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D128" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="1"/>
@@ -26496,13 +26499,13 @@
         <v>71</v>
       </c>
       <c r="B129" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C129" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D129" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="1"/>
@@ -26514,13 +26517,13 @@
         <v>71</v>
       </c>
       <c r="B130" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C130" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D130" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="1"/>
@@ -26532,13 +26535,13 @@
         <v>71</v>
       </c>
       <c r="B131" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C131" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D131" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" ref="F131:F194" si="2">"ElementPredefinit.create(nom_element: """&amp;B131&amp;""", sistema_element: """&amp;A131&amp;""", descripcio_ca: """&amp;C131&amp;""", descripcio_es: """&amp;D131&amp;""")"</f>
@@ -26550,13 +26553,13 @@
         <v>71</v>
       </c>
       <c r="B132" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C132" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D132" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="2"/>
@@ -26568,13 +26571,13 @@
         <v>71</v>
       </c>
       <c r="B133" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C133" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D133" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="2"/>
@@ -26586,13 +26589,13 @@
         <v>71</v>
       </c>
       <c r="B134" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C134" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D134" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="2"/>
@@ -26604,13 +26607,13 @@
         <v>71</v>
       </c>
       <c r="B135" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C135" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D135" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="2"/>
@@ -26622,13 +26625,13 @@
         <v>71</v>
       </c>
       <c r="B136" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C136" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D136" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="2"/>
@@ -26640,13 +26643,13 @@
         <v>71</v>
       </c>
       <c r="B137" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C137" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D137" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="2"/>
@@ -26658,13 +26661,13 @@
         <v>71</v>
       </c>
       <c r="B138" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C138" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D138" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="2"/>
@@ -26676,13 +26679,13 @@
         <v>71</v>
       </c>
       <c r="B139" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C139" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D139" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="2"/>
@@ -26694,13 +26697,13 @@
         <v>71</v>
       </c>
       <c r="B140" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C140" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D140" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="2"/>
@@ -26712,13 +26715,13 @@
         <v>71</v>
       </c>
       <c r="B141" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C141" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D141" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="2"/>
@@ -26730,13 +26733,13 @@
         <v>71</v>
       </c>
       <c r="B142" t="s">
+        <v>965</v>
+      </c>
+      <c r="C142" t="s">
+        <v>988</v>
+      </c>
+      <c r="D142" t="s">
         <v>966</v>
-      </c>
-      <c r="C142" t="s">
-        <v>989</v>
-      </c>
-      <c r="D142" t="s">
-        <v>967</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="2"/>
@@ -26748,13 +26751,13 @@
         <v>71</v>
       </c>
       <c r="B143" t="s">
+        <v>967</v>
+      </c>
+      <c r="C143" t="s">
+        <v>989</v>
+      </c>
+      <c r="D143" t="s">
         <v>968</v>
-      </c>
-      <c r="C143" t="s">
-        <v>990</v>
-      </c>
-      <c r="D143" t="s">
-        <v>969</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="2"/>
@@ -26766,13 +26769,13 @@
         <v>71</v>
       </c>
       <c r="B144" t="s">
+        <v>969</v>
+      </c>
+      <c r="C144" t="s">
+        <v>990</v>
+      </c>
+      <c r="D144" t="s">
         <v>970</v>
-      </c>
-      <c r="C144" t="s">
-        <v>991</v>
-      </c>
-      <c r="D144" t="s">
-        <v>971</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="2"/>
@@ -26784,13 +26787,13 @@
         <v>71</v>
       </c>
       <c r="B145" t="s">
+        <v>971</v>
+      </c>
+      <c r="C145" t="s">
+        <v>991</v>
+      </c>
+      <c r="D145" t="s">
         <v>972</v>
-      </c>
-      <c r="C145" t="s">
-        <v>992</v>
-      </c>
-      <c r="D145" t="s">
-        <v>973</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="2"/>
@@ -26802,13 +26805,13 @@
         <v>71</v>
       </c>
       <c r="B146" t="s">
+        <v>973</v>
+      </c>
+      <c r="C146" t="s">
+        <v>992</v>
+      </c>
+      <c r="D146" t="s">
         <v>974</v>
-      </c>
-      <c r="C146" t="s">
-        <v>993</v>
-      </c>
-      <c r="D146" t="s">
-        <v>975</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="2"/>
@@ -26817,16 +26820,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B147" t="s">
+        <v>993</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D147" t="s">
         <v>994</v>
-      </c>
-      <c r="C147" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D147" t="s">
-        <v>995</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="2"/>
@@ -26835,16 +26838,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B148" t="s">
+        <v>995</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D148" t="s">
         <v>996</v>
-      </c>
-      <c r="C148" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D148" t="s">
-        <v>997</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="2"/>
@@ -26853,16 +26856,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B149" t="s">
+        <v>997</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D149" t="s">
         <v>998</v>
-      </c>
-      <c r="C149" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D149" t="s">
-        <v>999</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="2"/>
@@ -26871,16 +26874,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B150" t="s">
+        <v>999</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D150" t="s">
         <v>1000</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D150" t="s">
-        <v>1001</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="2"/>
@@ -26889,16 +26892,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C151" t="s">
         <v>1079</v>
       </c>
-      <c r="B151" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C151" t="s">
-        <v>1080</v>
-      </c>
       <c r="D151" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="2"/>
@@ -26907,16 +26910,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B152" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C152" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D152" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="2"/>
@@ -26925,16 +26928,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B153" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C153" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D153" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="2"/>
@@ -26943,16 +26946,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B154" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C154" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D154" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="2"/>
@@ -26961,16 +26964,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B155" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C155" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D155" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="2"/>
@@ -26979,16 +26982,16 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B156" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C156" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D156" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="2"/>
@@ -26997,16 +27000,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B157" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C157" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D157" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="2"/>
@@ -27015,16 +27018,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B158" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C158" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D158" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="2"/>
@@ -27033,16 +27036,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B159" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C159" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D159" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="2"/>
@@ -27051,16 +27054,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B160" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C160" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D160" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="2"/>
@@ -27069,16 +27072,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B161" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C161" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D161" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="2"/>
@@ -27087,16 +27090,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B162" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C162" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D162" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="2"/>
@@ -27105,16 +27108,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B163" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C163" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D163" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="2"/>
@@ -27123,16 +27126,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B164" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C164" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D164" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="2"/>
@@ -27141,16 +27144,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B165" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C165" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D165" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="2"/>
@@ -27159,16 +27162,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B166" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C166" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D166" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="2"/>
@@ -27177,16 +27180,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B167" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C167" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D167" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="2"/>
@@ -27195,16 +27198,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B168" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C168" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D168" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="2"/>
@@ -27213,16 +27216,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B169" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C169" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D169" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F169" t="str">
         <f t="shared" si="2"/>
@@ -27231,16 +27234,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B170" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C170" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D170" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="2"/>
@@ -27249,16 +27252,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B171" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C171" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D171" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="2"/>
@@ -27267,16 +27270,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B172" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C172" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D172" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="2"/>
@@ -27285,16 +27288,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B173" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C173" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D173" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F173" t="str">
         <f t="shared" si="2"/>
@@ -27303,16 +27306,16 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B174" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C174" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D174" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="2"/>
@@ -27321,16 +27324,16 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B175" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C175" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D175" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="2"/>
@@ -27339,16 +27342,16 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B176" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C176" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D176" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F176" t="str">
         <f t="shared" si="2"/>
@@ -27357,16 +27360,16 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B177" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D177" t="s">
         <v>1028</v>
-      </c>
-      <c r="C177" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D177" t="s">
-        <v>1029</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="2"/>
@@ -27375,16 +27378,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B178" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C178" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D178" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="2"/>
@@ -27393,16 +27396,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B179" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C179" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D179" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F179" t="str">
         <f t="shared" si="2"/>
@@ -27411,16 +27414,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B180" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C180" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D180" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F180" t="str">
         <f t="shared" si="2"/>
@@ -27429,16 +27432,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B181" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C181" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D181" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F181" t="str">
         <f t="shared" si="2"/>
@@ -27447,16 +27450,16 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B182" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C182" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D182" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="2"/>
@@ -27465,16 +27468,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B183" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C183" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D183" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="2"/>
@@ -27483,16 +27486,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B184" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C184" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D184" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="2"/>
@@ -27501,16 +27504,16 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B185" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C185" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D185" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="2"/>
@@ -27519,16 +27522,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B186" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C186" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D186" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="2"/>
@@ -27537,16 +27540,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B187" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C187" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D187" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="2"/>
@@ -27555,16 +27558,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B188" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C188" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D188" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="2"/>
@@ -27573,16 +27576,16 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B189" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C189" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D189" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="2"/>
@@ -27591,16 +27594,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B190" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C190" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D190" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F190" t="str">
         <f t="shared" si="2"/>
@@ -27609,16 +27612,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B191" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C191" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D191" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="2"/>
@@ -27627,16 +27630,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B192" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C192" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D192" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="2"/>
@@ -27645,16 +27648,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B193" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C193" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D193" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="2"/>
@@ -27663,16 +27666,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B194" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C194" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D194" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F194" t="str">
         <f t="shared" si="2"/>
@@ -27681,16 +27684,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B195" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C195" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D195" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F195" t="str">
         <f t="shared" ref="F195:F289" si="3">"ElementPredefinit.create(nom_element: """&amp;B195&amp;""", sistema_element: """&amp;A195&amp;""", descripcio_ca: """&amp;C195&amp;""", descripcio_es: """&amp;D195&amp;""")"</f>
@@ -27699,16 +27702,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B196" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D196" t="s">
         <v>1048</v>
-      </c>
-      <c r="C196" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D196" t="s">
-        <v>1049</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" si="3"/>
@@ -27717,16 +27720,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B197" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D197" t="s">
         <v>1050</v>
-      </c>
-      <c r="C197" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1051</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" si="3"/>
@@ -27735,16 +27738,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B198" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D198" t="s">
         <v>1052</v>
-      </c>
-      <c r="C198" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D198" t="s">
-        <v>1053</v>
       </c>
       <c r="F198" t="str">
         <f t="shared" si="3"/>
@@ -27753,16 +27756,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B199" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D199" t="s">
         <v>1054</v>
-      </c>
-      <c r="C199" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D199" t="s">
-        <v>1055</v>
       </c>
       <c r="F199" t="str">
         <f t="shared" si="3"/>
@@ -27771,16 +27774,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B200" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D200" t="s">
         <v>1056</v>
-      </c>
-      <c r="C200" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D200" t="s">
-        <v>1057</v>
       </c>
       <c r="F200" t="str">
         <f t="shared" si="3"/>
@@ -27789,16 +27792,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B201" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D201" t="s">
         <v>1058</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D201" t="s">
-        <v>1059</v>
       </c>
       <c r="F201" t="str">
         <f t="shared" si="3"/>
@@ -27807,16 +27810,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B202" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D202" t="s">
         <v>1060</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D202" t="s">
-        <v>1061</v>
       </c>
       <c r="F202" t="str">
         <f t="shared" si="3"/>
@@ -27825,16 +27828,16 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B203" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D203" t="s">
         <v>1062</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D203" t="s">
-        <v>1063</v>
       </c>
       <c r="F203" t="str">
         <f t="shared" si="3"/>
@@ -27843,16 +27846,16 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B204" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D204" t="s">
         <v>1064</v>
-      </c>
-      <c r="C204" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D204" t="s">
-        <v>1065</v>
       </c>
       <c r="F204" t="str">
         <f t="shared" si="3"/>
@@ -27861,16 +27864,16 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B205" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D205" t="s">
         <v>1066</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D205" t="s">
-        <v>1067</v>
       </c>
       <c r="F205" t="str">
         <f t="shared" si="3"/>
@@ -27879,16 +27882,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B206" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D206" t="s">
         <v>1068</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D206" t="s">
-        <v>1069</v>
       </c>
       <c r="F206" t="str">
         <f t="shared" si="3"/>
@@ -27897,16 +27900,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B207" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D207" t="s">
         <v>1070</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D207" t="s">
-        <v>1071</v>
       </c>
       <c r="F207" t="str">
         <f t="shared" si="3"/>
@@ -27915,16 +27918,16 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B208" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D208" t="s">
         <v>1072</v>
-      </c>
-      <c r="C208" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D208" t="s">
-        <v>1073</v>
       </c>
       <c r="F208" t="str">
         <f t="shared" si="3"/>
@@ -27933,16 +27936,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B209" t="s">
         <v>1343</v>
       </c>
-      <c r="B209" t="s">
-        <v>1344</v>
-      </c>
       <c r="C209" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D209" t="s">
         <v>1255</v>
-      </c>
-      <c r="D209" t="s">
-        <v>1256</v>
       </c>
       <c r="F209" t="str">
         <f t="shared" si="3"/>
@@ -27951,16 +27954,16 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B210" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C210" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D210" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="F210" t="str">
         <f t="shared" si="3"/>
@@ -27969,16 +27972,16 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B211" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C211" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D211" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="F211" t="str">
         <f t="shared" si="3"/>
@@ -27987,16 +27990,16 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B212" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C212" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D212" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="F212" t="str">
         <f t="shared" si="3"/>
@@ -28005,16 +28008,16 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B213" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C213" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D213" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="F213" t="str">
         <f t="shared" si="3"/>
@@ -28023,16 +28026,16 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B214" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C214" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D214" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="3"/>
@@ -28041,16 +28044,16 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B215" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C215" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D215" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="F215" t="str">
         <f t="shared" si="3"/>
@@ -28059,16 +28062,16 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B216" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C216" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D216" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F216" t="str">
         <f t="shared" si="3"/>
@@ -28077,16 +28080,16 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B217" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C217" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D217" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F217" t="str">
         <f t="shared" si="3"/>
@@ -28095,16 +28098,16 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B218" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C218" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D218" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F218" t="str">
         <f t="shared" si="3"/>
@@ -28113,16 +28116,16 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B219" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C219" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D219" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="F219" t="str">
         <f t="shared" si="3"/>
@@ -28131,16 +28134,16 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B220" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C220" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D220" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F220" t="str">
         <f t="shared" si="3"/>
@@ -28149,16 +28152,16 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B221" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C221" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D221" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="F221" t="str">
         <f t="shared" si="3"/>
@@ -28167,16 +28170,16 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B222" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C222" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D222" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="F222" t="str">
         <f t="shared" si="3"/>
@@ -28185,16 +28188,16 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B223" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C223" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D223" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="F223" t="str">
         <f t="shared" si="3"/>
@@ -28203,16 +28206,16 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B224" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C224" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D224" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F224" t="str">
         <f t="shared" si="3"/>
@@ -28221,16 +28224,16 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B225" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C225" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D225" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="F225" t="str">
         <f t="shared" si="3"/>
@@ -28239,16 +28242,16 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B226" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C226" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D226" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="F226" t="str">
         <f t="shared" si="3"/>
@@ -28257,16 +28260,16 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B227" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C227" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D227" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="F227" t="str">
         <f t="shared" si="3"/>
@@ -28275,16 +28278,16 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B228" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C228" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D228" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="F228" t="str">
         <f t="shared" si="3"/>
@@ -28293,16 +28296,16 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B229" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C229" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D229" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="F229" t="str">
         <f t="shared" si="3"/>
@@ -28311,16 +28314,16 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B230" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C230" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D230" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="F230" t="str">
         <f t="shared" si="3"/>
@@ -28329,16 +28332,16 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B231" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C231" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D231" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="F231" t="str">
         <f t="shared" si="3"/>
@@ -28347,16 +28350,16 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B232" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C232" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D232" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="F232" t="str">
         <f t="shared" si="3"/>
@@ -28365,16 +28368,16 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B233" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C233" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D233" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F233" t="str">
         <f t="shared" si="3"/>
@@ -28383,16 +28386,16 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B234" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C234" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D234" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F234" t="str">
         <f t="shared" si="3"/>
@@ -28401,16 +28404,16 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B235" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C235" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D235" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F235" t="str">
         <f t="shared" si="3"/>
@@ -28419,16 +28422,16 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B236" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C236" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D236" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F236" t="str">
         <f t="shared" si="3"/>
@@ -28437,16 +28440,16 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B237" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C237" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D237" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F237" t="str">
         <f t="shared" si="3"/>
@@ -28455,16 +28458,16 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B238" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C238" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D238" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F238" t="str">
         <f t="shared" si="3"/>
@@ -28473,16 +28476,16 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B239" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C239" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D239" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F239" t="str">
         <f t="shared" si="3"/>
@@ -28491,16 +28494,16 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B240" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C240" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D240" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F240" t="str">
         <f t="shared" si="3"/>
@@ -28509,16 +28512,16 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B241" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C241" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D241" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F241" t="str">
         <f t="shared" si="3"/>
@@ -28527,16 +28530,16 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B242" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C242" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D242" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="F242" t="str">
         <f t="shared" si="3"/>
@@ -28545,16 +28548,16 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B243" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C243" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D243" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="3"/>
@@ -28563,16 +28566,16 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B244" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C244" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D244" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="F244" t="str">
         <f t="shared" si="3"/>
@@ -28581,16 +28584,16 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B245" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C245" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D245" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" si="3"/>
@@ -28599,16 +28602,16 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B246" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C246" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D246" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="3"/>
@@ -28617,16 +28620,16 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B247" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C247" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D247" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="3"/>
@@ -28635,16 +28638,16 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B248" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C248" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D248" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="3"/>
@@ -28653,16 +28656,16 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B249" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C249" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D249" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="3"/>
@@ -28671,16 +28674,16 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B250" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C250" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D250" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="3"/>
@@ -28689,16 +28692,16 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B251" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C251" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D251" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="3"/>
@@ -28707,16 +28710,16 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B252" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C252" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D252" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="3"/>
@@ -28725,16 +28728,16 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B253" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C253" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D253" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="3"/>
@@ -28743,16 +28746,16 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B254" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C254" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D254" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="3"/>
@@ -28761,16 +28764,16 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B255" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C255" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D255" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F255" t="str">
         <f t="shared" si="3"/>
@@ -28779,16 +28782,16 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B256" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C256" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D256" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F256" t="str">
         <f t="shared" si="3"/>
@@ -28797,16 +28800,16 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B257" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C257" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D257" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="F257" t="str">
         <f t="shared" si="3"/>
@@ -28815,16 +28818,16 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B258" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C258" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D258" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F258" t="str">
         <f t="shared" si="3"/>
@@ -28833,16 +28836,16 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B259" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C259" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D259" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F259" t="str">
         <f t="shared" si="3"/>
@@ -28851,16 +28854,16 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B260" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C260" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D260" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="F260" t="str">
         <f t="shared" si="3"/>
@@ -28869,16 +28872,16 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B261" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C261" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D261" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="F261" t="str">
         <f t="shared" si="3"/>
@@ -28887,16 +28890,16 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B262" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C262" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D262" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F262" t="str">
         <f t="shared" si="3"/>
@@ -28905,16 +28908,16 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B263" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C263" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D263" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F263" t="str">
         <f t="shared" si="3"/>
@@ -28923,16 +28926,16 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B264" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C264" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D264" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="F264" t="str">
         <f t="shared" si="3"/>
@@ -28941,16 +28944,16 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B265" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C265" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D265" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F265" t="str">
         <f t="shared" si="3"/>
@@ -28959,16 +28962,16 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B266" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C266" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D266" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F266" t="str">
         <f t="shared" si="3"/>
@@ -28977,16 +28980,16 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B267" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C267" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D267" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F267" t="str">
         <f t="shared" si="3"/>
@@ -28995,16 +28998,16 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B268" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C268" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D268" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F268" t="str">
         <f t="shared" si="3"/>
@@ -29013,16 +29016,16 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B269" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C269" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D269" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="F269" t="str">
         <f t="shared" si="3"/>
@@ -29031,16 +29034,16 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B270" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C270" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D270" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F270" t="str">
         <f t="shared" si="3"/>
@@ -29049,16 +29052,16 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B271" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C271" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D271" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F271" t="str">
         <f t="shared" si="3"/>
@@ -29067,16 +29070,16 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B272" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C272" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D272" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F272" t="str">
         <f t="shared" si="3"/>
@@ -29085,16 +29088,16 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B273" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C273" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D273" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F273" t="str">
         <f t="shared" si="3"/>
@@ -29103,16 +29106,16 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B274" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C274" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D274" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="F274" t="str">
         <f t="shared" si="3"/>
@@ -29121,16 +29124,16 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B275" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C275" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D275" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="F275" t="str">
         <f t="shared" si="3"/>
@@ -29139,16 +29142,16 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B276" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C276" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D276" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F276" t="str">
         <f t="shared" si="3"/>
@@ -29157,16 +29160,16 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B277" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C277" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D277" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F277" t="str">
         <f t="shared" si="3"/>
@@ -29175,16 +29178,16 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B278" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C278" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D278" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F278" t="str">
         <f t="shared" si="3"/>
@@ -29193,16 +29196,16 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B279" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C279" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D279" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F279" t="str">
         <f t="shared" si="3"/>
@@ -29211,16 +29214,16 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B280" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C280" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D280" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="F280" t="str">
         <f t="shared" si="3"/>
@@ -29229,16 +29232,16 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B281" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C281" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D281" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F281" t="str">
         <f t="shared" si="3"/>
@@ -29247,16 +29250,16 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B282" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C282" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D282" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="F282" t="str">
         <f t="shared" si="3"/>
@@ -29265,16 +29268,16 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B283" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C283" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D283" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F283" t="str">
         <f t="shared" si="3"/>
@@ -29283,16 +29286,16 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B284" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C284" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D284" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F284" t="str">
         <f t="shared" si="3"/>
@@ -29301,16 +29304,16 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B285" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C285" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D285" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F285" t="str">
         <f t="shared" si="3"/>
@@ -29319,16 +29322,16 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B286" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C286" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D286" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F286" t="str">
         <f t="shared" si="3"/>
@@ -29337,16 +29340,16 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B287" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C287" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D287" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F287" t="str">
         <f t="shared" si="3"/>
@@ -29355,16 +29358,16 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B288" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C288" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D288" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="F288" t="str">
         <f t="shared" si="3"/>
@@ -29376,13 +29379,13 @@
         <v>179</v>
       </c>
       <c r="B289" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C289" t="s">
         <v>1675</v>
       </c>
-      <c r="C289" t="s">
-        <v>1676</v>
-      </c>
       <c r="D289" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F289" t="str">
         <f t="shared" si="3"/>
@@ -29394,13 +29397,13 @@
         <v>179</v>
       </c>
       <c r="B290" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C290" t="s">
         <v>1677</v>
       </c>
-      <c r="C290" t="s">
-        <v>1678</v>
-      </c>
       <c r="D290" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="F290" t="str">
         <f t="shared" ref="F290:F353" si="4">"ElementPredefinit.create(nom_element: """&amp;B290&amp;""", sistema_element: """&amp;A290&amp;""", descripcio_ca: """&amp;C290&amp;""", descripcio_es: """&amp;D290&amp;""")"</f>
@@ -29412,13 +29415,13 @@
         <v>179</v>
       </c>
       <c r="B291" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C291" t="s">
         <v>1679</v>
       </c>
-      <c r="C291" t="s">
-        <v>1680</v>
-      </c>
       <c r="D291" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F291" t="str">
         <f t="shared" si="4"/>
@@ -29430,13 +29433,13 @@
         <v>179</v>
       </c>
       <c r="B292" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C292" t="s">
         <v>1681</v>
       </c>
-      <c r="C292" t="s">
-        <v>1682</v>
-      </c>
       <c r="D292" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F292" t="str">
         <f t="shared" si="4"/>
@@ -29448,13 +29451,13 @@
         <v>179</v>
       </c>
       <c r="B293" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C293" t="s">
         <v>1683</v>
       </c>
-      <c r="C293" t="s">
-        <v>1684</v>
-      </c>
       <c r="D293" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="F293" t="str">
         <f t="shared" si="4"/>
@@ -29466,13 +29469,13 @@
         <v>179</v>
       </c>
       <c r="B294" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C294" t="s">
         <v>1685</v>
       </c>
-      <c r="C294" t="s">
-        <v>1686</v>
-      </c>
       <c r="D294" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="F294" t="str">
         <f t="shared" si="4"/>
@@ -29484,13 +29487,13 @@
         <v>179</v>
       </c>
       <c r="B295" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C295" t="s">
         <v>1687</v>
       </c>
-      <c r="C295" t="s">
-        <v>1688</v>
-      </c>
       <c r="D295" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="F295" t="str">
         <f t="shared" si="4"/>
@@ -29502,13 +29505,13 @@
         <v>179</v>
       </c>
       <c r="B296" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C296" t="s">
         <v>1689</v>
       </c>
-      <c r="C296" t="s">
-        <v>1690</v>
-      </c>
       <c r="D296" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="F296" t="str">
         <f t="shared" si="4"/>
@@ -29520,13 +29523,13 @@
         <v>179</v>
       </c>
       <c r="B297" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C297" t="s">
         <v>1691</v>
       </c>
-      <c r="C297" t="s">
-        <v>1692</v>
-      </c>
       <c r="D297" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="F297" t="str">
         <f t="shared" si="4"/>
@@ -29538,13 +29541,13 @@
         <v>179</v>
       </c>
       <c r="B298" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C298" t="s">
         <v>1693</v>
       </c>
-      <c r="C298" t="s">
-        <v>1694</v>
-      </c>
       <c r="D298" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="F298" t="str">
         <f t="shared" si="4"/>
@@ -29556,13 +29559,13 @@
         <v>179</v>
       </c>
       <c r="B299" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C299" t="s">
         <v>1695</v>
       </c>
-      <c r="C299" t="s">
-        <v>1696</v>
-      </c>
       <c r="D299" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="F299" t="str">
         <f t="shared" si="4"/>
@@ -29574,13 +29577,13 @@
         <v>179</v>
       </c>
       <c r="B300" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C300" t="s">
         <v>1697</v>
       </c>
-      <c r="C300" t="s">
-        <v>1698</v>
-      </c>
       <c r="D300" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F300" t="str">
         <f t="shared" si="4"/>
@@ -29592,13 +29595,13 @@
         <v>179</v>
       </c>
       <c r="B301" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C301" t="s">
         <v>1699</v>
       </c>
-      <c r="C301" t="s">
-        <v>1700</v>
-      </c>
       <c r="D301" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="F301" t="str">
         <f t="shared" si="4"/>
@@ -29610,13 +29613,13 @@
         <v>179</v>
       </c>
       <c r="B302" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C302" t="s">
         <v>1701</v>
       </c>
-      <c r="C302" t="s">
-        <v>1702</v>
-      </c>
       <c r="D302" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="F302" t="str">
         <f t="shared" si="4"/>
@@ -29628,13 +29631,13 @@
         <v>179</v>
       </c>
       <c r="B303" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C303" t="s">
         <v>1703</v>
       </c>
-      <c r="C303" t="s">
-        <v>1704</v>
-      </c>
       <c r="D303" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F303" t="str">
         <f t="shared" si="4"/>
@@ -29646,13 +29649,13 @@
         <v>179</v>
       </c>
       <c r="B304" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C304" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D304" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="F304" t="str">
         <f t="shared" si="4"/>
@@ -29664,13 +29667,13 @@
         <v>179</v>
       </c>
       <c r="B305" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C305" t="s">
         <v>1706</v>
       </c>
-      <c r="C305" t="s">
-        <v>1707</v>
-      </c>
       <c r="D305" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="F305" t="str">
         <f t="shared" si="4"/>
@@ -29682,13 +29685,13 @@
         <v>179</v>
       </c>
       <c r="B306" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C306" t="s">
         <v>1708</v>
       </c>
-      <c r="C306" t="s">
-        <v>1709</v>
-      </c>
       <c r="D306" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="F306" t="str">
         <f t="shared" si="4"/>
@@ -29700,13 +29703,13 @@
         <v>179</v>
       </c>
       <c r="B307" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C307" t="s">
         <v>1710</v>
       </c>
-      <c r="C307" t="s">
-        <v>1711</v>
-      </c>
       <c r="D307" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="F307" t="str">
         <f t="shared" si="4"/>
@@ -29718,13 +29721,13 @@
         <v>179</v>
       </c>
       <c r="B308" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C308" t="s">
         <v>1712</v>
       </c>
-      <c r="C308" t="s">
-        <v>1713</v>
-      </c>
       <c r="D308" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="F308" t="str">
         <f t="shared" si="4"/>
@@ -29736,13 +29739,13 @@
         <v>179</v>
       </c>
       <c r="B309" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C309" t="s">
         <v>1714</v>
       </c>
-      <c r="C309" t="s">
-        <v>1715</v>
-      </c>
       <c r="D309" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="F309" t="str">
         <f t="shared" si="4"/>
@@ -29754,13 +29757,13 @@
         <v>121</v>
       </c>
       <c r="B310" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D310" t="s">
         <v>1737</v>
-      </c>
-      <c r="C310" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D310" t="s">
-        <v>1738</v>
       </c>
       <c r="F310" t="str">
         <f t="shared" si="4"/>
@@ -29772,13 +29775,13 @@
         <v>121</v>
       </c>
       <c r="B311" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D311" t="s">
         <v>1739</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D311" t="s">
-        <v>1740</v>
       </c>
       <c r="F311" t="str">
         <f t="shared" si="4"/>
@@ -29790,13 +29793,13 @@
         <v>121</v>
       </c>
       <c r="B312" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D312" t="s">
         <v>1741</v>
-      </c>
-      <c r="C312" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D312" t="s">
-        <v>1742</v>
       </c>
       <c r="F312" t="str">
         <f t="shared" si="4"/>
@@ -29808,13 +29811,13 @@
         <v>121</v>
       </c>
       <c r="B313" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D313" t="s">
         <v>1743</v>
-      </c>
-      <c r="C313" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D313" t="s">
-        <v>1744</v>
       </c>
       <c r="F313" t="str">
         <f t="shared" si="4"/>
@@ -29826,13 +29829,13 @@
         <v>121</v>
       </c>
       <c r="B314" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D314" t="s">
         <v>1745</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D314" t="s">
-        <v>1746</v>
       </c>
       <c r="F314" t="str">
         <f t="shared" si="4"/>
@@ -29844,13 +29847,13 @@
         <v>121</v>
       </c>
       <c r="B315" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D315" t="s">
         <v>1747</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D315" t="s">
-        <v>1748</v>
       </c>
       <c r="F315" t="str">
         <f t="shared" si="4"/>
@@ -29862,13 +29865,13 @@
         <v>121</v>
       </c>
       <c r="B316" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D316" t="s">
         <v>1749</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D316" t="s">
-        <v>1750</v>
       </c>
       <c r="F316" t="str">
         <f t="shared" si="4"/>
@@ -29880,13 +29883,13 @@
         <v>121</v>
       </c>
       <c r="B317" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C317" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D317" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="F317" t="str">
         <f t="shared" si="4"/>
@@ -29898,13 +29901,13 @@
         <v>121</v>
       </c>
       <c r="B318" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C318" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D318" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="F318" t="str">
         <f t="shared" si="4"/>
@@ -29916,13 +29919,13 @@
         <v>121</v>
       </c>
       <c r="B319" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C319" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D319" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="F319" t="str">
         <f t="shared" si="4"/>
@@ -29934,13 +29937,13 @@
         <v>121</v>
       </c>
       <c r="B320" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C320" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D320" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="F320" t="str">
         <f t="shared" si="4"/>
@@ -29952,13 +29955,13 @@
         <v>125</v>
       </c>
       <c r="B321" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D321" t="s">
         <v>1770</v>
-      </c>
-      <c r="C321" t="s">
-        <v>1780</v>
-      </c>
-      <c r="D321" t="s">
-        <v>1771</v>
       </c>
       <c r="F321" t="str">
         <f t="shared" si="4"/>
@@ -29970,13 +29973,13 @@
         <v>125</v>
       </c>
       <c r="B322" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D322" t="s">
         <v>1772</v>
-      </c>
-      <c r="C322" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D322" t="s">
-        <v>1773</v>
       </c>
       <c r="F322" t="str">
         <f t="shared" si="4"/>
@@ -29988,13 +29991,13 @@
         <v>125</v>
       </c>
       <c r="B323" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D323" t="s">
         <v>1774</v>
-      </c>
-      <c r="C323" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D323" t="s">
-        <v>1775</v>
       </c>
       <c r="F323" t="str">
         <f t="shared" si="4"/>
@@ -30006,13 +30009,13 @@
         <v>125</v>
       </c>
       <c r="B324" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D324" t="s">
         <v>1776</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D324" t="s">
-        <v>1777</v>
       </c>
       <c r="F324" t="str">
         <f t="shared" si="4"/>
@@ -30024,13 +30027,13 @@
         <v>125</v>
       </c>
       <c r="B325" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D325" t="s">
         <v>1778</v>
-      </c>
-      <c r="C325" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1779</v>
       </c>
       <c r="F325" t="str">
         <f t="shared" si="4"/>
@@ -30042,13 +30045,13 @@
         <v>125</v>
       </c>
       <c r="B326" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D326" t="s">
         <v>1745</v>
-      </c>
-      <c r="C326" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D326" t="s">
-        <v>1746</v>
       </c>
       <c r="F326" t="str">
         <f t="shared" si="4"/>
@@ -30060,13 +30063,13 @@
         <v>125</v>
       </c>
       <c r="B327" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D327" t="s">
         <v>1747</v>
-      </c>
-      <c r="C327" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D327" t="s">
-        <v>1748</v>
       </c>
       <c r="F327" t="str">
         <f t="shared" si="4"/>
@@ -30078,17 +30081,17 @@
         <v>125</v>
       </c>
       <c r="B328" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D328" t="s">
         <v>1749</v>
-      </c>
-      <c r="C328" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D328" t="s">
-        <v>1750</v>
       </c>
       <c r="F328" t="str">
         <f t="shared" si="4"/>
-        <v>ElementPredefinit.create(nom_element: "comptadors_individuals_centralitzats", sistema_element: "electricitat", descripcio_ca: "Comptadors individuals centralitzats", descripcio_es: "Contadores individuales centralizados")</v>
+        <v>ElementPredefinit.create(nom_element: "comptadors_centralitzats", sistema_element: "electricitat", descripcio_ca: "Comptadors individuals centralitzats", descripcio_es: "Contadores individuales centralizados")</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
@@ -30096,13 +30099,13 @@
         <v>207</v>
       </c>
       <c r="B329" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C329" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D329" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="F329" t="str">
         <f t="shared" si="4"/>
@@ -30114,13 +30117,13 @@
         <v>207</v>
       </c>
       <c r="B330" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C330" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D330" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="F330" t="str">
         <f t="shared" si="4"/>
@@ -30132,13 +30135,13 @@
         <v>207</v>
       </c>
       <c r="B331" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C331" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D331" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="F331" t="str">
         <f t="shared" si="4"/>
@@ -30150,13 +30153,13 @@
         <v>207</v>
       </c>
       <c r="B332" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C332" t="s">
         <v>1788</v>
       </c>
-      <c r="C332" t="s">
-        <v>1789</v>
-      </c>
       <c r="D332" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="F332" t="str">
         <f t="shared" si="4"/>
@@ -30168,13 +30171,13 @@
         <v>207</v>
       </c>
       <c r="B333" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C333" t="s">
         <v>1790</v>
       </c>
-      <c r="C333" t="s">
-        <v>1791</v>
-      </c>
       <c r="D333" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F333" t="str">
         <f t="shared" si="4"/>
@@ -30186,13 +30189,13 @@
         <v>207</v>
       </c>
       <c r="B334" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D334" t="s">
         <v>1792</v>
-      </c>
-      <c r="C334" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D334" t="s">
-        <v>1793</v>
       </c>
       <c r="F334" t="str">
         <f t="shared" si="4"/>
@@ -30204,13 +30207,13 @@
         <v>207</v>
       </c>
       <c r="B335" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D335" t="s">
         <v>1794</v>
-      </c>
-      <c r="C335" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D335" t="s">
-        <v>1795</v>
       </c>
       <c r="F335" t="str">
         <f t="shared" si="4"/>
@@ -30222,13 +30225,13 @@
         <v>207</v>
       </c>
       <c r="B336" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C336" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D336" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="F336" t="str">
         <f t="shared" si="4"/>
@@ -30240,13 +30243,13 @@
         <v>207</v>
       </c>
       <c r="B337" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C337" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D337" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="F337" t="str">
         <f t="shared" si="4"/>
@@ -30258,13 +30261,13 @@
         <v>207</v>
       </c>
       <c r="B338" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C338" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D338" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F338" t="str">
         <f t="shared" si="4"/>
@@ -30276,13 +30279,13 @@
         <v>207</v>
       </c>
       <c r="B339" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C339" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D339" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="F339" t="str">
         <f t="shared" si="4"/>
@@ -30294,13 +30297,13 @@
         <v>207</v>
       </c>
       <c r="B340" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C340" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D340" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F340" t="str">
         <f t="shared" si="4"/>
@@ -30312,13 +30315,13 @@
         <v>207</v>
       </c>
       <c r="B341" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C341" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D341" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="F341" t="str">
         <f t="shared" si="4"/>
@@ -30330,13 +30333,13 @@
         <v>207</v>
       </c>
       <c r="B342" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C342" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D342" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="F342" t="str">
         <f t="shared" si="4"/>
@@ -30348,13 +30351,13 @@
         <v>207</v>
       </c>
       <c r="B343" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C343" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D343" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="F343" t="str">
         <f t="shared" si="4"/>
@@ -30366,13 +30369,13 @@
         <v>207</v>
       </c>
       <c r="B344" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C344" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D344" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="F344" t="str">
         <f t="shared" si="4"/>
@@ -30384,13 +30387,13 @@
         <v>207</v>
       </c>
       <c r="B345" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C345" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D345" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="F345" t="str">
         <f t="shared" si="4"/>
@@ -30402,13 +30405,13 @@
         <v>207</v>
       </c>
       <c r="B346" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C346" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D346" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="F346" t="str">
         <f t="shared" si="4"/>
@@ -30420,13 +30423,13 @@
         <v>162</v>
       </c>
       <c r="B347" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D347" t="s">
         <v>1835</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D347" t="s">
-        <v>1836</v>
       </c>
       <c r="F347" t="str">
         <f t="shared" si="4"/>
@@ -30438,13 +30441,13 @@
         <v>162</v>
       </c>
       <c r="B348" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C348" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D348" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="F348" t="str">
         <f t="shared" si="4"/>
@@ -30456,13 +30459,13 @@
         <v>162</v>
       </c>
       <c r="B349" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C349" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D349" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="F349" t="str">
         <f t="shared" si="4"/>
@@ -30474,13 +30477,13 @@
         <v>396</v>
       </c>
       <c r="B350" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D350" t="s">
         <v>1844</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D350" t="s">
-        <v>1845</v>
       </c>
       <c r="F350" t="str">
         <f t="shared" si="4"/>
@@ -30492,13 +30495,13 @@
         <v>396</v>
       </c>
       <c r="B351" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D351" t="s">
         <v>1846</v>
-      </c>
-      <c r="C351" t="s">
-        <v>1870</v>
-      </c>
-      <c r="D351" t="s">
-        <v>1847</v>
       </c>
       <c r="F351" t="str">
         <f t="shared" si="4"/>
@@ -30510,13 +30513,13 @@
         <v>396</v>
       </c>
       <c r="B352" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D352" t="s">
         <v>1848</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1871</v>
-      </c>
-      <c r="D352" t="s">
-        <v>1849</v>
       </c>
       <c r="F352" t="str">
         <f t="shared" si="4"/>
@@ -30528,13 +30531,13 @@
         <v>396</v>
       </c>
       <c r="B353" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D353" t="s">
         <v>1850</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1872</v>
-      </c>
-      <c r="D353" t="s">
-        <v>1851</v>
       </c>
       <c r="F353" t="str">
         <f t="shared" si="4"/>
@@ -30546,13 +30549,13 @@
         <v>396</v>
       </c>
       <c r="B354" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D354" t="s">
         <v>1852</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1873</v>
-      </c>
-      <c r="D354" t="s">
-        <v>1853</v>
       </c>
       <c r="F354" t="str">
         <f t="shared" ref="F354:F404" si="5">"ElementPredefinit.create(nom_element: """&amp;B354&amp;""", sistema_element: """&amp;A354&amp;""", descripcio_ca: """&amp;C354&amp;""", descripcio_es: """&amp;D354&amp;""")"</f>
@@ -30564,13 +30567,13 @@
         <v>396</v>
       </c>
       <c r="B355" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C355" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D355" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="F355" t="str">
         <f t="shared" si="5"/>
@@ -30582,13 +30585,13 @@
         <v>396</v>
       </c>
       <c r="B356" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C356" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D356" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="F356" t="str">
         <f t="shared" si="5"/>
@@ -30600,13 +30603,13 @@
         <v>396</v>
       </c>
       <c r="B357" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C357" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D357" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="F357" t="str">
         <f t="shared" si="5"/>
@@ -30618,13 +30621,13 @@
         <v>396</v>
       </c>
       <c r="B358" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C358" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D358" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="F358" t="str">
         <f t="shared" si="5"/>
@@ -30636,13 +30639,13 @@
         <v>396</v>
       </c>
       <c r="B359" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C359" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D359" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F359" t="str">
         <f t="shared" si="5"/>
@@ -30654,13 +30657,13 @@
         <v>396</v>
       </c>
       <c r="B360" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C360" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D360" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="F360" t="str">
         <f t="shared" si="5"/>
@@ -30672,13 +30675,13 @@
         <v>396</v>
       </c>
       <c r="B361" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C361" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D361" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="F361" t="str">
         <f t="shared" si="5"/>
@@ -30690,13 +30693,13 @@
         <v>396</v>
       </c>
       <c r="B362" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C362" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D362" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="F362" t="str">
         <f t="shared" si="5"/>
@@ -30708,13 +30711,13 @@
         <v>396</v>
       </c>
       <c r="B363" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C363" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D363" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="F363" t="str">
         <f t="shared" si="5"/>
@@ -30726,13 +30729,13 @@
         <v>396</v>
       </c>
       <c r="B364" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C364" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D364" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F364" t="str">
         <f t="shared" si="5"/>
@@ -30744,13 +30747,13 @@
         <v>396</v>
       </c>
       <c r="B365" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C365" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D365" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="F365" t="str">
         <f t="shared" si="5"/>
@@ -30762,13 +30765,13 @@
         <v>396</v>
       </c>
       <c r="B366" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C366" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D366" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="F366" t="str">
         <f t="shared" si="5"/>
@@ -30780,13 +30783,13 @@
         <v>396</v>
       </c>
       <c r="B367" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C367" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D367" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="F367" t="str">
         <f t="shared" si="5"/>
@@ -30798,13 +30801,13 @@
         <v>396</v>
       </c>
       <c r="B368" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C368" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D368" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="F368" t="str">
         <f t="shared" si="5"/>
@@ -30816,13 +30819,13 @@
         <v>396</v>
       </c>
       <c r="B369" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C369" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D369" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F369" t="str">
         <f t="shared" si="5"/>
@@ -30834,13 +30837,13 @@
         <v>462</v>
       </c>
       <c r="B370" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D370" t="s">
         <v>1874</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1892</v>
-      </c>
-      <c r="D370" t="s">
-        <v>1875</v>
       </c>
       <c r="F370" t="str">
         <f t="shared" si="5"/>
@@ -30852,13 +30855,13 @@
         <v>462</v>
       </c>
       <c r="B371" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D371" t="s">
         <v>1876</v>
-      </c>
-      <c r="C371" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D371" t="s">
-        <v>1877</v>
       </c>
       <c r="F371" t="str">
         <f t="shared" si="5"/>
@@ -30870,13 +30873,13 @@
         <v>462</v>
       </c>
       <c r="B372" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D372" t="s">
         <v>1878</v>
-      </c>
-      <c r="C372" t="s">
-        <v>1894</v>
-      </c>
-      <c r="D372" t="s">
-        <v>1879</v>
       </c>
       <c r="F372" t="str">
         <f t="shared" si="5"/>
@@ -30888,13 +30891,13 @@
         <v>462</v>
       </c>
       <c r="B373" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D373" t="s">
         <v>1880</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1895</v>
-      </c>
-      <c r="D373" t="s">
-        <v>1881</v>
       </c>
       <c r="F373" t="str">
         <f t="shared" si="5"/>
@@ -30906,13 +30909,13 @@
         <v>462</v>
       </c>
       <c r="B374" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D374" t="s">
         <v>1882</v>
-      </c>
-      <c r="C374" t="s">
-        <v>1896</v>
-      </c>
-      <c r="D374" t="s">
-        <v>1883</v>
       </c>
       <c r="F374" t="str">
         <f t="shared" si="5"/>
@@ -30924,13 +30927,13 @@
         <v>462</v>
       </c>
       <c r="B375" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D375" t="s">
         <v>1884</v>
-      </c>
-      <c r="C375" t="s">
-        <v>1897</v>
-      </c>
-      <c r="D375" t="s">
-        <v>1885</v>
       </c>
       <c r="F375" t="str">
         <f t="shared" si="5"/>
@@ -30942,13 +30945,13 @@
         <v>462</v>
       </c>
       <c r="B376" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D376" t="s">
         <v>1886</v>
-      </c>
-      <c r="C376" t="s">
-        <v>1898</v>
-      </c>
-      <c r="D376" t="s">
-        <v>1887</v>
       </c>
       <c r="F376" t="str">
         <f t="shared" si="5"/>
@@ -30960,13 +30963,13 @@
         <v>462</v>
       </c>
       <c r="B377" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D377" t="s">
         <v>1888</v>
-      </c>
-      <c r="C377" t="s">
-        <v>1899</v>
-      </c>
-      <c r="D377" t="s">
-        <v>1889</v>
       </c>
       <c r="F377" t="str">
         <f t="shared" si="5"/>
@@ -30978,13 +30981,13 @@
         <v>462</v>
       </c>
       <c r="B378" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D378" t="s">
         <v>1890</v>
-      </c>
-      <c r="C378" t="s">
-        <v>1900</v>
-      </c>
-      <c r="D378" t="s">
-        <v>1891</v>
       </c>
       <c r="F378" t="str">
         <f t="shared" si="5"/>
@@ -30993,16 +30996,16 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B379" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C379" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D379" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="F379" t="str">
         <f t="shared" si="5"/>
@@ -31011,16 +31014,16 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B380" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D380" t="s">
         <v>1902</v>
-      </c>
-      <c r="C380" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D380" t="s">
-        <v>1903</v>
       </c>
       <c r="F380" t="str">
         <f t="shared" si="5"/>
@@ -31029,16 +31032,16 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B381" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C381" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D381" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F381" t="str">
         <f t="shared" si="5"/>
@@ -31047,16 +31050,16 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B382" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="C382" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D382" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="F382" t="str">
         <f t="shared" si="5"/>
@@ -31068,13 +31071,13 @@
         <v>600</v>
       </c>
       <c r="B383" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D383" t="s">
         <v>1913</v>
-      </c>
-      <c r="C383" t="s">
-        <v>1935</v>
-      </c>
-      <c r="D383" t="s">
-        <v>1914</v>
       </c>
       <c r="F383" t="str">
         <f t="shared" si="5"/>
@@ -31086,13 +31089,13 @@
         <v>600</v>
       </c>
       <c r="B384" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D384" t="s">
         <v>1915</v>
-      </c>
-      <c r="C384" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D384" t="s">
-        <v>1916</v>
       </c>
       <c r="F384" t="str">
         <f t="shared" si="5"/>
@@ -31104,13 +31107,13 @@
         <v>600</v>
       </c>
       <c r="B385" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D385" t="s">
         <v>1917</v>
-      </c>
-      <c r="C385" t="s">
-        <v>1937</v>
-      </c>
-      <c r="D385" t="s">
-        <v>1918</v>
       </c>
       <c r="F385" t="str">
         <f t="shared" si="5"/>
@@ -31122,13 +31125,13 @@
         <v>600</v>
       </c>
       <c r="B386" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D386" t="s">
         <v>1919</v>
-      </c>
-      <c r="C386" t="s">
-        <v>1938</v>
-      </c>
-      <c r="D386" t="s">
-        <v>1920</v>
       </c>
       <c r="F386" t="str">
         <f t="shared" si="5"/>
@@ -31140,13 +31143,13 @@
         <v>600</v>
       </c>
       <c r="B387" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D387" t="s">
         <v>1921</v>
-      </c>
-      <c r="C387" t="s">
-        <v>1939</v>
-      </c>
-      <c r="D387" t="s">
-        <v>1922</v>
       </c>
       <c r="F387" t="str">
         <f t="shared" si="5"/>
@@ -31158,13 +31161,13 @@
         <v>600</v>
       </c>
       <c r="B388" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D388" t="s">
         <v>1923</v>
-      </c>
-      <c r="C388" t="s">
-        <v>1940</v>
-      </c>
-      <c r="D388" t="s">
-        <v>1924</v>
       </c>
       <c r="F388" t="str">
         <f t="shared" si="5"/>
@@ -31176,13 +31179,13 @@
         <v>600</v>
       </c>
       <c r="B389" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D389" t="s">
         <v>1925</v>
-      </c>
-      <c r="C389" t="s">
-        <v>1941</v>
-      </c>
-      <c r="D389" t="s">
-        <v>1926</v>
       </c>
       <c r="F389" t="str">
         <f t="shared" si="5"/>
@@ -31194,13 +31197,13 @@
         <v>600</v>
       </c>
       <c r="B390" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D390" t="s">
         <v>1927</v>
-      </c>
-      <c r="C390" t="s">
-        <v>1942</v>
-      </c>
-      <c r="D390" t="s">
-        <v>1928</v>
       </c>
       <c r="F390" t="str">
         <f t="shared" si="5"/>
@@ -31212,13 +31215,13 @@
         <v>600</v>
       </c>
       <c r="B391" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D391" t="s">
         <v>1929</v>
-      </c>
-      <c r="C391" t="s">
-        <v>1943</v>
-      </c>
-      <c r="D391" t="s">
-        <v>1930</v>
       </c>
       <c r="F391" t="str">
         <f t="shared" si="5"/>
@@ -31230,13 +31233,13 @@
         <v>600</v>
       </c>
       <c r="B392" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D392" t="s">
         <v>1931</v>
-      </c>
-      <c r="C392" t="s">
-        <v>1944</v>
-      </c>
-      <c r="D392" t="s">
-        <v>1932</v>
       </c>
       <c r="F392" t="str">
         <f t="shared" si="5"/>
@@ -31248,13 +31251,13 @@
         <v>600</v>
       </c>
       <c r="B393" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D393" t="s">
         <v>1933</v>
-      </c>
-      <c r="C393" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D393" t="s">
-        <v>1934</v>
       </c>
       <c r="F393" t="str">
         <f t="shared" si="5"/>
@@ -31266,13 +31269,13 @@
         <v>633</v>
       </c>
       <c r="B394" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C394" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D394" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="F394" t="str">
         <f t="shared" si="5"/>
@@ -31284,13 +31287,13 @@
         <v>633</v>
       </c>
       <c r="B395" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C395" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D395" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="F395" t="str">
         <f t="shared" si="5"/>
@@ -31302,13 +31305,13 @@
         <v>633</v>
       </c>
       <c r="B396" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C396" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D396" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="F396" t="str">
         <f t="shared" si="5"/>
@@ -31320,13 +31323,13 @@
         <v>633</v>
       </c>
       <c r="B397" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D397" t="s">
         <v>1949</v>
-      </c>
-      <c r="C397" t="s">
-        <v>1965</v>
-      </c>
-      <c r="D397" t="s">
-        <v>1950</v>
       </c>
       <c r="F397" t="str">
         <f t="shared" si="5"/>
@@ -31338,13 +31341,13 @@
         <v>633</v>
       </c>
       <c r="B398" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D398" t="s">
         <v>1951</v>
-      </c>
-      <c r="C398" t="s">
-        <v>1966</v>
-      </c>
-      <c r="D398" t="s">
-        <v>1952</v>
       </c>
       <c r="F398" t="str">
         <f t="shared" si="5"/>
@@ -31356,13 +31359,13 @@
         <v>633</v>
       </c>
       <c r="B399" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D399" t="s">
         <v>1953</v>
-      </c>
-      <c r="C399" t="s">
-        <v>1967</v>
-      </c>
-      <c r="D399" t="s">
-        <v>1954</v>
       </c>
       <c r="F399" t="str">
         <f t="shared" si="5"/>
@@ -31374,13 +31377,13 @@
         <v>633</v>
       </c>
       <c r="B400" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D400" t="s">
         <v>1955</v>
-      </c>
-      <c r="C400" t="s">
-        <v>1968</v>
-      </c>
-      <c r="D400" t="s">
-        <v>1956</v>
       </c>
       <c r="F400" t="str">
         <f t="shared" si="5"/>
@@ -31392,13 +31395,13 @@
         <v>633</v>
       </c>
       <c r="B401" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D401" t="s">
         <v>1957</v>
-      </c>
-      <c r="C401" t="s">
-        <v>1969</v>
-      </c>
-      <c r="D401" t="s">
-        <v>1958</v>
       </c>
       <c r="F401" t="str">
         <f t="shared" si="5"/>
@@ -31410,13 +31413,13 @@
         <v>633</v>
       </c>
       <c r="B402" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D402" t="s">
         <v>1959</v>
-      </c>
-      <c r="C402" t="s">
-        <v>1970</v>
-      </c>
-      <c r="D402" t="s">
-        <v>1960</v>
       </c>
       <c r="F402" t="str">
         <f t="shared" si="5"/>
@@ -31428,13 +31431,13 @@
         <v>633</v>
       </c>
       <c r="B403" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D403" t="s">
         <v>1961</v>
-      </c>
-      <c r="C403" t="s">
-        <v>1971</v>
-      </c>
-      <c r="D403" t="s">
-        <v>1962</v>
       </c>
       <c r="F403" t="str">
         <f t="shared" si="5"/>
@@ -31446,13 +31449,13 @@
         <v>633</v>
       </c>
       <c r="B404" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D404" t="s">
         <v>1963</v>
-      </c>
-      <c r="C404" t="s">
-        <v>1972</v>
-      </c>
-      <c r="D404" t="s">
-        <v>1964</v>
       </c>
       <c r="F404" t="str">
         <f t="shared" si="5"/>

--- a/lib/documents_treball/operacions_manteniment_v2.xlsx
+++ b/lib/documents_treball/operacions_manteniment_v2.xlsx
@@ -5397,9 +5397,6 @@
     <t>caldera_gas_pn_major_70</t>
   </si>
   <si>
-    <t>Caldera a gas Pn &gt; 70 kW</t>
-  </si>
-  <si>
     <t>caldera_biomassa</t>
   </si>
   <si>
@@ -5454,27 +5451,12 @@
     <t>Escalfador Pn ≤ 24,4 kW</t>
   </si>
   <si>
-    <t>Escalfador 24,4 kW &lt; Pn ≤ 70 kW</t>
-  </si>
-  <si>
-    <t>Escalfador Pn &gt; 70 kW</t>
-  </si>
-  <si>
     <t>Calentador Pn ≤ 24,4 kW</t>
   </si>
   <si>
-    <t>Calentador 24,4 kW &lt; Pn ≤ 70 kW</t>
-  </si>
-  <si>
-    <t>Calentador Pn &gt; 70 kW</t>
-  </si>
-  <si>
     <t>Caldera Pn ≤ 70 kW</t>
   </si>
   <si>
-    <t>Caldera Pn &gt; 70 kW</t>
-  </si>
-  <si>
     <t>Sistema de climatització autònom Pn ≤ 12 kW</t>
   </si>
   <si>
@@ -5490,45 +5472,9 @@
     <t>Sistema de climatización con recuperación de calor Pn ≤ 12 kW</t>
   </si>
   <si>
-    <t>Sistema de climatització autònom 12 kW &lt; Pn ≤ 70 kW</t>
-  </si>
-  <si>
-    <t>Sistema de climatització autònom Pn &gt; 70 kW</t>
-  </si>
-  <si>
-    <t>Sistema de climatització amb torre de refrigeració 12 kW &lt; Pn ≤ 70 kW</t>
-  </si>
-  <si>
-    <t>Sistema de climatització amb torre de refrigeració Pn &gt; 70 kW</t>
-  </si>
-  <si>
     <t>Sistema de climatització amb recuperació de calor Pn ≤ 12 kW</t>
   </si>
   <si>
-    <t>Sistema de climatització amb recuperació de calor 12 kW &lt; Pn ≤ 70 kW</t>
-  </si>
-  <si>
-    <t>Sistema de climatització amb recuperació de calor Pn &gt; 70 kW</t>
-  </si>
-  <si>
-    <t>Sistema de climatización autónomo 12 kW &lt; Pn ≤ 70 kW</t>
-  </si>
-  <si>
-    <t>Sistema de climatización con torre de refrigeración 12 kW &lt; Pn ≤ 70 kW</t>
-  </si>
-  <si>
-    <t>Sistema de climatización con torre de refrigeración Pn &gt; 70 kW</t>
-  </si>
-  <si>
-    <t>Sistema de climatización autónomo Pn &gt; 70 kW</t>
-  </si>
-  <si>
-    <t>Sistema de climatización con recuperación de calor 12 kW &lt; Pn ≤ 70 kW</t>
-  </si>
-  <si>
-    <t>Sistema de climatización con recuperación de calor Pn &gt; 70 kW</t>
-  </si>
-  <si>
     <t>instalacio_gas</t>
   </si>
   <si>
@@ -5965,6 +5911,60 @@
   </si>
   <si>
     <t>escala_biguetes_formigo_armat</t>
+  </si>
+  <si>
+    <t>Escalfador 24,4 kW &amp;lt; Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>Calentador 24,4 kW &amp;lt; Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatització autònom 12 kW &amp;lt; Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatización autónomo 12 kW &amp;lt; Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatització amb torre de refrigeració 12 kW &amp;lt; Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatització amb recuperació de calor 12 kW &amp;lt; Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatización con torre de refrigeración 12 kW &amp;lt; Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatización con recuperación de calor 12 kW &amp;lt; Pn ≤ 70 kW</t>
+  </si>
+  <si>
+    <t>Escalfador Pn &amp;gt; 70 kW</t>
+  </si>
+  <si>
+    <t>Calentador Pn &amp;gt; 70 kW</t>
+  </si>
+  <si>
+    <t>Caldera a gas Pn &amp;gt; 70 kW</t>
+  </si>
+  <si>
+    <t>Caldera Pn &amp;gt; 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatització autònom Pn &amp;gt; 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatització amb torre de refrigeració Pn &amp;gt; 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatització amb recuperació de calor Pn &amp;gt; 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatización autónomo Pn &amp;gt; 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatización con torre de refrigeración Pn &amp;gt; 70 kW</t>
+  </si>
+  <si>
+    <t>Sistema de climatización con recuperación de calor Pn &amp;gt; 70 kW</t>
   </si>
 </sst>
 </file>
@@ -6375,7 +6375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N419"/>
   <sheetViews>
-    <sheetView topLeftCell="A392" workbookViewId="0">
+    <sheetView topLeftCell="A149" workbookViewId="0">
       <selection activeCell="B419" sqref="B419"/>
     </sheetView>
   </sheetViews>
@@ -24182,16 +24182,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D346" sqref="D346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="63.83203125" customWidth="1"/>
+    <col min="4" max="4" width="52.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -25293,7 +25293,7 @@
         <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>1979</v>
+        <v>1961</v>
       </c>
       <c r="C62" t="s">
         <v>1218</v>
@@ -30081,7 +30081,7 @@
         <v>125</v>
       </c>
       <c r="B328" t="s">
-        <v>1978</v>
+        <v>1960</v>
       </c>
       <c r="C328" t="s">
         <v>1760</v>
@@ -30102,10 +30102,10 @@
         <v>1784</v>
       </c>
       <c r="C329" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D329" t="s">
         <v>1808</v>
-      </c>
-      <c r="D329" t="s">
-        <v>1811</v>
       </c>
       <c r="F329" t="str">
         <f t="shared" si="4"/>
@@ -30120,14 +30120,14 @@
         <v>1785</v>
       </c>
       <c r="C330" t="s">
-        <v>1809</v>
+        <v>1962</v>
       </c>
       <c r="D330" t="s">
-        <v>1812</v>
+        <v>1963</v>
       </c>
       <c r="F330" t="str">
         <f t="shared" si="4"/>
-        <v>ElementPredefinit.create(nom_element: "escalfador_pn_24_70", sistema_element: "climatitzacio", descripcio_ca: "Escalfador 24,4 kW &lt; Pn ≤ 70 kW", descripcio_es: "Calentador 24,4 kW &lt; Pn ≤ 70 kW")</v>
+        <v>ElementPredefinit.create(nom_element: "escalfador_pn_24_70", sistema_element: "climatitzacio", descripcio_ca: "Escalfador 24,4 kW &amp;lt; Pn ≤ 70 kW", descripcio_es: "Calentador 24,4 kW &amp;lt; Pn ≤ 70 kW")</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
@@ -30138,14 +30138,14 @@
         <v>1786</v>
       </c>
       <c r="C331" t="s">
-        <v>1810</v>
+        <v>1970</v>
       </c>
       <c r="D331" t="s">
-        <v>1813</v>
+        <v>1971</v>
       </c>
       <c r="F331" t="str">
         <f t="shared" si="4"/>
-        <v>ElementPredefinit.create(nom_element: "escalfador_pn_major_70", sistema_element: "climatitzacio", descripcio_ca: "Escalfador Pn &gt; 70 kW", descripcio_es: "Calentador Pn &gt; 70 kW")</v>
+        <v>ElementPredefinit.create(nom_element: "escalfador_pn_major_70", sistema_element: "climatitzacio", descripcio_ca: "Escalfador Pn &amp;gt; 70 kW", descripcio_es: "Calentador Pn &amp;gt; 70 kW")</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
@@ -30174,14 +30174,14 @@
         <v>1789</v>
       </c>
       <c r="C333" t="s">
-        <v>1790</v>
+        <v>1972</v>
       </c>
       <c r="D333" t="s">
-        <v>1790</v>
+        <v>1972</v>
       </c>
       <c r="F333" t="str">
         <f t="shared" si="4"/>
-        <v>ElementPredefinit.create(nom_element: "caldera_gas_pn_major_70", sistema_element: "climatitzacio", descripcio_ca: "Caldera a gas Pn &gt; 70 kW", descripcio_es: "Caldera a gas Pn &gt; 70 kW")</v>
+        <v>ElementPredefinit.create(nom_element: "caldera_gas_pn_major_70", sistema_element: "climatitzacio", descripcio_ca: "Caldera a gas Pn &amp;gt; 70 kW", descripcio_es: "Caldera a gas Pn &amp;gt; 70 kW")</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
@@ -30189,13 +30189,13 @@
         <v>207</v>
       </c>
       <c r="B334" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D334" t="s">
         <v>1791</v>
-      </c>
-      <c r="C334" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D334" t="s">
-        <v>1792</v>
       </c>
       <c r="F334" t="str">
         <f t="shared" si="4"/>
@@ -30207,13 +30207,13 @@
         <v>207</v>
       </c>
       <c r="B335" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D335" t="s">
         <v>1793</v>
-      </c>
-      <c r="C335" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D335" t="s">
-        <v>1794</v>
       </c>
       <c r="F335" t="str">
         <f t="shared" si="4"/>
@@ -30225,13 +30225,13 @@
         <v>207</v>
       </c>
       <c r="B336" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C336" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="D336" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="F336" t="str">
         <f t="shared" si="4"/>
@@ -30243,17 +30243,17 @@
         <v>207</v>
       </c>
       <c r="B337" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C337" t="s">
-        <v>1815</v>
+        <v>1973</v>
       </c>
       <c r="D337" t="s">
-        <v>1815</v>
+        <v>1973</v>
       </c>
       <c r="F337" t="str">
         <f t="shared" si="4"/>
-        <v>ElementPredefinit.create(nom_element: "altres_pn_major_70", sistema_element: "climatitzacio", descripcio_ca: "Caldera Pn &gt; 70 kW", descripcio_es: "Caldera Pn &gt; 70 kW")</v>
+        <v>ElementPredefinit.create(nom_element: "altres_pn_major_70", sistema_element: "climatitzacio", descripcio_ca: "Caldera Pn &amp;gt; 70 kW", descripcio_es: "Caldera Pn &amp;gt; 70 kW")</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
@@ -30261,13 +30261,13 @@
         <v>207</v>
       </c>
       <c r="B338" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C338" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
       <c r="D338" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="F338" t="str">
         <f t="shared" si="4"/>
@@ -30279,13 +30279,13 @@
         <v>207</v>
       </c>
       <c r="B339" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C339" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="D339" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="F339" t="str">
         <f t="shared" si="4"/>
@@ -30297,13 +30297,13 @@
         <v>207</v>
       </c>
       <c r="B340" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C340" t="s">
-        <v>1825</v>
+        <v>1815</v>
       </c>
       <c r="D340" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="F340" t="str">
         <f t="shared" si="4"/>
@@ -30315,17 +30315,17 @@
         <v>207</v>
       </c>
       <c r="B341" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C341" t="s">
-        <v>1821</v>
+        <v>1964</v>
       </c>
       <c r="D341" t="s">
-        <v>1828</v>
+        <v>1965</v>
       </c>
       <c r="F341" t="str">
         <f t="shared" si="4"/>
-        <v>ElementPredefinit.create(nom_element: "clima_pn_12_70_autonoms", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització autònom 12 kW &lt; Pn ≤ 70 kW", descripcio_es: "Sistema de climatización autónomo 12 kW &lt; Pn ≤ 70 kW")</v>
+        <v>ElementPredefinit.create(nom_element: "clima_pn_12_70_autonoms", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització autònom 12 kW &amp;lt; Pn ≤ 70 kW", descripcio_es: "Sistema de climatización autónomo 12 kW &amp;lt; Pn ≤ 70 kW")</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
@@ -30333,17 +30333,17 @@
         <v>207</v>
       </c>
       <c r="B342" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C342" t="s">
-        <v>1823</v>
+        <v>1966</v>
       </c>
       <c r="D342" t="s">
-        <v>1829</v>
+        <v>1968</v>
       </c>
       <c r="F342" t="str">
         <f t="shared" si="4"/>
-        <v>ElementPredefinit.create(nom_element: "clima_pn_12_70_torres", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització amb torre de refrigeració 12 kW &lt; Pn ≤ 70 kW", descripcio_es: "Sistema de climatización con torre de refrigeración 12 kW &lt; Pn ≤ 70 kW")</v>
+        <v>ElementPredefinit.create(nom_element: "clima_pn_12_70_torres", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització amb torre de refrigeració 12 kW &amp;lt; Pn ≤ 70 kW", descripcio_es: "Sistema de climatización con torre de refrigeración 12 kW &amp;lt; Pn ≤ 70 kW")</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
@@ -30351,17 +30351,17 @@
         <v>207</v>
       </c>
       <c r="B343" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C343" t="s">
-        <v>1826</v>
+        <v>1967</v>
       </c>
       <c r="D343" t="s">
-        <v>1832</v>
+        <v>1969</v>
       </c>
       <c r="F343" t="str">
         <f t="shared" si="4"/>
-        <v>ElementPredefinit.create(nom_element: "clima_pn_12_70_recuperador", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització amb recuperació de calor 12 kW &lt; Pn ≤ 70 kW", descripcio_es: "Sistema de climatización con recuperación de calor 12 kW &lt; Pn ≤ 70 kW")</v>
+        <v>ElementPredefinit.create(nom_element: "clima_pn_12_70_recuperador", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització amb recuperació de calor 12 kW &amp;lt; Pn ≤ 70 kW", descripcio_es: "Sistema de climatización con recuperación de calor 12 kW &amp;lt; Pn ≤ 70 kW")</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
@@ -30369,17 +30369,17 @@
         <v>207</v>
       </c>
       <c r="B344" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C344" t="s">
-        <v>1822</v>
+        <v>1974</v>
       </c>
       <c r="D344" t="s">
-        <v>1831</v>
+        <v>1977</v>
       </c>
       <c r="F344" t="str">
         <f t="shared" si="4"/>
-        <v>ElementPredefinit.create(nom_element: "clima_pn_major_70_autonoms", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització autònom Pn &gt; 70 kW", descripcio_es: "Sistema de climatización autónomo Pn &gt; 70 kW")</v>
+        <v>ElementPredefinit.create(nom_element: "clima_pn_major_70_autonoms", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització autònom Pn &amp;gt; 70 kW", descripcio_es: "Sistema de climatización autónomo Pn &amp;gt; 70 kW")</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
@@ -30387,17 +30387,17 @@
         <v>207</v>
       </c>
       <c r="B345" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C345" t="s">
-        <v>1824</v>
+        <v>1975</v>
       </c>
       <c r="D345" t="s">
-        <v>1830</v>
+        <v>1978</v>
       </c>
       <c r="F345" t="str">
         <f t="shared" si="4"/>
-        <v>ElementPredefinit.create(nom_element: "clima_pn_major_70_torres", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització amb torre de refrigeració Pn &gt; 70 kW", descripcio_es: "Sistema de climatización con torre de refrigeración Pn &gt; 70 kW")</v>
+        <v>ElementPredefinit.create(nom_element: "clima_pn_major_70_torres", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització amb torre de refrigeració Pn &amp;gt; 70 kW", descripcio_es: "Sistema de climatización con torre de refrigeración Pn &amp;gt; 70 kW")</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
@@ -30405,17 +30405,17 @@
         <v>207</v>
       </c>
       <c r="B346" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C346" t="s">
-        <v>1827</v>
+        <v>1976</v>
       </c>
       <c r="D346" t="s">
-        <v>1833</v>
+        <v>1979</v>
       </c>
       <c r="F346" t="str">
         <f t="shared" si="4"/>
-        <v>ElementPredefinit.create(nom_element: "clima_pn_major_70_recuperador", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització amb recuperació de calor Pn &gt; 70 kW", descripcio_es: "Sistema de climatización con recuperación de calor Pn &gt; 70 kW")</v>
+        <v>ElementPredefinit.create(nom_element: "clima_pn_major_70_recuperador", sistema_element: "climatitzacio", descripcio_ca: "Sistema de climatització amb recuperació de calor Pn &amp;gt; 70 kW", descripcio_es: "Sistema de climatización con recuperación de calor Pn &amp;gt; 70 kW")</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
@@ -30423,13 +30423,13 @@
         <v>162</v>
       </c>
       <c r="B347" t="s">
-        <v>1834</v>
+        <v>1816</v>
       </c>
       <c r="C347" t="s">
-        <v>1840</v>
+        <v>1822</v>
       </c>
       <c r="D347" t="s">
-        <v>1835</v>
+        <v>1817</v>
       </c>
       <c r="F347" t="str">
         <f t="shared" si="4"/>
@@ -30441,13 +30441,13 @@
         <v>162</v>
       </c>
       <c r="B348" t="s">
-        <v>1836</v>
+        <v>1818</v>
       </c>
       <c r="C348" t="s">
-        <v>1841</v>
+        <v>1823</v>
       </c>
       <c r="D348" t="s">
-        <v>1838</v>
+        <v>1820</v>
       </c>
       <c r="F348" t="str">
         <f t="shared" si="4"/>
@@ -30459,13 +30459,13 @@
         <v>162</v>
       </c>
       <c r="B349" t="s">
-        <v>1837</v>
+        <v>1819</v>
       </c>
       <c r="C349" t="s">
-        <v>1842</v>
+        <v>1824</v>
       </c>
       <c r="D349" t="s">
-        <v>1839</v>
+        <v>1821</v>
       </c>
       <c r="F349" t="str">
         <f t="shared" si="4"/>
@@ -30477,13 +30477,13 @@
         <v>396</v>
       </c>
       <c r="B350" t="s">
-        <v>1843</v>
+        <v>1825</v>
       </c>
       <c r="C350" t="s">
-        <v>1868</v>
+        <v>1850</v>
       </c>
       <c r="D350" t="s">
-        <v>1844</v>
+        <v>1826</v>
       </c>
       <c r="F350" t="str">
         <f t="shared" si="4"/>
@@ -30495,13 +30495,13 @@
         <v>396</v>
       </c>
       <c r="B351" t="s">
-        <v>1845</v>
+        <v>1827</v>
       </c>
       <c r="C351" t="s">
-        <v>1869</v>
+        <v>1851</v>
       </c>
       <c r="D351" t="s">
-        <v>1846</v>
+        <v>1828</v>
       </c>
       <c r="F351" t="str">
         <f t="shared" si="4"/>
@@ -30513,13 +30513,13 @@
         <v>396</v>
       </c>
       <c r="B352" t="s">
-        <v>1847</v>
+        <v>1829</v>
       </c>
       <c r="C352" t="s">
-        <v>1870</v>
+        <v>1852</v>
       </c>
       <c r="D352" t="s">
-        <v>1848</v>
+        <v>1830</v>
       </c>
       <c r="F352" t="str">
         <f t="shared" si="4"/>
@@ -30531,13 +30531,13 @@
         <v>396</v>
       </c>
       <c r="B353" t="s">
-        <v>1849</v>
+        <v>1831</v>
       </c>
       <c r="C353" t="s">
-        <v>1871</v>
+        <v>1853</v>
       </c>
       <c r="D353" t="s">
-        <v>1850</v>
+        <v>1832</v>
       </c>
       <c r="F353" t="str">
         <f t="shared" si="4"/>
@@ -30549,13 +30549,13 @@
         <v>396</v>
       </c>
       <c r="B354" t="s">
-        <v>1851</v>
+        <v>1833</v>
       </c>
       <c r="C354" t="s">
-        <v>1872</v>
+        <v>1854</v>
       </c>
       <c r="D354" t="s">
-        <v>1852</v>
+        <v>1834</v>
       </c>
       <c r="F354" t="str">
         <f t="shared" ref="F354:F404" si="5">"ElementPredefinit.create(nom_element: """&amp;B354&amp;""", sistema_element: """&amp;A354&amp;""", descripcio_ca: """&amp;C354&amp;""", descripcio_es: """&amp;D354&amp;""")"</f>
@@ -30567,13 +30567,13 @@
         <v>396</v>
       </c>
       <c r="B355" t="s">
-        <v>1853</v>
+        <v>1835</v>
       </c>
       <c r="C355" t="s">
-        <v>1868</v>
+        <v>1850</v>
       </c>
       <c r="D355" t="s">
-        <v>1844</v>
+        <v>1826</v>
       </c>
       <c r="F355" t="str">
         <f t="shared" si="5"/>
@@ -30585,13 +30585,13 @@
         <v>396</v>
       </c>
       <c r="B356" t="s">
-        <v>1854</v>
+        <v>1836</v>
       </c>
       <c r="C356" t="s">
-        <v>1869</v>
+        <v>1851</v>
       </c>
       <c r="D356" t="s">
-        <v>1846</v>
+        <v>1828</v>
       </c>
       <c r="F356" t="str">
         <f t="shared" si="5"/>
@@ -30603,13 +30603,13 @@
         <v>396</v>
       </c>
       <c r="B357" t="s">
-        <v>1855</v>
+        <v>1837</v>
       </c>
       <c r="C357" t="s">
-        <v>1870</v>
+        <v>1852</v>
       </c>
       <c r="D357" t="s">
-        <v>1848</v>
+        <v>1830</v>
       </c>
       <c r="F357" t="str">
         <f t="shared" si="5"/>
@@ -30621,13 +30621,13 @@
         <v>396</v>
       </c>
       <c r="B358" t="s">
-        <v>1856</v>
+        <v>1838</v>
       </c>
       <c r="C358" t="s">
-        <v>1871</v>
+        <v>1853</v>
       </c>
       <c r="D358" t="s">
-        <v>1850</v>
+        <v>1832</v>
       </c>
       <c r="F358" t="str">
         <f t="shared" si="5"/>
@@ -30639,13 +30639,13 @@
         <v>396</v>
       </c>
       <c r="B359" t="s">
-        <v>1857</v>
+        <v>1839</v>
       </c>
       <c r="C359" t="s">
-        <v>1872</v>
+        <v>1854</v>
       </c>
       <c r="D359" t="s">
-        <v>1852</v>
+        <v>1834</v>
       </c>
       <c r="F359" t="str">
         <f t="shared" si="5"/>
@@ -30657,13 +30657,13 @@
         <v>396</v>
       </c>
       <c r="B360" t="s">
-        <v>1858</v>
+        <v>1840</v>
       </c>
       <c r="C360" t="s">
-        <v>1868</v>
+        <v>1850</v>
       </c>
       <c r="D360" t="s">
-        <v>1844</v>
+        <v>1826</v>
       </c>
       <c r="F360" t="str">
         <f t="shared" si="5"/>
@@ -30675,13 +30675,13 @@
         <v>396</v>
       </c>
       <c r="B361" t="s">
-        <v>1859</v>
+        <v>1841</v>
       </c>
       <c r="C361" t="s">
-        <v>1869</v>
+        <v>1851</v>
       </c>
       <c r="D361" t="s">
-        <v>1846</v>
+        <v>1828</v>
       </c>
       <c r="F361" t="str">
         <f t="shared" si="5"/>
@@ -30693,13 +30693,13 @@
         <v>396</v>
       </c>
       <c r="B362" t="s">
-        <v>1860</v>
+        <v>1842</v>
       </c>
       <c r="C362" t="s">
-        <v>1870</v>
+        <v>1852</v>
       </c>
       <c r="D362" t="s">
-        <v>1848</v>
+        <v>1830</v>
       </c>
       <c r="F362" t="str">
         <f t="shared" si="5"/>
@@ -30711,13 +30711,13 @@
         <v>396</v>
       </c>
       <c r="B363" t="s">
-        <v>1861</v>
+        <v>1843</v>
       </c>
       <c r="C363" t="s">
-        <v>1871</v>
+        <v>1853</v>
       </c>
       <c r="D363" t="s">
-        <v>1850</v>
+        <v>1832</v>
       </c>
       <c r="F363" t="str">
         <f t="shared" si="5"/>
@@ -30729,13 +30729,13 @@
         <v>396</v>
       </c>
       <c r="B364" t="s">
-        <v>1862</v>
+        <v>1844</v>
       </c>
       <c r="C364" t="s">
-        <v>1872</v>
+        <v>1854</v>
       </c>
       <c r="D364" t="s">
-        <v>1852</v>
+        <v>1834</v>
       </c>
       <c r="F364" t="str">
         <f t="shared" si="5"/>
@@ -30747,13 +30747,13 @@
         <v>396</v>
       </c>
       <c r="B365" t="s">
-        <v>1863</v>
+        <v>1845</v>
       </c>
       <c r="C365" t="s">
-        <v>1868</v>
+        <v>1850</v>
       </c>
       <c r="D365" t="s">
-        <v>1844</v>
+        <v>1826</v>
       </c>
       <c r="F365" t="str">
         <f t="shared" si="5"/>
@@ -30765,13 +30765,13 @@
         <v>396</v>
       </c>
       <c r="B366" t="s">
-        <v>1864</v>
+        <v>1846</v>
       </c>
       <c r="C366" t="s">
-        <v>1869</v>
+        <v>1851</v>
       </c>
       <c r="D366" t="s">
-        <v>1846</v>
+        <v>1828</v>
       </c>
       <c r="F366" t="str">
         <f t="shared" si="5"/>
@@ -30783,13 +30783,13 @@
         <v>396</v>
       </c>
       <c r="B367" t="s">
-        <v>1865</v>
+        <v>1847</v>
       </c>
       <c r="C367" t="s">
-        <v>1870</v>
+        <v>1852</v>
       </c>
       <c r="D367" t="s">
-        <v>1848</v>
+        <v>1830</v>
       </c>
       <c r="F367" t="str">
         <f t="shared" si="5"/>
@@ -30801,13 +30801,13 @@
         <v>396</v>
       </c>
       <c r="B368" t="s">
-        <v>1866</v>
+        <v>1848</v>
       </c>
       <c r="C368" t="s">
-        <v>1871</v>
+        <v>1853</v>
       </c>
       <c r="D368" t="s">
-        <v>1850</v>
+        <v>1832</v>
       </c>
       <c r="F368" t="str">
         <f t="shared" si="5"/>
@@ -30819,13 +30819,13 @@
         <v>396</v>
       </c>
       <c r="B369" t="s">
-        <v>1867</v>
+        <v>1849</v>
       </c>
       <c r="C369" t="s">
-        <v>1872</v>
+        <v>1854</v>
       </c>
       <c r="D369" t="s">
-        <v>1852</v>
+        <v>1834</v>
       </c>
       <c r="F369" t="str">
         <f t="shared" si="5"/>
@@ -30837,13 +30837,13 @@
         <v>462</v>
       </c>
       <c r="B370" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C370" t="s">
         <v>1873</v>
       </c>
-      <c r="C370" t="s">
-        <v>1891</v>
-      </c>
       <c r="D370" t="s">
-        <v>1874</v>
+        <v>1856</v>
       </c>
       <c r="F370" t="str">
         <f t="shared" si="5"/>
@@ -30855,13 +30855,13 @@
         <v>462</v>
       </c>
       <c r="B371" t="s">
-        <v>1875</v>
+        <v>1857</v>
       </c>
       <c r="C371" t="s">
-        <v>1892</v>
+        <v>1874</v>
       </c>
       <c r="D371" t="s">
-        <v>1876</v>
+        <v>1858</v>
       </c>
       <c r="F371" t="str">
         <f t="shared" si="5"/>
@@ -30873,13 +30873,13 @@
         <v>462</v>
       </c>
       <c r="B372" t="s">
-        <v>1877</v>
+        <v>1859</v>
       </c>
       <c r="C372" t="s">
-        <v>1893</v>
+        <v>1875</v>
       </c>
       <c r="D372" t="s">
-        <v>1878</v>
+        <v>1860</v>
       </c>
       <c r="F372" t="str">
         <f t="shared" si="5"/>
@@ -30891,13 +30891,13 @@
         <v>462</v>
       </c>
       <c r="B373" t="s">
-        <v>1879</v>
+        <v>1861</v>
       </c>
       <c r="C373" t="s">
-        <v>1894</v>
+        <v>1876</v>
       </c>
       <c r="D373" t="s">
-        <v>1880</v>
+        <v>1862</v>
       </c>
       <c r="F373" t="str">
         <f t="shared" si="5"/>
@@ -30909,13 +30909,13 @@
         <v>462</v>
       </c>
       <c r="B374" t="s">
-        <v>1881</v>
+        <v>1863</v>
       </c>
       <c r="C374" t="s">
-        <v>1895</v>
+        <v>1877</v>
       </c>
       <c r="D374" t="s">
-        <v>1882</v>
+        <v>1864</v>
       </c>
       <c r="F374" t="str">
         <f t="shared" si="5"/>
@@ -30927,13 +30927,13 @@
         <v>462</v>
       </c>
       <c r="B375" t="s">
-        <v>1883</v>
+        <v>1865</v>
       </c>
       <c r="C375" t="s">
-        <v>1896</v>
+        <v>1878</v>
       </c>
       <c r="D375" t="s">
-        <v>1884</v>
+        <v>1866</v>
       </c>
       <c r="F375" t="str">
         <f t="shared" si="5"/>
@@ -30945,13 +30945,13 @@
         <v>462</v>
       </c>
       <c r="B376" t="s">
-        <v>1885</v>
+        <v>1867</v>
       </c>
       <c r="C376" t="s">
-        <v>1897</v>
+        <v>1879</v>
       </c>
       <c r="D376" t="s">
-        <v>1886</v>
+        <v>1868</v>
       </c>
       <c r="F376" t="str">
         <f t="shared" si="5"/>
@@ -30963,13 +30963,13 @@
         <v>462</v>
       </c>
       <c r="B377" t="s">
-        <v>1887</v>
+        <v>1869</v>
       </c>
       <c r="C377" t="s">
-        <v>1898</v>
+        <v>1880</v>
       </c>
       <c r="D377" t="s">
-        <v>1888</v>
+        <v>1870</v>
       </c>
       <c r="F377" t="str">
         <f t="shared" si="5"/>
@@ -30981,13 +30981,13 @@
         <v>462</v>
       </c>
       <c r="B378" t="s">
-        <v>1889</v>
+        <v>1871</v>
       </c>
       <c r="C378" t="s">
-        <v>1899</v>
+        <v>1881</v>
       </c>
       <c r="D378" t="s">
-        <v>1890</v>
+        <v>1872</v>
       </c>
       <c r="F378" t="str">
         <f t="shared" si="5"/>
@@ -30996,16 +30996,16 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1911</v>
+        <v>1893</v>
       </c>
       <c r="B379" t="s">
-        <v>1900</v>
+        <v>1882</v>
       </c>
       <c r="C379" t="s">
-        <v>1910</v>
+        <v>1892</v>
       </c>
       <c r="D379" t="s">
-        <v>1905</v>
+        <v>1887</v>
       </c>
       <c r="F379" t="str">
         <f t="shared" si="5"/>
@@ -31014,16 +31014,16 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>1911</v>
+        <v>1893</v>
       </c>
       <c r="B380" t="s">
-        <v>1901</v>
+        <v>1883</v>
       </c>
       <c r="C380" t="s">
-        <v>1908</v>
+        <v>1890</v>
       </c>
       <c r="D380" t="s">
-        <v>1902</v>
+        <v>1884</v>
       </c>
       <c r="F380" t="str">
         <f t="shared" si="5"/>
@@ -31032,16 +31032,16 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>1911</v>
+        <v>1893</v>
       </c>
       <c r="B381" t="s">
-        <v>1903</v>
+        <v>1885</v>
       </c>
       <c r="C381" t="s">
-        <v>1909</v>
+        <v>1891</v>
       </c>
       <c r="D381" t="s">
-        <v>1906</v>
+        <v>1888</v>
       </c>
       <c r="F381" t="str">
         <f t="shared" si="5"/>
@@ -31050,16 +31050,16 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>1911</v>
+        <v>1893</v>
       </c>
       <c r="B382" t="s">
-        <v>1904</v>
+        <v>1886</v>
       </c>
       <c r="C382" t="s">
-        <v>1907</v>
+        <v>1889</v>
       </c>
       <c r="D382" t="s">
-        <v>1907</v>
+        <v>1889</v>
       </c>
       <c r="F382" t="str">
         <f t="shared" si="5"/>
@@ -31071,13 +31071,13 @@
         <v>600</v>
       </c>
       <c r="B383" t="s">
-        <v>1912</v>
+        <v>1894</v>
       </c>
       <c r="C383" t="s">
-        <v>1934</v>
+        <v>1916</v>
       </c>
       <c r="D383" t="s">
-        <v>1913</v>
+        <v>1895</v>
       </c>
       <c r="F383" t="str">
         <f t="shared" si="5"/>
@@ -31089,13 +31089,13 @@
         <v>600</v>
       </c>
       <c r="B384" t="s">
-        <v>1914</v>
+        <v>1896</v>
       </c>
       <c r="C384" t="s">
-        <v>1935</v>
+        <v>1917</v>
       </c>
       <c r="D384" t="s">
-        <v>1915</v>
+        <v>1897</v>
       </c>
       <c r="F384" t="str">
         <f t="shared" si="5"/>
@@ -31107,13 +31107,13 @@
         <v>600</v>
       </c>
       <c r="B385" t="s">
-        <v>1916</v>
+        <v>1898</v>
       </c>
       <c r="C385" t="s">
-        <v>1936</v>
+        <v>1918</v>
       </c>
       <c r="D385" t="s">
-        <v>1917</v>
+        <v>1899</v>
       </c>
       <c r="F385" t="str">
         <f t="shared" si="5"/>
@@ -31125,13 +31125,13 @@
         <v>600</v>
       </c>
       <c r="B386" t="s">
-        <v>1918</v>
+        <v>1900</v>
       </c>
       <c r="C386" t="s">
-        <v>1937</v>
+        <v>1919</v>
       </c>
       <c r="D386" t="s">
-        <v>1919</v>
+        <v>1901</v>
       </c>
       <c r="F386" t="str">
         <f t="shared" si="5"/>
@@ -31143,13 +31143,13 @@
         <v>600</v>
       </c>
       <c r="B387" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C387" t="s">
         <v>1920</v>
       </c>
-      <c r="C387" t="s">
-        <v>1938</v>
-      </c>
       <c r="D387" t="s">
-        <v>1921</v>
+        <v>1903</v>
       </c>
       <c r="F387" t="str">
         <f t="shared" si="5"/>
@@ -31161,13 +31161,13 @@
         <v>600</v>
       </c>
       <c r="B388" t="s">
-        <v>1922</v>
+        <v>1904</v>
       </c>
       <c r="C388" t="s">
-        <v>1939</v>
+        <v>1921</v>
       </c>
       <c r="D388" t="s">
-        <v>1923</v>
+        <v>1905</v>
       </c>
       <c r="F388" t="str">
         <f t="shared" si="5"/>
@@ -31179,13 +31179,13 @@
         <v>600</v>
       </c>
       <c r="B389" t="s">
-        <v>1924</v>
+        <v>1906</v>
       </c>
       <c r="C389" t="s">
-        <v>1940</v>
+        <v>1922</v>
       </c>
       <c r="D389" t="s">
-        <v>1925</v>
+        <v>1907</v>
       </c>
       <c r="F389" t="str">
         <f t="shared" si="5"/>
@@ -31197,13 +31197,13 @@
         <v>600</v>
       </c>
       <c r="B390" t="s">
-        <v>1926</v>
+        <v>1908</v>
       </c>
       <c r="C390" t="s">
-        <v>1941</v>
+        <v>1923</v>
       </c>
       <c r="D390" t="s">
-        <v>1927</v>
+        <v>1909</v>
       </c>
       <c r="F390" t="str">
         <f t="shared" si="5"/>
@@ -31215,13 +31215,13 @@
         <v>600</v>
       </c>
       <c r="B391" t="s">
-        <v>1928</v>
+        <v>1910</v>
       </c>
       <c r="C391" t="s">
-        <v>1942</v>
+        <v>1924</v>
       </c>
       <c r="D391" t="s">
-        <v>1929</v>
+        <v>1911</v>
       </c>
       <c r="F391" t="str">
         <f t="shared" si="5"/>
@@ -31233,13 +31233,13 @@
         <v>600</v>
       </c>
       <c r="B392" t="s">
-        <v>1930</v>
+        <v>1912</v>
       </c>
       <c r="C392" t="s">
-        <v>1943</v>
+        <v>1925</v>
       </c>
       <c r="D392" t="s">
-        <v>1931</v>
+        <v>1913</v>
       </c>
       <c r="F392" t="str">
         <f t="shared" si="5"/>
@@ -31251,13 +31251,13 @@
         <v>600</v>
       </c>
       <c r="B393" t="s">
-        <v>1932</v>
+        <v>1914</v>
       </c>
       <c r="C393" t="s">
-        <v>1944</v>
+        <v>1926</v>
       </c>
       <c r="D393" t="s">
-        <v>1933</v>
+        <v>1915</v>
       </c>
       <c r="F393" t="str">
         <f t="shared" si="5"/>
@@ -31269,13 +31269,13 @@
         <v>633</v>
       </c>
       <c r="B394" t="s">
-        <v>1945</v>
+        <v>1927</v>
       </c>
       <c r="C394" t="s">
-        <v>1972</v>
+        <v>1954</v>
       </c>
       <c r="D394" t="s">
-        <v>1975</v>
+        <v>1957</v>
       </c>
       <c r="F394" t="str">
         <f t="shared" si="5"/>
@@ -31287,13 +31287,13 @@
         <v>633</v>
       </c>
       <c r="B395" t="s">
-        <v>1946</v>
+        <v>1928</v>
       </c>
       <c r="C395" t="s">
-        <v>1973</v>
+        <v>1955</v>
       </c>
       <c r="D395" t="s">
-        <v>1976</v>
+        <v>1958</v>
       </c>
       <c r="F395" t="str">
         <f t="shared" si="5"/>
@@ -31305,13 +31305,13 @@
         <v>633</v>
       </c>
       <c r="B396" t="s">
-        <v>1947</v>
+        <v>1929</v>
       </c>
       <c r="C396" t="s">
-        <v>1974</v>
+        <v>1956</v>
       </c>
       <c r="D396" t="s">
-        <v>1977</v>
+        <v>1959</v>
       </c>
       <c r="F396" t="str">
         <f t="shared" si="5"/>
@@ -31323,13 +31323,13 @@
         <v>633</v>
       </c>
       <c r="B397" t="s">
-        <v>1948</v>
+        <v>1930</v>
       </c>
       <c r="C397" t="s">
-        <v>1964</v>
+        <v>1946</v>
       </c>
       <c r="D397" t="s">
-        <v>1949</v>
+        <v>1931</v>
       </c>
       <c r="F397" t="str">
         <f t="shared" si="5"/>
@@ -31341,13 +31341,13 @@
         <v>633</v>
       </c>
       <c r="B398" t="s">
-        <v>1950</v>
+        <v>1932</v>
       </c>
       <c r="C398" t="s">
-        <v>1965</v>
+        <v>1947</v>
       </c>
       <c r="D398" t="s">
-        <v>1951</v>
+        <v>1933</v>
       </c>
       <c r="F398" t="str">
         <f t="shared" si="5"/>
@@ -31359,13 +31359,13 @@
         <v>633</v>
       </c>
       <c r="B399" t="s">
-        <v>1952</v>
+        <v>1934</v>
       </c>
       <c r="C399" t="s">
-        <v>1966</v>
+        <v>1948</v>
       </c>
       <c r="D399" t="s">
-        <v>1953</v>
+        <v>1935</v>
       </c>
       <c r="F399" t="str">
         <f t="shared" si="5"/>
@@ -31377,13 +31377,13 @@
         <v>633</v>
       </c>
       <c r="B400" t="s">
-        <v>1954</v>
+        <v>1936</v>
       </c>
       <c r="C400" t="s">
-        <v>1967</v>
+        <v>1949</v>
       </c>
       <c r="D400" t="s">
-        <v>1955</v>
+        <v>1937</v>
       </c>
       <c r="F400" t="str">
         <f t="shared" si="5"/>
@@ -31395,13 +31395,13 @@
         <v>633</v>
       </c>
       <c r="B401" t="s">
-        <v>1956</v>
+        <v>1938</v>
       </c>
       <c r="C401" t="s">
-        <v>1968</v>
+        <v>1950</v>
       </c>
       <c r="D401" t="s">
-        <v>1957</v>
+        <v>1939</v>
       </c>
       <c r="F401" t="str">
         <f t="shared" si="5"/>
@@ -31413,13 +31413,13 @@
         <v>633</v>
       </c>
       <c r="B402" t="s">
-        <v>1958</v>
+        <v>1940</v>
       </c>
       <c r="C402" t="s">
-        <v>1969</v>
+        <v>1951</v>
       </c>
       <c r="D402" t="s">
-        <v>1959</v>
+        <v>1941</v>
       </c>
       <c r="F402" t="str">
         <f t="shared" si="5"/>
@@ -31431,13 +31431,13 @@
         <v>633</v>
       </c>
       <c r="B403" t="s">
-        <v>1960</v>
+        <v>1942</v>
       </c>
       <c r="C403" t="s">
-        <v>1970</v>
+        <v>1952</v>
       </c>
       <c r="D403" t="s">
-        <v>1961</v>
+        <v>1943</v>
       </c>
       <c r="F403" t="str">
         <f t="shared" si="5"/>
@@ -31449,13 +31449,13 @@
         <v>633</v>
       </c>
       <c r="B404" t="s">
-        <v>1962</v>
+        <v>1944</v>
       </c>
       <c r="C404" t="s">
-        <v>1971</v>
+        <v>1953</v>
       </c>
       <c r="D404" t="s">
-        <v>1963</v>
+        <v>1945</v>
       </c>
       <c r="F404" t="str">
         <f t="shared" si="5"/>
